--- a/tallui-data/Static Data.xlsx
+++ b/tallui-data/Static Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Marketing\AZIZ\World\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\tallui-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14172" uniqueCount="5990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14417" uniqueCount="6154">
   <si>
     <t>ISO Language Name</t>
   </si>
@@ -17998,6 +17998,498 @@
   </si>
   <si>
     <t>El Aaiún</t>
+  </si>
+  <si>
+    <t>Russia: 241 km (150 mi), Georgia: 141 km (88 mi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece: 282 km (175 mi), Kosovo: 112 km (70 mi), North Macedonia: 151 km (94 mi), Montenegro: 172 km (107 mi) </t>
+  </si>
+  <si>
+    <t>France: 56.6 km (35.2 mi), Spain: 63.7 km (39.6 mi)</t>
+  </si>
+  <si>
+    <t>Azerbaijan: 787 km (489 mi), Georgia: 164 km (102 mi), Iran: 35 km (22 mi), Turkey: 268 km (167 mi)</t>
+  </si>
+  <si>
+    <t>Czech Republic: 362 km (225 mi), Germany: 784 km (487 mi), Hungary: 366 km (227 mi), Italy: 430 km (270 mi), Liechtenstein: 34 km (21 mi), Slovakia: 91 km (57 mi), Slovenia: 330 km (210 mi), Switzerland (2): 164 km (102 mi)</t>
+  </si>
+  <si>
+    <t>Armenia: 787 km (489 mi), Georgia: 322 km (200 mi), Iran: 432 km (268 mi), Russia: 284 km (176 mi), Turkey: 9 km (5.6 mi)</t>
+  </si>
+  <si>
+    <t>Latvia: 141 km (88 mi), Lithuania: 502 km (312 mi), Poland: 407 km (253 mi), Russia: 959 km (596 mi), Ukraine: 891 km (554 mi)</t>
+  </si>
+  <si>
+    <t>France: 620 km (390 mi), Germany: 167 km (104 mi), Luxembourg: 148 km (92 mi), Netherlands: 450 km (280 mi)</t>
+  </si>
+  <si>
+    <t>Guatemala: 266 km (165 mi), Mexico: 250 km (160 mi)</t>
+  </si>
+  <si>
+    <t>Burkina Faso: 306 km (190 mi), Niger: 266 km (165 mi), Nigeria: 773 km (480 mi), Togo: 644 km (400 mi)</t>
+  </si>
+  <si>
+    <t>China: 470 km (290 mi), India: 605 km (376 mi)</t>
+  </si>
+  <si>
+    <t>Croatia: 932 km (579 mi), Montenegro: 225 km (140 mi), Serbia: 302 km (188 mi)</t>
+  </si>
+  <si>
+    <t>Libya: 982 km (610 mi), Mali: 1376 km (855 mi), Mauritania: 463 km (288 mi), Morocco: 1559 km (969 mi), Niger: 956 km (594 mi), Tunisia: 1010 km (630 mi), Western Sahara: 42 km (26 mi)</t>
+  </si>
+  <si>
+    <t>China: 76 km (47 mi), Iran: 935 km (581 mi), Pakistan: 2430 km (1510 mi), Tajikistan: 1206 km (749 mi), Turkmenistan: 744 km (462 mi), Uzbekistan: 137 km (85 mi)</t>
+  </si>
+  <si>
+    <t>DR Congo: 2511 km (1560 mi), Congo: 201 km (125 mi), Namibia: 1376 km (855 mi),  Zambia: 1110 km (690 mi)</t>
+  </si>
+  <si>
+    <t>Bolivia: 832 km (517 mi), Brazil: 1224 km (761 mi), Chile : 5300 km (3300 mi), Paraguay: 1880 km (1170 mi), Uruguay: 579 km (360 mi)</t>
+  </si>
+  <si>
+    <t>India: 4053 km (2518 mi), Myanmar: 193 km (120 mi)</t>
+  </si>
+  <si>
+    <t>Argentina: 832 km (517 mi), Brazil: 3400 km (2100 mi), Chile: 861 km (535 mi), Paraguay: 750 km (470 mi), Peru: 900 km (560 mi)</t>
+  </si>
+  <si>
+    <t>Namibia: 1360 km (850 mi), South Africa: 1840 km (1140 mi), Zambia: 0.15 km (0.093 mi), Zimbabwe: 813 km (505 mi)</t>
+  </si>
+  <si>
+    <t>Argentina: 1224 km (761 mi), Bolivia: 3400 km (2100 mi), Colombia: 1643 km (1021 mi), French Guiana: 673 km (418 mi), Guyana: 1119 km (695 mi), Paraguay: 1290 km (800 mi), Peru: 1560 km (970 mi), Suriname: 597 km (371 mi), Uruguay: 985 km (612 mi), Venezuela: 2200 km (1400 mi)</t>
+  </si>
+  <si>
+    <t>Malaysia: 381 km (237 mi)</t>
+  </si>
+  <si>
+    <t>Greece: 494 km (307 mi), North Macedonia: 148 km (92 mi), Romania: 608 km (378 mi), Serbia: 318 km (198 mi), Turkey: 240 km (150 mi)</t>
+  </si>
+  <si>
+    <t>Benin: 306 km (190 mi), Ivory Coast: 584 km (363 mi), Ghana: 549 km (341 mi), Mali: 1000 km (620 mi), Niger: 628 km (390 mi), Togo: 126 km (78 mi)</t>
+  </si>
+  <si>
+    <t>DR Congo: 233 km (145 mi), Rwanda: 290 km (180 mi), Tanzania: 451 km (280 mi)</t>
+  </si>
+  <si>
+    <t>Laos: 541 km (336 mi), Thailand: 803 km (499 mi), Vietnam: 1228 km (763 mi)</t>
+  </si>
+  <si>
+    <t>Central African Republic: 797 km (495 mi), Chad: 1094 km (680 mi), Congo: 523 km (325 mi), Equatorial Guinea: 189 km (117 mi), Gabon: 298 km (185 mi), Nigeria: 1690 km (1050 mi)</t>
+  </si>
+  <si>
+    <t>United States: 8893 km (5526 mi)</t>
+  </si>
+  <si>
+    <t>Cameroon: 797 km (495 mi), Chad: 1197 km (744 mi), DR Congo: 1577 km (980 mi), Congo: 467 km (290 mi), South Sudan: 682 km (424 mi), Sudan: 483 km (300 mi)</t>
+  </si>
+  <si>
+    <t>Cameroon: 1094 km (680 mi), Central African Republic: 1197 km (744 mi), Libya: 1055 km (656 mi), Niger: 1175 km (730 mi), Nigeria: 87 km (54 mi), Sudan: 1360 km (850 mi)</t>
+  </si>
+  <si>
+    <t>Afghanistan: 76 km (47 mi), Bhutan: 470 km (290 mi), India (3): 3380 km (2100 mi), Kazakhstan: 1533 km (953 mi), North Korea: 1416 km (880 mi), Kyrgyzstan: 858 km (533 mi), Laos: 423 km (263 mi), Mongolia: 4677 km (2906 mi), Myanmar: 2185 km (1358 mi), Nepal: 1236 km (768 mi), Pakistan: 523 km (325 mi), Russia (2): 3645 km (2265 mi), Tajikistan: 414 km (257 mi), Vietnam: 1281 km (796 mi)</t>
+  </si>
+  <si>
+    <t>Brazil: 1643 km (1021 mi),Ecuador: 590 km (370 mi), Panama: 225 km (140 mi), Peru: 1496 km (930 mi), Venezuela: 2050 km (1270 mi)</t>
+  </si>
+  <si>
+    <t>Angola: 2511 km (1560 mi), Burundi: 233 km (145 mi), Central African Republic: 1,577 km (980 mi), Congo: 2410 km (1500 mi), Rwanda: 217 km (135 mi), South Sudan: 628 km (390 mi), Tanzania: 459 km (285 mi), Uganda: 765 km (475 mi), Zambia: 1930 km (1200 mi)</t>
+  </si>
+  <si>
+    <t>Burkina Faso: 584 km (363 mi), Ghana: 668 km (415 mi), Guinea: 610 km (380 mi), Liberia: 716 km (445 mi), Mali: 532 km (331 mi)</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina: 932 km (579 mi), Hungary: 329 km (204 mi), Montenegro: 25 km (16 mi), Serbia: 241 km (150 mi), Slovenia: 670 km (420 mi)</t>
+  </si>
+  <si>
+    <t>Nicaragua: 309 km (192 mi), Panama: 330 km (210 mi)</t>
+  </si>
+  <si>
+    <t>Angola: 201 km (125 mi), Cameroon: 523 km (325 mi), Central African Republic: 467 km (290 mi), DR Congo: 2410 km (1500 mi), Gabon: 1903 km (1182 mi)</t>
+  </si>
+  <si>
+    <t>Argentina: 5300 km (3300 mi), Bolivia: 861 km (535 mi), Peru: 160 km (99 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 362 km (225 mi), Germany: 815 km (506 mi), Poland: 658 km (409 mi), Slovakia: 215 km (134 mi)</t>
+  </si>
+  <si>
+    <t>Germany: 68 km (42 mi)</t>
+  </si>
+  <si>
+    <t>Eritrea: 125 km (78 mi), Ethiopia: 342 km (213 mi)</t>
+  </si>
+  <si>
+    <t>Haiti: 360 km (220 mi)</t>
+  </si>
+  <si>
+    <t>Indonesia: 228 km (142 mi)</t>
+  </si>
+  <si>
+    <t>Colombia: 590 km (370 mi), Peru: 1420 km (880 mi)</t>
+  </si>
+  <si>
+    <t>Gaza Strip (State of Palestine): 11 km (6.8 mi), Israel: 266 km (165 mi), Libya: 1115 km (693 mi), Sudan: 1273 km (791 mi)</t>
+  </si>
+  <si>
+    <t>Guatemala: 203 km (126 mi), Honduras: 342 km (213 mi)</t>
+  </si>
+  <si>
+    <t>Cameroon: 189 km (117 mi), Gabon: 350 km (220 mi)</t>
+  </si>
+  <si>
+    <t>Djibouti: 125 km (78 mi), Ethiopia: 912 km (567 mi), Sudan: 605 km (376 mi)</t>
+  </si>
+  <si>
+    <t>Latvia: 339 km (211 mi), Russia: 294 km (183 mi)</t>
+  </si>
+  <si>
+    <t>Mozambique: 105 km (65 mi), South Africa: 430 km (270 mi)</t>
+  </si>
+  <si>
+    <t>Djibouti: 342 km (213 mi), Eritrea: 912 km (567 mi), Kenya: 861 km (535 mi), Somalia: 1600 km (990 mi), South Sudan: 883 km (549 mi), Sudan: 723 km (449 mi)</t>
+  </si>
+  <si>
+    <t>Norway: 736 km (457 mi), Sweden (2): 614 km (382 mi), Russia: 1340 km (830 mi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andorra: 56.6 km (35.2 mi), Belgium: 620 km (390 mi), Germany: 451 km (280 mi), Italy: 488 km (303 mi), Luxembourg: 73 km (45 mi), Monaco: 4.4 km (2.7 mi), Spain (3):[23] 623 km (387 mi)Switzerland: 573 km (356 mi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cameroon: 298 km (185 mi), Congo: 1903 km (1182 mi), Equatorial Guinea: 350 km (220 mi)</t>
+  </si>
+  <si>
+    <t>Senegal: 740 km (460 mi)</t>
+  </si>
+  <si>
+    <t>Armenia: 164 km (102 mi), Azerbaijan: 322 km (200 mi), Russia: 723 km (449 mi), Turkey: 252 km (157 mi), Abkhazia: 141 km (88 mi), South Ossetia: 334 km (208 mi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austria: 784 km (487 mi), Belgium: 167 km (104 mi), Czech Republic: 815 km (506 mi), Denmark: 68 km (42 mi), France: 451 km (280 mi), Luxembourg: 138 km (86 mi), Netherlands: 577 km (359 mi), Poland: 456 km (283 mi), Switzerland: 334 km (208 mi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burkina Faso: 549 km (341 mi), Ivory Coast: 668 km (415 mi), Togo: 877 km (545 mi)</t>
+  </si>
+  <si>
+    <t>Albania: 282 km (175 mi), Bulgaria: 494 km (307 mi), Turkey: 206 km (128 mi), North Macedonia: 246 km (153 mi)</t>
+  </si>
+  <si>
+    <t>Belize: 266 km (165 mi), El Salvador: 203 km (126 mi), Honduras: 256 km (159 mi), Mexico: 962 km (598 mi)</t>
+  </si>
+  <si>
+    <t>Ivory Coast: 610 km (380 mi), Guinea-Bissau: 386 km (240 mi), Liberia: 563 km (350 mi), Mali: 858 km (533 mi), Senegal: 330 km (210 mi), Sierra Leone: 652 km (405 mi)</t>
+  </si>
+  <si>
+    <t>Guinea: 386 km (240 mi), Senegal: 338 km (210 mi)</t>
+  </si>
+  <si>
+    <t>Brazil: 1119 km (695 mi), Suriname: 600 km (370 mi), Venezuela: 743 km (462 mi)</t>
+  </si>
+  <si>
+    <t>Dominican Republic: 360 km (220 mi)</t>
+  </si>
+  <si>
+    <t>Guatemala: 256 km (159 mi), El Salvador: 342 km (213 mi), Nicaragua: 922 km (573 mi)</t>
+  </si>
+  <si>
+    <t>China: 30 km (19 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 366 km (227 mi), Croatia: 329 km (204 mi), Romania: 443 km (275 mi), Serbia: 151 km (94 mi), Slovakia: 677 km (421 mi), Slovenia: 102 km (63 mi), Ukraine: 103 km (64 mi)</t>
+  </si>
+  <si>
+    <t>Bangladesh: 4053 km (2518 mi), Bhutan: 605 km (376 mi), China: 3380 km (2100 mi), Myanmar: 1463 km (909 mi), Nepal: 1690 km (1050 mi), Pakistan: 2912 km (1809 mi), Sri Lanka: 0.045 km (0.028 mi)</t>
+  </si>
+  <si>
+    <t>East Timor: 228 km (142 mi), Malaysia: 1782 km (1107 mi), Papua New Guinea: 820 km (510 mi)</t>
+  </si>
+  <si>
+    <t>Afghanistan: 936 km (582 mi), Armenia: 35 km (22 mi), Azerbaijan: 432 km (268 mi), Iraq: 1458 km (906 mi), Pakistan: 909 km (565 mi), Turkey: 499 km (310 mi), Turkmenistan: 992 km (616 mi)</t>
+  </si>
+  <si>
+    <t>Iran: 1458 km (906 mi), Jordan: 181 km (112 mi), Kuwait: 240 km (150 mi), Saudi Arabia: 814 km (506 mi), Syria: 605 km (376 mi), Turkey: 352 km (219 mi)</t>
+  </si>
+  <si>
+    <t>United Kingdom: 499 km (310 mi)</t>
+  </si>
+  <si>
+    <t>Egypt: 266 km (165 mi), Gaza Strip (State of Palestine): 51 km (32 mi), Jordan: 238 km (148 mi), Lebanon: 79 km (49 mi), Syria: 76 km (47 mi), West Bank (state of Palestine): 307 km (191 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 430 km (270 mi), France: 488 km (303 mi), San Marino: 39 km (24 mi), Slovenia: 232 km (144 mi), Switzerland: 740 km (460 mi), Vatican City: 3.2 km (2.0 mi)</t>
+  </si>
+  <si>
+    <t>Iraq: 181 km (112 mi), Israel: 238 km (148 mi), Saudi Arabia: 744 km (462 mi), Syria: 375 km (233 mi), West Bank (State of Palestine): 97 km (60 mi)</t>
+  </si>
+  <si>
+    <t>China: 1533 km (953 mi), Kyrgyzstan: 1051 km (653 mi), Russia: 6846 km (4254 mi), Turkmenistan: 379 km (235 mi), Uzbekistan: 2203 km (1369 mi)</t>
+  </si>
+  <si>
+    <t>Ethiopia: 861 km (535 mi), Somalia: 682 km (424 mi), South Sudan: 232 km (144 mi), Tanzania: 769 km (478 mi), Uganda: 933 km (580 mi)</t>
+  </si>
+  <si>
+    <t>Iraq: 240 km (150 mi), Saudi Arabia: 222 km (138 mi)</t>
+  </si>
+  <si>
+    <t>China: 858 km (533 mi), Kazakhstan: 1051 km (653 mi), Tajikistan: 870 km (540 mi), Uzbekistan: 1099 km (683 mi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cambodia: 541 km (336 mi), China: 423 km (263 mi), Myanmar: 235 km (146 mi), Thailand: 1754 km (1090 mi), Vietnam: 2130 km (1320 mi)</t>
+  </si>
+  <si>
+    <t>Belarus: 141 km (88 mi), Estonia: 339 km (211 mi), Lithuania: 453 km (281 mi), Russia: 217 km (135 mi)</t>
+  </si>
+  <si>
+    <t>Israel: 79 km (49 mi), Syria: 375 km (233 mi)</t>
+  </si>
+  <si>
+    <t>South Africa: 909 km (565 mi)</t>
+  </si>
+  <si>
+    <t>Guinea: 563 km (350 mi), Ivory Coast: 716 km (445 mi), Sierra Leone: 306 km (190 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 982 km (610 mi), Chad: 1055 km (656 mi), Egypt: 1115 km (693 mi), Niger: 354 km (220 mi), Sudan: 383 km (238 mi), Tunisia: 459 km (285 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 34 km (21 mi), Switzerland: 41 km (25 mi)</t>
+  </si>
+  <si>
+    <t>Belarus: 502 km (312 mi), Latvia: 453 km (281 mi), Poland: 91 km (57 mi), Russia: 227 km (141 mi)</t>
+  </si>
+  <si>
+    <t>Belgium: 148 km (92 mi), France: 73 km (45 mi), Germany: 138 km (86 mi)</t>
+  </si>
+  <si>
+    <t>China: 0.34 km (0.21 mi)</t>
+  </si>
+  <si>
+    <t>Mozambique: 1569 km (975 mi), Tanzania: 475 km (295 mi), Zambia: 837 km (520 mi)</t>
+  </si>
+  <si>
+    <t>Brunei: 381 km (237 mi), Indonesia: 1782 km (1107 mi), Thailand: 506 km (314 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 1376 km (855 mi), Burkina Faso: 1000 km (620 mi), Ivory Coast: 532 km (331 mi), Guinea: 858 km (533 mi), Mauritania: 2237 km (1390 mi), Niger: 821 km (510 mi), Senegal: 419 km (260 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 463 km (288 mi), Mali: 2237 km (1390 mi), Senegal: 813 km (505 mi), Western Sahara: 1561 km (970 mi)</t>
+  </si>
+  <si>
+    <t>Belize: 250 km (160 mi), Guatemala: 962 km (598 mi), United States: 3141 km (1952 mi)</t>
+  </si>
+  <si>
+    <t>Romania: 450 km (280 mi), Ukraine: 939 km (583 mi)</t>
+  </si>
+  <si>
+    <t>France: 4.4 km (2.7 mi)</t>
+  </si>
+  <si>
+    <t>China: 4677 km (2906 mi)Russia: 3485 km (2165 mi)</t>
+  </si>
+  <si>
+    <t>Albania: 172 km (107 mi), Bosnia and Herzegovina: 225 km (140 mi), Croatia: 25 km (16 mi), Kosovo: 79 km (49 mi), Serbia: 124 km (77 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 1559 km (969 mi), Western Sahara: 443 km (275 mi), Spain: 17 km (11 mi)</t>
+  </si>
+  <si>
+    <t>Eswatini: 105 km (65 mi), Malawi: 1569 km (975 mi), South Africa: 491 km (305 mi), Tanzania: 756 km (470 mi), Zambia: 419 km (260 mi), Zimbabwe: 1231 km (765 mi)</t>
+  </si>
+  <si>
+    <t>Bangladesh: 193 km (120 mi), China: 2185 km (1358 mi), India: 1463 km (909 mi), Laos: 235 km (146 mi), Thailand: 1800 km (1100 mi)</t>
+  </si>
+  <si>
+    <t>Angola: 1376 km (855 mi), Botswana: 1360 km (850 mi), South Africa: 967 km (601 mi), Zambia: 233 km (145 mi)</t>
+  </si>
+  <si>
+    <t>China: 1236 km (768 mi), India: 1690 km (1050 mi)</t>
+  </si>
+  <si>
+    <t>Belgium: 450 km (280 mi), Germany: 577 km (359 mi)</t>
+  </si>
+  <si>
+    <t>Costa Rica: 309 km (192 mi), Honduras: 922 km (573 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 956 km (594 mi), Benin: 266 km (165 mi), Burkina Faso: 628 km (390 mi), Chad: 1175 km (730 mi), Libya: 354 km (220 mi), Mali: 821 km (510 mi), Nigeria: 1497 km (930 mi)</t>
+  </si>
+  <si>
+    <t>Benin: 773 km (480 mi), Cameroon: 1690 km (1050 mi), Chad: 87 km (54 mi), Niger: 1497 km (930 mi)</t>
+  </si>
+  <si>
+    <t>Albania: 151 km (94 mi), Bulgaria: 148 km (92 mi), Greece: 246 km (153 mi), Kosovo: 159 km (99 mi), Serbia: 62 km (39 mi)</t>
+  </si>
+  <si>
+    <t>Finland: 736 km (457 mi), Sweden: 1619 km (1006 mi), Russia: 196 km (122 mi)</t>
+  </si>
+  <si>
+    <t>Saudi Arabia: 676 km (420 mi), United Arab Emirates: 410 km (250 mi), Yemen: 288 km (179 mi)</t>
+  </si>
+  <si>
+    <t>Afghanistan: 2430 km (1510 mi), India: 2912 km (1809 mi), Iran: 909 km (565 mi), China: 523 km (325 mi)</t>
+  </si>
+  <si>
+    <t>Egypt: 11 km (6.8 mi), Israel: 358 km (222 mi), Jordan: 97 km (60 mi)</t>
+  </si>
+  <si>
+    <t>Colombia: 225 km (140 mi), Costa Rica: 330 km (210 mi)</t>
+  </si>
+  <si>
+    <t>Indonesia: 820 km (510 mi)</t>
+  </si>
+  <si>
+    <t>Argentina: 1880 km (1170 mi), Bolivia: 750 km (470 mi), Brazil: 1290 km (800 mi)</t>
+  </si>
+  <si>
+    <t>Bolivia: 900 km (560 mi), Brazil: 1560 km (970 mi), Chile: 160 km (99 mi), Colombia: 1496 km (930 mi), Ecuador: 1420 km (880 mi)</t>
+  </si>
+  <si>
+    <t>Belarus: 407 km (253 mi), Czech Republic: 658 km (409 mi), Germany: 456 km (283 mi), Lithuania: 91 km (57 mi), Russia: 206 km (128 mi), Slovakia: 444 km (276 mi), Ukraine: 526 km (327 mi)</t>
+  </si>
+  <si>
+    <t>Spain: 1214 km (754 mi)</t>
+  </si>
+  <si>
+    <t>Saudi Arabia: 60 km (37 mi)</t>
+  </si>
+  <si>
+    <t>Bulgaria: 608 km (378 mi), Hungary: 443 km (275 mi), Moldova: 450 km (280 mi), Serbia: 476 km (296 mi), Ukraine: 531 km (330 mi)</t>
+  </si>
+  <si>
+    <t>Azerbaijan: 284 km (176 mi), Belarus: 959 km (596 mi), China: 3645 km (2265 mi), Estonia: 294 km (183 mi), Finland: 1340 km (830 mi), Georgia: 723 km (449 mi), Kazakhstan: 6846 km (4254 mi), North Korea: 19 km (12 mi), Latvia: 217 km (135 mi), Lithuania: 227 km (141 mi), Mongolia: 3485 km (2165 mi), Norway: 196 km (122 mi), Poland: 206 km (128 mi), Ukraine: 1576 km (979 mi), South Ossetia: 74 km (46 mi), Abkhazia: 241 km (150 mi)</t>
+  </si>
+  <si>
+    <t>Burundi: 290 km (180 mi), DR Congo: 217 km (135 mi), Tanzania: 217 km (135 mi), Uganda: 169 km (105 mi)</t>
+  </si>
+  <si>
+    <t>Italy: 39 km (24 mi)</t>
+  </si>
+  <si>
+    <t>Iraq: 814 km (506 mi), Jordan: 744 km (462 mi), Kuwait: 222 km (138 mi), Oman: 676 km (420 mi), Qatar: 60 km (37 mi), United Arab Emirates: 457 km (284 mi), Yemen: 1458 km (906 mi)</t>
+  </si>
+  <si>
+    <t>Gambia: 740 km (460 mi), Guinea: 330 km (210 mi), Guinea-Bissau: 338 km (210 mi), Mali: 419 km (260 mi), Mauritania: 813 km (505 mi)</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina: 302 km (188 mi), Bulgaria: 318 km (198 mi), Croatia: 241 km (150 mi), Hungary: 151 km (94 mi), Kosovo: 352 km (219 mi), Montenegro: 124 km (77 mi), North Macedonia: 62 km (39 mi), Romania: 476 km (296 mi)</t>
+  </si>
+  <si>
+    <t>Guinea: 652 km (405 mi), Liberia: 306 km (190 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 91 km (57 mi), Czech Republic: 215 km (134 mi), Hungary: 677 km (421 mi), Poland: 444 km (276 mi), Ukraine: 97 km (60 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 330 km (210 mi), Croatia: 670 km (420 mi), Italy: 232 km (144 mi), Hungary: 102 km (63 mi)</t>
+  </si>
+  <si>
+    <t>Djibouti: 61 km (38 mi), Ethiopia: 1600 km (990 mi), Kenya: 682 km (424 mi)</t>
+  </si>
+  <si>
+    <t>Botswana: 1840 km (1,140 mi), Eswatini: 430 km (270 mi), Lesotho: 909 km (565 mi), Mozambique (2): 491 km (305 mi), Namibia: 967 km (601 mi), Zimbabwe: 225 km (140 mi)</t>
+  </si>
+  <si>
+    <t>Russia: 74 km (46 mi), Georgia: 334 km (208 mi)</t>
+  </si>
+  <si>
+    <t>Central African Republic: 682 km (424 mi), DR Congo: 628 km (390 mi), Ethiopia: 883 km (549 mi), Kenya: 232 km (144 mi), Sudan: 1937 km (1204 mi), Uganda: 435 km (270 mi)</t>
+  </si>
+  <si>
+    <t>Andorra: 63.7 km (39.6 mi), France: 623 km (387 mi), Gibraltar (United Kingdom): 1.2 km (0.75 mi), Portugal: 1214 km (754 mi), Morocco: 17 km (11 mi)</t>
+  </si>
+  <si>
+    <t>Central African Republic: 483 km (300 mi), Chad: 1360 km (850 mi), Egypt: 1273 km (791 mi), Eritrea: 605 km (376 mi), Ethiopia: 723 km (449 mi), Libya: 383 km (238 mi), South Sudan: 1937 km (1204 mi)</t>
+  </si>
+  <si>
+    <t>Brazil: 597 km (371 mi), French Guiana: 510 km (320 mi), Guyana: 600 km (370 mi)</t>
+  </si>
+  <si>
+    <t>Finland: 614 km (382 mi), Norway: 1619 km (1006 mi)</t>
+  </si>
+  <si>
+    <t>Austria: 164 km (102 mi), France: 573 km (356 mi), Italy: 740 km (460 mi), Liechtenstein: 41 km (25 mi), Germany: 334 km (208 mi)</t>
+  </si>
+  <si>
+    <t>Iraq: 605 km (376 mi), Israel: 76 km (47 mi), Jordan: 375 km (233 mi), Lebanon: 375 km (233 mi), Turkey: 822 km (511 mi)</t>
+  </si>
+  <si>
+    <t>Afghanistan: 1206 km (749 mi), China: 414 km (257 mi), Kyrgyzstan: 870 km (540 mi), Uzbekistan: 1161 km (721 mi)</t>
+  </si>
+  <si>
+    <t>Burundi: 451 km (280 mi), DR Congo: 459 km (285 mi), Kenya: 769 km (478 mi), Malawi: 475 km (295 mi), Mozambique: 756 km (470 mi), Rwanda: 217 km (135 mi), Uganda: 396 km (246 mi), Zambia: 338 km (210 mi)</t>
+  </si>
+  <si>
+    <t>Cambodia: 803 km (499 mi), Laos: 1754 km (1090 mi), Malaysia: 506 km (314 mi), Myanmar: 1800 km (1100 mi)</t>
+  </si>
+  <si>
+    <t>Benin: 644 km (400 mi), Burkina Faso: 126 km (78 mi), Ghana: 877 km (545 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 1010 km (630 mi), Libya: 459 km (285 mi)</t>
+  </si>
+  <si>
+    <t>Armenia: 268 km (167 mi), Azerbaijan: 9 km (5.6 mi), Bulgaria: 240 km (150 mi), Georgia: 252 km (157 mi), Greece: 206 km (128 mi), Iran: 499 km (310 mi), Iraq: 352 km (219 mi), Syria: 822 km (511 mi)</t>
+  </si>
+  <si>
+    <t>Afghanistan: 744 km (462 mi), Iran: 992 km (616 mi), Kazakhstan: 379 km (235 mi), Uzbekistan: 1621 km (1007 mi)</t>
+  </si>
+  <si>
+    <t>DR Congo: 765 km (475 mi), Kenya: 933 km (580 mi), Rwanda: 169 km (105 mi), South Sudan: 435 km (270 mi), Tanzania: 396 km (246 mi)</t>
+  </si>
+  <si>
+    <t>Belarus: 891 km (554 mi), Hungary: 103 km (64 mi), Moldova: 939 km (583 mi), Poland: 526 km (327 mi), Romania: 531 km (330 mi)[39], Russia: 1576 km (979 mi), Slovakia: 97 km (60 mi)</t>
+  </si>
+  <si>
+    <t>Oman: 410 km (250 mi), Saudi Arabia: 457 km (284 mi)</t>
+  </si>
+  <si>
+    <t>Ireland: 499 km (310 mi)</t>
+  </si>
+  <si>
+    <t>Canada: 8893 km (5526 mi)[16], Mexico: 3141 km (1952 mi)</t>
+  </si>
+  <si>
+    <t>Argentina: 579 km (360 mi), Brazil: 985 km (612 mi)</t>
+  </si>
+  <si>
+    <t>Afghanistan: 137 km (85 mi), Kazakhstan: 2203 km (1369 mi), Kyrgyzstan : 1099 km (683 mi), Tajikistan: 1161 km (721 mi), Turkmenistan: 1621 km (1007 mi)</t>
+  </si>
+  <si>
+    <t>Italy: 3.2 km (2.0 mi)</t>
+  </si>
+  <si>
+    <t>Brazil: 2200 km (1400 mi), Colombia: 2050 km (1270 mi), Guyana: 743 km (462 mi)</t>
+  </si>
+  <si>
+    <t>Cambodia: 1228 km (763 mi), China: 1281 km (796 mi), Laos: 2130 km (1320 mi)</t>
+  </si>
+  <si>
+    <t>Algeria: 42 km (26 mi), Mauritania: 1561 km (970 mi), Morocco: 443 km (275 mi)</t>
+  </si>
+  <si>
+    <t>Oman: 288 km (179 mi), Saudi Arabia: 1458 km (906 mi)</t>
+  </si>
+  <si>
+    <t>Angola: 1110 km (690 mi), Botswana: 0.15 km (0.093 mi), DR Congo: 1930 km (1200 mi), Malawi: 837 km (520 mi), Mozambique: 419 km (260 mi), Namibia: 233 km (145 mi), Tanzania: 338 km (210 mi), Zimbabwe: 797 km (495 mi)</t>
+  </si>
+  <si>
+    <t>Botswana: 813 km (505 mi), Mozambique: 1231 km (765 mi), South Africa: 225 km (140 mi), Zambia: 797 km (495 mi)</t>
+  </si>
+  <si>
+    <t>No borders</t>
+  </si>
+  <si>
+    <t>Albania: 112 km (70 mi), Montenegro: 79 km (49 mi), North Macedonia: 159 km (99 mi), Serbia: 352 km (219 mi)</t>
+  </si>
+  <si>
+    <t>China: 1416 km (880 mi), South Korea: 238 km (148 mi), Russia: 19 km (12 mi)</t>
+  </si>
+  <si>
+    <t>North Korea: 238 km (148 mi)</t>
+  </si>
+  <si>
+    <t>Suriname, Brazil</t>
   </si>
 </sst>
 </file>
@@ -18150,6 +18642,57 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF9C0006"/>
@@ -18184,57 +18727,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -18373,15 +18865,15 @@
     <tableColumn id="20" name="Branch"/>
     <tableColumn id="21" name="First language (L1) speakers"/>
     <tableColumn id="19" name="Second Language (L2) speakers"/>
-    <tableColumn id="27" name="Total speakers (L1+L2)" dataDxfId="17">
+    <tableColumn id="27" name="Total speakers (L1+L2)" dataDxfId="15">
       <calculatedColumnFormula>Tabelle1[[#This Row],[First language (L1) speakers]]+Tabelle1[[#This Row],[Second Language (L2) speakers]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Language family" dataDxfId="16"/>
+    <tableColumn id="6" name="Language family" dataDxfId="14"/>
     <tableColumn id="23" name="Native Name"/>
     <tableColumn id="7" name="Endonyms (;)"/>
-    <tableColumn id="8" name="English" dataDxfId="15"/>
+    <tableColumn id="8" name="English" dataDxfId="13"/>
     <tableColumn id="9" name="German"/>
-    <tableColumn id="10" name="French" dataDxfId="14"/>
+    <tableColumn id="10" name="French" dataDxfId="12"/>
     <tableColumn id="11" name="Spanish"/>
     <tableColumn id="12" name="Italian"/>
     <tableColumn id="16" name="Yandex Translate"/>
@@ -18409,19 +18901,19 @@
     <tableColumn id="1" name="Country / Dependency"/>
     <tableColumn id="2" name="Region"/>
     <tableColumn id="3" name="Population" dataDxfId="11" dataCellStyle="Komma"/>
-    <tableColumn id="4" name="Percentage of the world" dataDxfId="12"/>
-    <tableColumn id="24" name="Capital" dataDxfId="2"/>
-    <tableColumn id="13" name="Area in km^2" dataDxfId="13"/>
-    <tableColumn id="14" name="Website" dataDxfId="10"/>
-    <tableColumn id="15" name="Wikipedia EN" dataDxfId="9"/>
-    <tableColumn id="16" name="Depends" dataDxfId="8"/>
-    <tableColumn id="17" name="Borders" dataDxfId="7"/>
-    <tableColumn id="19" name="Native Name" dataDxfId="6"/>
-    <tableColumn id="20" name="Calling Code" dataDxfId="5"/>
-    <tableColumn id="23" name="Flag" dataDxfId="3"/>
+    <tableColumn id="4" name="Percentage of the world" dataDxfId="10"/>
+    <tableColumn id="24" name="Capital" dataDxfId="9"/>
+    <tableColumn id="13" name="Area in km^2" dataDxfId="8"/>
+    <tableColumn id="14" name="Website" dataDxfId="7"/>
+    <tableColumn id="15" name="Wikipedia EN" dataDxfId="6"/>
+    <tableColumn id="16" name="Depends" dataDxfId="5"/>
+    <tableColumn id="17" name="Borders" dataDxfId="4"/>
+    <tableColumn id="19" name="Native Name" dataDxfId="3"/>
+    <tableColumn id="20" name="Calling Code" dataDxfId="2"/>
+    <tableColumn id="23" name="Flag" dataDxfId="1"/>
     <tableColumn id="5" name="ISO 3166 ALPHA-2"/>
     <tableColumn id="6" name="ISO 3166 ALPHA-3"/>
-    <tableColumn id="8" name="ISO 3166 numerisch" dataDxfId="4"/>
+    <tableColumn id="8" name="ISO 3166 numerisch" dataDxfId="0"/>
     <tableColumn id="9" name="TLD (Top-Level-Domain) "/>
     <tableColumn id="10" name="IOC (International Olympic Committee)"/>
     <tableColumn id="11" name="Untergliederungen nach ISO 3166-2"/>
@@ -55680,10 +56172,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A399">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A609">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -55697,8 +56189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55782,7 +56274,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4203</v>
       </c>
@@ -55802,7 +56294,9 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="32"/>
+      <c r="J2" s="32" t="s">
+        <v>5990</v>
+      </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22" t="s">
@@ -55820,7 +56314,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>3352</v>
       </c>
@@ -55840,7 +56334,9 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="32"/>
+      <c r="J3" s="32" t="s">
+        <v>6003</v>
+      </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22" t="s">
@@ -55889,7 +56385,9 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22" t="s">
@@ -55915,7 +56413,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3359</v>
       </c>
@@ -55935,7 +56433,9 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="32" t="s">
+        <v>5991</v>
+      </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22" t="s">
@@ -55963,7 +56463,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2981</v>
       </c>
@@ -55983,7 +56483,9 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="32" t="s">
+        <v>6002</v>
+      </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
@@ -56031,7 +56533,9 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22" t="s">
@@ -56079,7 +56583,9 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>5992</v>
+      </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22" t="s">
@@ -56127,7 +56633,9 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>6004</v>
+      </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
@@ -56175,7 +56683,9 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22" t="s">
@@ -56221,7 +56731,9 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
@@ -56269,7 +56781,9 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>6005</v>
+      </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22" t="s">
@@ -56317,7 +56831,9 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>5993</v>
+      </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
@@ -56365,7 +56881,9 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22" t="s">
@@ -56414,7 +56932,9 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="J15" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22" t="s">
@@ -56465,7 +56985,9 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>5994</v>
+      </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22" t="s">
@@ -56513,7 +57035,9 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>5995</v>
+      </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22" t="s">
@@ -56562,7 +57086,9 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22" t="s">
@@ -56611,7 +57137,9 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22" t="s">
@@ -56660,7 +57188,9 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>6006</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22" t="s">
@@ -56709,7 +57239,9 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22" t="s">
@@ -56758,7 +57290,9 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="J22" s="22" t="s">
+        <v>5996</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22" t="s">
@@ -56807,7 +57341,9 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="22" t="s">
+        <v>5997</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22" t="s">
@@ -56856,7 +57392,9 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>5998</v>
+      </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22" t="s">
@@ -56905,7 +57443,9 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="22" t="s">
+        <v>5999</v>
+      </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22" t="s">
@@ -56953,7 +57493,9 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22" t="s">
@@ -57001,7 +57543,9 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="J27" s="22" t="s">
+        <v>6000</v>
+      </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22" t="s">
@@ -57049,7 +57593,9 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="J28" s="22" t="s">
+        <v>6007</v>
+      </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22" t="s">
@@ -57100,7 +57646,9 @@
       <c r="I29" s="22" t="s">
         <v>3579</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K29" s="22" t="s">
         <v>5561</v>
       </c>
@@ -57149,7 +57697,9 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="J30" s="22" t="s">
+        <v>6001</v>
+      </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22" t="s">
@@ -57198,7 +57748,9 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="J31" s="22" t="s">
+        <v>6008</v>
+      </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22" t="s">
@@ -57247,7 +57799,9 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="J32" s="20" t="s">
+        <v>6009</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22" t="s">
@@ -57296,7 +57850,9 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="J33" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22" t="s">
@@ -57345,7 +57901,9 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="J34" s="22" t="s">
+        <v>6010</v>
+      </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22" t="s">
@@ -57394,7 +57952,9 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="J35" s="22" t="s">
+        <v>6011</v>
+      </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22" t="s">
@@ -57443,7 +58003,9 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="J36" s="22" t="s">
+        <v>6012</v>
+      </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22" t="s">
@@ -57492,7 +58054,9 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="J37" s="22" t="s">
+        <v>6013</v>
+      </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22" t="s">
@@ -57541,7 +58105,9 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="J38" s="22" t="s">
+        <v>6014</v>
+      </c>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22" t="s">
@@ -57590,7 +58156,9 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="J39" s="22" t="s">
+        <v>6015</v>
+      </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22" t="s">
@@ -57639,7 +58207,9 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="J40" s="22" t="s">
+        <v>6016</v>
+      </c>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22" t="s">
@@ -57688,7 +58258,9 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="J41" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22" t="s">
@@ -57737,7 +58309,9 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="J42" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22" t="s">
@@ -57786,7 +58360,9 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="J43" s="22" t="s">
+        <v>6017</v>
+      </c>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22" t="s">
@@ -57835,7 +58411,9 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="J44" s="22" t="s">
+        <v>6018</v>
+      </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22" t="s">
@@ -57884,7 +58462,9 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="J45" s="22" t="s">
+        <v>6026</v>
+      </c>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22" t="s">
@@ -57933,7 +58513,9 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="J46" s="22" t="s">
+        <v>6019</v>
+      </c>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22" t="s">
@@ -57984,7 +58566,9 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="J47" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22" t="s">
@@ -58031,7 +58615,9 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="J48" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22" t="s">
@@ -58078,7 +58664,9 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="J49" s="22" t="s">
+        <v>6020</v>
+      </c>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22" t="s">
@@ -58127,7 +58715,9 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="J50" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22" t="s">
@@ -58176,7 +58766,9 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="J51" s="22" t="s">
+        <v>6025</v>
+      </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22" t="s">
@@ -58225,7 +58817,9 @@
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="J52" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22" t="s">
@@ -58274,7 +58868,9 @@
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="J53" s="22" t="s">
+        <v>6024</v>
+      </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22" t="s">
@@ -58323,7 +58919,9 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="J54" s="22" t="s">
+        <v>6023</v>
+      </c>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22" t="s">
@@ -58372,7 +58970,9 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="J55" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22" t="s">
@@ -58421,7 +59021,9 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="J56" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22" t="s">
@@ -58468,7 +59070,9 @@
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="J57" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22" t="s">
@@ -58519,7 +59123,9 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="J58" s="22" t="s">
+        <v>6027</v>
+      </c>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22" t="s">
@@ -58568,7 +59174,9 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="J59" s="22" t="s">
+        <v>6028</v>
+      </c>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22" t="s">
@@ -58619,7 +59227,9 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="J60" s="22" t="s">
+        <v>6029</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22" t="s">
@@ -58668,7 +59278,9 @@
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="J61" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22" t="s">
@@ -58717,7 +59329,9 @@
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="J62" s="22" t="s">
+        <v>6030</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22" t="s">
@@ -58766,7 +59380,9 @@
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="J63" s="22" t="s">
+        <v>6021</v>
+      </c>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
       <c r="M63" s="22" t="s">
@@ -58815,7 +59431,9 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="J64" s="22" t="s">
+        <v>6031</v>
+      </c>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22" t="s">
@@ -58864,7 +59482,9 @@
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="J65" s="22" t="s">
+        <v>6032</v>
+      </c>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22" t="s">
@@ -58913,7 +59533,9 @@
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="J66" s="22" t="s">
+        <v>6033</v>
+      </c>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22" t="s">
@@ -58964,7 +59586,9 @@
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="J67" s="22" t="s">
+        <v>6034</v>
+      </c>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22" t="s">
@@ -59056,7 +59680,9 @@
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="J69" s="22" t="s">
+        <v>6035</v>
+      </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22" t="s">
@@ -59105,7 +59731,9 @@
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="J70" s="22" t="s">
+        <v>6036</v>
+      </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22" t="s">
@@ -59154,7 +59782,9 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
+      <c r="J71" s="22" t="s">
+        <v>6037</v>
+      </c>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22" t="s">
@@ -59203,7 +59833,9 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+      <c r="J72" s="22" t="s">
+        <v>6038</v>
+      </c>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22" t="s">
@@ -59252,7 +59884,9 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="J73" s="22" t="s">
+        <v>6039</v>
+      </c>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
       <c r="M73" s="22" t="s">
@@ -59301,7 +59935,9 @@
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="J74" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22" t="s">
@@ -59348,7 +59984,9 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="J75" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22" t="s">
@@ -59397,7 +60035,9 @@
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
+      <c r="J76" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22" t="s">
@@ -59446,7 +60086,9 @@
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="J77" s="22" t="s">
+        <v>6040</v>
+      </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
       <c r="M77" s="22" t="s">
@@ -59497,7 +60139,9 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+      <c r="J78" s="22" t="s">
+        <v>6041</v>
+      </c>
       <c r="K78" s="22" t="s">
         <v>5421</v>
       </c>
@@ -59545,7 +60189,9 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="J79" s="22" t="s">
+        <v>6153</v>
+      </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="22" t="s">
@@ -59592,7 +60238,9 @@
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="J80" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22" t="s">
@@ -59639,7 +60287,9 @@
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="J81" s="22" t="s">
+        <v>6042</v>
+      </c>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
@@ -59684,7 +60334,9 @@
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="J82" s="22" t="s">
+        <v>6043</v>
+      </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="22" t="s">
@@ -59733,7 +60385,9 @@
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
+      <c r="J83" s="22" t="s">
+        <v>6044</v>
+      </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22" t="s">
@@ -59784,7 +60438,9 @@
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="J84" s="22" t="s">
+        <v>6045</v>
+      </c>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22" t="s">
@@ -59833,7 +60489,9 @@
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="J85" s="22" t="s">
+        <v>6046</v>
+      </c>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22" t="s">
@@ -59882,7 +60540,9 @@
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
+      <c r="J86" s="22" t="s">
+        <v>4210</v>
+      </c>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="22" t="s">
@@ -59929,7 +60589,9 @@
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
+      <c r="J87" s="22" t="s">
+        <v>6047</v>
+      </c>
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22" t="s">
@@ -59978,7 +60640,9 @@
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="J88" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22" t="s">
@@ -60025,7 +60689,9 @@
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
+      <c r="J89" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22" t="s">
@@ -60074,7 +60740,9 @@
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
+      <c r="J90" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22" t="s">
@@ -60123,7 +60791,9 @@
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
+      <c r="J91" s="22" t="s">
+        <v>6048</v>
+      </c>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22" t="s">
@@ -60172,7 +60842,9 @@
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
+      <c r="J92" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22" t="s">
@@ -60219,7 +60891,9 @@
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
+      <c r="J93" s="22" t="s">
+        <v>6049</v>
+      </c>
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="22" t="s">
@@ -60268,7 +60942,9 @@
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+      <c r="J94" s="22" t="s">
+        <v>6050</v>
+      </c>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
       <c r="M94" s="22" t="s">
@@ -60317,7 +60993,9 @@
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
+      <c r="J95" s="22" t="s">
+        <v>6051</v>
+      </c>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22" t="s">
@@ -60366,7 +61044,9 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
+      <c r="J96" s="22" t="s">
+        <v>6052</v>
+      </c>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="22" t="s">
@@ -60415,7 +61095,9 @@
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
+      <c r="J97" s="22" t="s">
+        <v>6053</v>
+      </c>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="22" t="s">
@@ -60464,7 +61146,9 @@
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
+      <c r="J98" s="22" t="s">
+        <v>6054</v>
+      </c>
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
       <c r="M98" s="22" t="s">
@@ -60513,7 +61197,9 @@
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
+      <c r="J99" s="22" t="s">
+        <v>6055</v>
+      </c>
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
       <c r="M99" s="22" t="s">
@@ -60562,7 +61248,9 @@
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
+      <c r="J100" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K100" s="22"/>
       <c r="L100" s="22"/>
       <c r="M100" s="22" t="s">
@@ -60611,7 +61299,9 @@
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
+      <c r="J101" s="22" t="s">
+        <v>6056</v>
+      </c>
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22" t="s">
@@ -60662,7 +61352,9 @@
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
+      <c r="J102" s="22" t="s">
+        <v>6057</v>
+      </c>
       <c r="K102" s="22"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22" t="s">
@@ -60713,7 +61405,9 @@
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
+      <c r="J103" s="22" t="s">
+        <v>6058</v>
+      </c>
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22" t="s">
@@ -60762,7 +61456,9 @@
       <c r="G104" s="22"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
+      <c r="J104" s="22" t="s">
+        <v>6059</v>
+      </c>
       <c r="K104" s="22"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22" t="s">
@@ -60811,7 +61507,9 @@
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
+      <c r="J105" s="22" t="s">
+        <v>6060</v>
+      </c>
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22" t="s">
@@ -60860,7 +61558,9 @@
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
+      <c r="J106" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K106" s="22"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22" t="s">
@@ -60907,7 +61607,9 @@
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
+      <c r="J107" s="22" t="s">
+        <v>6061</v>
+      </c>
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22" t="s">
@@ -60956,7 +61658,9 @@
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
+      <c r="J108" s="22" t="s">
+        <v>6062</v>
+      </c>
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
       <c r="M108" s="22" t="s">
@@ -61005,7 +61709,9 @@
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
+      <c r="J109" s="22" t="s">
+        <v>6022</v>
+      </c>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22" t="s">
@@ -61054,7 +61760,9 @@
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
+      <c r="J110" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22" t="s">
@@ -61103,7 +61811,9 @@
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
+      <c r="J111" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22" t="s">
@@ -61152,7 +61862,9 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
+      <c r="J112" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
       <c r="M112" s="22" t="s">
@@ -61199,7 +61911,9 @@
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
+      <c r="J113" s="22" t="s">
+        <v>6063</v>
+      </c>
       <c r="K113" s="22"/>
       <c r="L113" s="22"/>
       <c r="M113" s="22" t="s">
@@ -61248,7 +61962,9 @@
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
+      <c r="J114" s="22" t="s">
+        <v>6064</v>
+      </c>
       <c r="K114" s="22"/>
       <c r="L114" s="22"/>
       <c r="M114" s="22" t="s">
@@ -61299,7 +62015,9 @@
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+      <c r="J115" s="22" t="s">
+        <v>6065</v>
+      </c>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22" t="s">
@@ -61348,7 +62066,9 @@
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
+      <c r="J116" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22" t="s">
@@ -61397,7 +62117,9 @@
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
+      <c r="J117" s="22" t="s">
+        <v>6150</v>
+      </c>
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22" t="s">
@@ -61444,7 +62166,9 @@
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
+      <c r="J118" s="22" t="s">
+        <v>6066</v>
+      </c>
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
       <c r="M118" s="22" t="s">
@@ -61493,7 +62217,9 @@
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
+      <c r="J119" s="22" t="s">
+        <v>6067</v>
+      </c>
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22" t="s">
@@ -61542,7 +62268,9 @@
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
+      <c r="J120" s="22" t="s">
+        <v>6068</v>
+      </c>
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
       <c r="M120" s="22" t="s">
@@ -61591,7 +62319,9 @@
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
+      <c r="J121" s="22" t="s">
+        <v>6069</v>
+      </c>
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
       <c r="M121" s="22" t="s">
@@ -61640,7 +62370,9 @@
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
+      <c r="J122" s="22" t="s">
+        <v>6070</v>
+      </c>
       <c r="K122" s="22"/>
       <c r="L122" s="22"/>
       <c r="M122" s="22" t="s">
@@ -61689,7 +62421,9 @@
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
+      <c r="J123" s="22" t="s">
+        <v>6071</v>
+      </c>
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
       <c r="M123" s="22" t="s">
@@ -61738,7 +62472,9 @@
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
+      <c r="J124" s="22" t="s">
+        <v>6072</v>
+      </c>
       <c r="K124" s="22"/>
       <c r="L124" s="22"/>
       <c r="M124" s="22" t="s">
@@ -61787,7 +62523,9 @@
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
+      <c r="J125" s="22" t="s">
+        <v>6073</v>
+      </c>
       <c r="K125" s="22"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22" t="s">
@@ -61836,7 +62574,9 @@
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
+      <c r="J126" s="22" t="s">
+        <v>6074</v>
+      </c>
       <c r="K126" s="22"/>
       <c r="L126" s="22"/>
       <c r="M126" s="22" t="s">
@@ -61885,7 +62625,9 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
+      <c r="J127" s="22" t="s">
+        <v>6075</v>
+      </c>
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22" t="s">
@@ -61934,7 +62676,9 @@
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
+      <c r="J128" s="22" t="s">
+        <v>6076</v>
+      </c>
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
       <c r="M128" s="22" t="s">
@@ -61980,7 +62724,9 @@
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
+      <c r="J129" s="22" t="s">
+        <v>6077</v>
+      </c>
       <c r="K129" s="22"/>
       <c r="L129" s="22"/>
       <c r="M129" s="22" t="s">
@@ -62027,7 +62773,9 @@
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
+      <c r="J130" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
       <c r="M130" s="22" t="s">
@@ -62076,7 +62824,9 @@
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
+      <c r="J131" s="22" t="s">
+        <v>6078</v>
+      </c>
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
       <c r="M131" s="22" t="s">
@@ -62125,7 +62875,9 @@
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
+      <c r="J132" s="22" t="s">
+        <v>6079</v>
+      </c>
       <c r="K132" s="22"/>
       <c r="L132" s="22"/>
       <c r="M132" s="22" t="s">
@@ -62174,7 +62926,9 @@
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
+      <c r="J133" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K133" s="22"/>
       <c r="L133" s="22"/>
       <c r="M133" s="22" t="s">
@@ -62223,7 +62977,9 @@
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
+      <c r="J134" s="22" t="s">
+        <v>6080</v>
+      </c>
       <c r="K134" s="22"/>
       <c r="L134" s="22"/>
       <c r="M134" s="22" t="s">
@@ -62272,7 +63028,9 @@
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
+      <c r="J135" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
       <c r="M135" s="22" t="s">
@@ -62321,7 +63079,9 @@
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
+      <c r="J136" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K136" s="22"/>
       <c r="L136" s="22"/>
       <c r="M136" s="22" t="s">
@@ -62370,7 +63130,9 @@
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
-      <c r="J137" s="22"/>
+      <c r="J137" s="22" t="s">
+        <v>6081</v>
+      </c>
       <c r="K137" s="22"/>
       <c r="L137" s="22"/>
       <c r="M137" s="22" t="s">
@@ -62419,7 +63181,9 @@
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
-      <c r="J138" s="22"/>
+      <c r="J138" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K138" s="22"/>
       <c r="L138" s="22"/>
       <c r="M138" s="22" t="s">
@@ -62468,7 +63232,9 @@
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
+      <c r="J139" s="22" t="s">
+        <v>6082</v>
+      </c>
       <c r="K139" s="22"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22" t="s">
@@ -62517,7 +63283,9 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
-      <c r="J140" s="22"/>
+      <c r="J140" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K140" s="22"/>
       <c r="L140" s="22"/>
       <c r="M140" s="22" t="s">
@@ -62566,7 +63334,9 @@
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
-      <c r="J141" s="22"/>
+      <c r="J141" s="22" t="s">
+        <v>6083</v>
+      </c>
       <c r="K141" s="22"/>
       <c r="L141" s="22"/>
       <c r="M141" s="22" t="s">
@@ -62617,7 +63387,9 @@
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
-      <c r="J142" s="22"/>
+      <c r="J142" s="22" t="s">
+        <v>6084</v>
+      </c>
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
       <c r="M142" s="22" t="s">
@@ -62666,7 +63438,9 @@
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
-      <c r="J143" s="22"/>
+      <c r="J143" s="22" t="s">
+        <v>6085</v>
+      </c>
       <c r="K143" s="22"/>
       <c r="L143" s="22"/>
       <c r="M143" s="22" t="s">
@@ -62715,7 +63489,9 @@
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
-      <c r="J144" s="22"/>
+      <c r="J144" s="22" t="s">
+        <v>6086</v>
+      </c>
       <c r="K144" s="22"/>
       <c r="L144" s="22"/>
       <c r="M144" s="22" t="s">
@@ -62764,7 +63540,9 @@
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
-      <c r="J145" s="22"/>
+      <c r="J145" s="22" t="s">
+        <v>6087</v>
+      </c>
       <c r="K145" s="22"/>
       <c r="L145" s="22"/>
       <c r="M145" s="22" t="s">
@@ -62811,7 +63589,9 @@
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
-      <c r="J146" s="22"/>
+      <c r="J146" s="22" t="s">
+        <v>6087</v>
+      </c>
       <c r="K146" s="22"/>
       <c r="L146" s="22"/>
       <c r="M146" s="22" t="s">
@@ -62862,7 +63642,9 @@
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
+      <c r="J147" s="22" t="s">
+        <v>6088</v>
+      </c>
       <c r="K147" s="22"/>
       <c r="L147" s="22"/>
       <c r="M147" s="22" t="s">
@@ -62911,7 +63693,9 @@
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
+      <c r="J148" s="22" t="s">
+        <v>6089</v>
+      </c>
       <c r="K148" s="22"/>
       <c r="L148" s="22"/>
       <c r="M148" s="22" t="s">
@@ -62960,7 +63744,9 @@
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
-      <c r="J149" s="22"/>
+      <c r="J149" s="22" t="s">
+        <v>6090</v>
+      </c>
       <c r="K149" s="22"/>
       <c r="L149" s="22"/>
       <c r="M149" s="22" t="s">
@@ -63009,7 +63795,9 @@
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
-      <c r="J150" s="22"/>
+      <c r="J150" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K150" s="22"/>
       <c r="L150" s="22"/>
       <c r="M150" s="22" t="s">
@@ -63058,7 +63846,9 @@
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
-      <c r="J151" s="22"/>
+      <c r="J151" s="22" t="s">
+        <v>6091</v>
+      </c>
       <c r="K151" s="22"/>
       <c r="L151" s="22"/>
       <c r="M151" s="22" t="s">
@@ -63107,7 +63897,9 @@
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
-      <c r="J152" s="22"/>
+      <c r="J152" s="22" t="s">
+        <v>6092</v>
+      </c>
       <c r="K152" s="22"/>
       <c r="L152" s="22"/>
       <c r="M152" s="22" t="s">
@@ -63158,7 +63950,9 @@
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
-      <c r="J153" s="22"/>
+      <c r="J153" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
       <c r="M153" s="22" t="s">
@@ -63205,7 +63999,9 @@
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
-      <c r="J154" s="22"/>
+      <c r="J154" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K154" s="22"/>
       <c r="L154" s="22"/>
       <c r="M154" s="22" t="s">
@@ -63256,7 +64052,9 @@
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
       <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
+      <c r="J155" s="22" t="s">
+        <v>6093</v>
+      </c>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22" t="s">
@@ -63305,7 +64103,9 @@
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
+      <c r="J156" s="22" t="s">
+        <v>6094</v>
+      </c>
       <c r="K156" s="22"/>
       <c r="L156" s="22"/>
       <c r="M156" s="22" t="s">
@@ -63354,7 +64154,9 @@
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
-      <c r="J157" s="22"/>
+      <c r="J157" s="22" t="s">
+        <v>6095</v>
+      </c>
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
       <c r="M157" s="22" t="s">
@@ -63403,7 +64205,9 @@
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
       <c r="I158" s="22"/>
-      <c r="J158" s="22"/>
+      <c r="J158" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K158" s="22"/>
       <c r="L158" s="22"/>
       <c r="M158" s="22" t="s">
@@ -63450,7 +64254,9 @@
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
       <c r="I159" s="22"/>
-      <c r="J159" s="22"/>
+      <c r="J159" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K159" s="22"/>
       <c r="L159" s="22"/>
       <c r="M159" s="22" t="s">
@@ -63497,7 +64303,9 @@
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
-      <c r="J160" s="22"/>
+      <c r="J160" s="22" t="s">
+        <v>6151</v>
+      </c>
       <c r="K160" s="22"/>
       <c r="L160" s="22"/>
       <c r="M160" s="22" t="s">
@@ -63548,7 +64356,9 @@
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
-      <c r="J161" s="22"/>
+      <c r="J161" s="22" t="s">
+        <v>6096</v>
+      </c>
       <c r="K161" s="22"/>
       <c r="L161" s="22"/>
       <c r="M161" s="22" t="s">
@@ -63597,7 +64407,9 @@
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
-      <c r="J162" s="22"/>
+      <c r="J162" s="22" t="s">
+        <v>3456</v>
+      </c>
       <c r="K162" s="22"/>
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
@@ -63631,7 +64443,9 @@
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
-      <c r="J163" s="22"/>
+      <c r="J163" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K163" s="22"/>
       <c r="L163" s="22"/>
       <c r="M163" s="22" t="s">
@@ -63678,7 +64492,9 @@
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
-      <c r="J164" s="22"/>
+      <c r="J164" s="22" t="s">
+        <v>6097</v>
+      </c>
       <c r="K164" s="22"/>
       <c r="L164" s="22"/>
       <c r="M164" s="22" t="s">
@@ -63729,7 +64545,9 @@
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
-      <c r="J165" s="22"/>
+      <c r="J165" s="22" t="s">
+        <v>6098</v>
+      </c>
       <c r="K165" s="22"/>
       <c r="L165" s="22"/>
       <c r="M165" s="22" t="s">
@@ -63783,7 +64601,9 @@
       <c r="I166" s="22" t="s">
         <v>3046</v>
       </c>
-      <c r="J166" s="22"/>
+      <c r="J166" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K166" s="22" t="s">
         <v>5405</v>
       </c>
@@ -63823,7 +64643,9 @@
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
-      <c r="J167" s="22"/>
+      <c r="J167" s="22" t="s">
+        <v>6099</v>
+      </c>
       <c r="K167" s="22"/>
       <c r="L167" s="22"/>
       <c r="M167" s="22" t="s">
@@ -63874,7 +64696,9 @@
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
-      <c r="J168" s="22"/>
+      <c r="J168" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K168" s="22"/>
       <c r="L168" s="22"/>
       <c r="M168" s="22" t="s">
@@ -63923,7 +64747,9 @@
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
-      <c r="J169" s="22"/>
+      <c r="J169" s="22" t="s">
+        <v>6100</v>
+      </c>
       <c r="K169" s="22"/>
       <c r="L169" s="22"/>
       <c r="M169" s="22" t="s">
@@ -63974,7 +64800,9 @@
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
-      <c r="J170" s="22"/>
+      <c r="J170" s="22" t="s">
+        <v>6101</v>
+      </c>
       <c r="K170" s="22"/>
       <c r="L170" s="22"/>
       <c r="M170" s="22" t="s">
@@ -64023,7 +64851,9 @@
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
       <c r="I171" s="22"/>
-      <c r="J171" s="22"/>
+      <c r="J171" s="22" t="s">
+        <v>6102</v>
+      </c>
       <c r="K171" s="22"/>
       <c r="L171" s="22"/>
       <c r="M171" s="22" t="s">
@@ -64072,7 +64902,9 @@
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
-      <c r="J172" s="22"/>
+      <c r="J172" s="22" t="s">
+        <v>6103</v>
+      </c>
       <c r="K172" s="22"/>
       <c r="L172" s="22"/>
       <c r="M172" s="22" t="s">
@@ -64121,7 +64953,9 @@
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
-      <c r="J173" s="22"/>
+      <c r="J173" s="22" t="s">
+        <v>6104</v>
+      </c>
       <c r="K173" s="22"/>
       <c r="L173" s="22"/>
       <c r="M173" s="22" t="s">
@@ -64170,7 +65004,9 @@
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
-      <c r="J174" s="22"/>
+      <c r="J174" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K174" s="22"/>
       <c r="L174" s="22"/>
       <c r="M174" s="22" t="s">
@@ -64219,7 +65055,9 @@
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
-      <c r="J175" s="22"/>
+      <c r="J175" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K175" s="22"/>
       <c r="L175" s="22"/>
       <c r="M175" s="22" t="s">
@@ -64266,7 +65104,9 @@
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
-      <c r="J176" s="22"/>
+      <c r="J176" s="22" t="s">
+        <v>6105</v>
+      </c>
       <c r="K176" s="22"/>
       <c r="L176" s="22"/>
       <c r="M176" s="22" t="s">
@@ -64315,7 +65155,9 @@
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
-      <c r="J177" s="22"/>
+      <c r="J177" s="22" t="s">
+        <v>6106</v>
+      </c>
       <c r="K177" s="22"/>
       <c r="L177" s="22"/>
       <c r="M177" s="22" t="s">
@@ -64364,7 +65206,9 @@
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
-      <c r="J178" s="22"/>
+      <c r="J178" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K178" s="22"/>
       <c r="L178" s="22"/>
       <c r="M178" s="22" t="s">
@@ -64413,7 +65257,9 @@
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
-      <c r="J179" s="22"/>
+      <c r="J179" s="22" t="s">
+        <v>6107</v>
+      </c>
       <c r="K179" s="22"/>
       <c r="L179" s="22"/>
       <c r="M179" s="22" t="s">
@@ -64496,7 +65342,9 @@
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
-      <c r="J181" s="22"/>
+      <c r="J181" s="22" t="s">
+        <v>6108</v>
+      </c>
       <c r="K181" s="22"/>
       <c r="L181" s="22"/>
       <c r="M181" s="22" t="s">
@@ -64525,7 +65373,7 @@
       </c>
       <c r="U181" s="10"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>2961</v>
       </c>
@@ -64545,7 +65393,9 @@
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
-      <c r="J182" s="22"/>
+      <c r="J182" s="32" t="s">
+        <v>6109</v>
+      </c>
       <c r="K182" s="22"/>
       <c r="L182" s="22"/>
       <c r="M182" s="22" t="s">
@@ -64596,7 +65446,9 @@
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
-      <c r="J183" s="22"/>
+      <c r="J183" s="22" t="s">
+        <v>6110</v>
+      </c>
       <c r="K183" s="22"/>
       <c r="L183" s="22"/>
       <c r="M183" s="22" t="s">
@@ -64648,7 +65500,9 @@
       <c r="I184" s="22" t="s">
         <v>3579</v>
       </c>
-      <c r="J184" s="22"/>
+      <c r="J184" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K184" s="22" t="s">
         <v>4215</v>
       </c>
@@ -64697,7 +65551,9 @@
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
-      <c r="J185" s="22"/>
+      <c r="J185" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K185" s="22"/>
       <c r="L185" s="22"/>
       <c r="M185" s="22" t="s">
@@ -64744,7 +65600,9 @@
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
-      <c r="J186" s="22"/>
+      <c r="J186" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K186" s="22"/>
       <c r="L186" s="22"/>
       <c r="M186" s="22" t="s">
@@ -64791,7 +65649,9 @@
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
-      <c r="J187" s="22"/>
+      <c r="J187" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K187" s="22"/>
       <c r="L187" s="22"/>
       <c r="M187" s="22" t="s">
@@ -64840,7 +65700,9 @@
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
-      <c r="J188" s="22"/>
+      <c r="J188" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K188" s="22"/>
       <c r="L188" s="22"/>
       <c r="M188" s="22" t="s">
@@ -64886,7 +65748,9 @@
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
-      <c r="J189" s="22"/>
+      <c r="J189" s="20" t="s">
+        <v>3630</v>
+      </c>
       <c r="K189" s="22"/>
       <c r="L189" s="22"/>
       <c r="M189" s="22" t="s">
@@ -64933,7 +65797,9 @@
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
-      <c r="J190" s="22"/>
+      <c r="J190" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K190" s="22"/>
       <c r="L190" s="22"/>
       <c r="M190" s="22" t="s">
@@ -64980,7 +65846,9 @@
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
-      <c r="J191" s="22"/>
+      <c r="J191" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K191" s="22"/>
       <c r="L191" s="22"/>
       <c r="M191" s="22" t="s">
@@ -65029,7 +65897,9 @@
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
-      <c r="J192" s="22"/>
+      <c r="J192" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K192" s="22"/>
       <c r="L192" s="22"/>
       <c r="M192" s="22" t="s">
@@ -65078,7 +65948,9 @@
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
-      <c r="J193" s="22"/>
+      <c r="J193" s="22" t="s">
+        <v>6111</v>
+      </c>
       <c r="K193" s="22"/>
       <c r="L193" s="22"/>
       <c r="M193" s="22" t="s">
@@ -65127,7 +65999,9 @@
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
-      <c r="J194" s="22"/>
+      <c r="J194" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K194" s="22"/>
       <c r="L194" s="22"/>
       <c r="M194" s="22" t="s">
@@ -65176,7 +66050,9 @@
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
       <c r="I195" s="22"/>
-      <c r="J195" s="22"/>
+      <c r="J195" s="22" t="s">
+        <v>6112</v>
+      </c>
       <c r="K195" s="22"/>
       <c r="L195" s="22"/>
       <c r="M195" s="22" t="s">
@@ -65270,7 +66146,9 @@
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
-      <c r="J197" s="22"/>
+      <c r="J197" s="22" t="s">
+        <v>6113</v>
+      </c>
       <c r="K197" s="22"/>
       <c r="L197" s="22"/>
       <c r="M197" s="22" t="s">
@@ -65319,7 +66197,9 @@
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
-      <c r="J198" s="22"/>
+      <c r="J198" s="22" t="s">
+        <v>6114</v>
+      </c>
       <c r="K198" s="22"/>
       <c r="L198" s="22"/>
       <c r="M198" s="22" t="s">
@@ -65370,7 +66250,9 @@
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
-      <c r="J199" s="22"/>
+      <c r="J199" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K199" s="22"/>
       <c r="L199" s="22"/>
       <c r="M199" s="22" t="s">
@@ -65419,7 +66301,9 @@
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
       <c r="I200" s="22"/>
-      <c r="J200" s="22"/>
+      <c r="J200" s="22" t="s">
+        <v>6115</v>
+      </c>
       <c r="K200" s="22"/>
       <c r="L200" s="22"/>
       <c r="M200" s="22" t="s">
@@ -65468,7 +66352,9 @@
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
       <c r="I201" s="22"/>
-      <c r="J201" s="22"/>
+      <c r="J201" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K201" s="22"/>
       <c r="L201" s="22"/>
       <c r="M201" s="22" t="s">
@@ -65520,7 +66406,9 @@
       <c r="I202" s="22" t="s">
         <v>3579</v>
       </c>
-      <c r="J202" s="22"/>
+      <c r="J202" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K202" s="22" t="s">
         <v>4213</v>
       </c>
@@ -65569,7 +66457,9 @@
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
-      <c r="J203" s="22"/>
+      <c r="J203" s="14" t="s">
+        <v>3616</v>
+      </c>
       <c r="K203" s="22"/>
       <c r="L203" s="22"/>
       <c r="M203" s="22" t="s">
@@ -65614,7 +66504,9 @@
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
       <c r="I204" s="22"/>
-      <c r="J204" s="22"/>
+      <c r="J204" s="22" t="s">
+        <v>6116</v>
+      </c>
       <c r="K204" s="22"/>
       <c r="L204" s="22"/>
       <c r="M204" s="22" t="s">
@@ -65663,7 +66555,9 @@
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
-      <c r="J205" s="22"/>
+      <c r="J205" s="22" t="s">
+        <v>6117</v>
+      </c>
       <c r="K205" s="22"/>
       <c r="L205" s="22"/>
       <c r="M205" s="22" t="s">
@@ -65712,7 +66606,9 @@
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
-      <c r="J206" s="22"/>
+      <c r="J206" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K206" s="22"/>
       <c r="L206" s="22"/>
       <c r="M206" s="22" t="s">
@@ -65761,7 +66657,9 @@
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
-      <c r="J207" s="22"/>
+      <c r="J207" s="22" t="s">
+        <v>6118</v>
+      </c>
       <c r="K207" s="22"/>
       <c r="L207" s="22"/>
       <c r="M207" s="22" t="s">
@@ -65812,7 +66710,9 @@
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
-      <c r="J208" s="22"/>
+      <c r="J208" s="22" t="s">
+        <v>6119</v>
+      </c>
       <c r="K208" s="22"/>
       <c r="L208" s="22"/>
       <c r="M208" s="22" t="s">
@@ -65861,7 +66761,9 @@
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
-      <c r="J209" s="22"/>
+      <c r="J209" s="22" t="s">
+        <v>6152</v>
+      </c>
       <c r="K209" s="22"/>
       <c r="L209" s="22"/>
       <c r="M209" s="22" t="s">
@@ -65912,7 +66814,9 @@
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
-      <c r="J210" s="22"/>
+      <c r="J210" s="22" t="s">
+        <v>6120</v>
+      </c>
       <c r="K210" s="22"/>
       <c r="L210" s="22"/>
       <c r="M210" s="22"/>
@@ -65946,7 +66850,9 @@
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
-      <c r="J211" s="22"/>
+      <c r="J211" s="22" t="s">
+        <v>6121</v>
+      </c>
       <c r="K211" s="22"/>
       <c r="L211" s="22"/>
       <c r="M211" s="22" t="s">
@@ -65995,7 +66901,9 @@
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
-      <c r="J212" s="22"/>
+      <c r="J212" s="22" t="s">
+        <v>6122</v>
+      </c>
       <c r="K212" s="22"/>
       <c r="L212" s="22"/>
       <c r="M212" s="22" t="s">
@@ -66044,7 +66952,9 @@
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
-      <c r="J213" s="22"/>
+      <c r="J213" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K213" s="22"/>
       <c r="L213" s="22"/>
       <c r="M213" s="22" t="s">
@@ -66093,7 +67003,9 @@
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
-      <c r="J214" s="22"/>
+      <c r="J214" s="22" t="s">
+        <v>6123</v>
+      </c>
       <c r="K214" s="22"/>
       <c r="L214" s="22"/>
       <c r="M214" s="22" t="s">
@@ -66142,7 +67054,9 @@
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
       <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
+      <c r="J215" s="22" t="s">
+        <v>6124</v>
+      </c>
       <c r="K215" s="22"/>
       <c r="L215" s="22"/>
       <c r="M215" s="22" t="s">
@@ -66191,7 +67105,9 @@
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
       <c r="I216" s="22"/>
-      <c r="J216" s="22"/>
+      <c r="J216" s="22" t="s">
+        <v>6125</v>
+      </c>
       <c r="K216" s="22"/>
       <c r="L216" s="22"/>
       <c r="M216" s="22" t="s">
@@ -66240,7 +67156,9 @@
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
       <c r="I217" s="22"/>
-      <c r="J217" s="22"/>
+      <c r="J217" s="22" t="s">
+        <v>6126</v>
+      </c>
       <c r="K217" s="22"/>
       <c r="L217" s="22"/>
       <c r="M217" s="22" t="s">
@@ -66289,7 +67207,9 @@
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
       <c r="I218" s="22"/>
-      <c r="J218" s="22"/>
+      <c r="J218" s="22" t="s">
+        <v>6127</v>
+      </c>
       <c r="K218" s="22"/>
       <c r="L218" s="22"/>
       <c r="M218" s="22" t="s">
@@ -66338,7 +67258,9 @@
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
       <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
+      <c r="J219" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K219" s="22"/>
       <c r="L219" s="22"/>
       <c r="M219" s="22" t="s">
@@ -66389,7 +67311,9 @@
       <c r="G220" s="22"/>
       <c r="H220" s="22"/>
       <c r="I220" s="22"/>
-      <c r="J220" s="22"/>
+      <c r="J220" s="22" t="s">
+        <v>6128</v>
+      </c>
       <c r="K220" s="22"/>
       <c r="L220" s="22"/>
       <c r="M220" s="22" t="s">
@@ -66438,7 +67362,9 @@
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
       <c r="I221" s="22"/>
-      <c r="J221" s="22"/>
+      <c r="J221" s="22" t="s">
+        <v>6129</v>
+      </c>
       <c r="K221" s="22"/>
       <c r="L221" s="22"/>
       <c r="M221" s="22" t="s">
@@ -66489,7 +67415,9 @@
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
       <c r="I222" s="22"/>
-      <c r="J222" s="22"/>
+      <c r="J222" s="22" t="s">
+        <v>6130</v>
+      </c>
       <c r="K222" s="22"/>
       <c r="L222" s="22"/>
       <c r="M222" s="22" t="s">
@@ -66538,7 +67466,9 @@
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
       <c r="I223" s="22"/>
-      <c r="J223" s="22"/>
+      <c r="J223" s="22" t="s">
+        <v>6131</v>
+      </c>
       <c r="K223" s="22"/>
       <c r="L223" s="22"/>
       <c r="M223" s="22" t="s">
@@ -66584,7 +67514,9 @@
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
       <c r="I224" s="22"/>
-      <c r="J224" s="22"/>
+      <c r="J224" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K224" s="22"/>
       <c r="L224" s="22"/>
       <c r="M224" s="22" t="s">
@@ -66631,7 +67563,9 @@
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
-      <c r="J225" s="22"/>
+      <c r="J225" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K225" s="22"/>
       <c r="L225" s="22"/>
       <c r="M225" s="22" t="s">
@@ -66680,7 +67614,9 @@
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
       <c r="I226" s="22"/>
-      <c r="J226" s="22"/>
+      <c r="J226" s="22" t="s">
+        <v>3569</v>
+      </c>
       <c r="K226" s="22"/>
       <c r="L226" s="22"/>
       <c r="M226" s="22"/>
@@ -66714,7 +67650,9 @@
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="22"/>
-      <c r="J227" s="22"/>
+      <c r="J227" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K227" s="22"/>
       <c r="L227" s="22"/>
       <c r="M227" s="22" t="s">
@@ -66763,7 +67701,9 @@
       <c r="G228" s="22"/>
       <c r="H228" s="22"/>
       <c r="I228" s="22"/>
-      <c r="J228" s="22"/>
+      <c r="J228" s="22" t="s">
+        <v>6132</v>
+      </c>
       <c r="K228" s="22"/>
       <c r="L228" s="22"/>
       <c r="M228" s="22" t="s">
@@ -66812,7 +67752,9 @@
       <c r="G229" s="22"/>
       <c r="H229" s="22"/>
       <c r="I229" s="22"/>
-      <c r="J229" s="22"/>
+      <c r="J229" s="22" t="s">
+        <v>6133</v>
+      </c>
       <c r="K229" s="22"/>
       <c r="L229" s="22"/>
       <c r="M229" s="22" t="s">
@@ -66863,7 +67805,9 @@
       <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
-      <c r="J230" s="22"/>
+      <c r="J230" s="22" t="s">
+        <v>6134</v>
+      </c>
       <c r="K230" s="22"/>
       <c r="L230" s="22"/>
       <c r="M230" s="22" t="s">
@@ -66912,7 +67856,9 @@
       <c r="G231" s="22"/>
       <c r="H231" s="22"/>
       <c r="I231" s="22"/>
-      <c r="J231" s="22"/>
+      <c r="J231" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K231" s="22"/>
       <c r="L231" s="22"/>
       <c r="M231" s="22" t="s">
@@ -66959,7 +67905,9 @@
       <c r="G232" s="22"/>
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
-      <c r="J232" s="22"/>
+      <c r="J232" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K232" s="22"/>
       <c r="L232" s="22"/>
       <c r="M232" s="22" t="s">
@@ -67008,7 +67956,9 @@
       <c r="G233" s="22"/>
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
-      <c r="J233" s="22"/>
+      <c r="J233" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K233" s="22"/>
       <c r="L233" s="22"/>
       <c r="M233" s="22" t="s">
@@ -67057,7 +68007,9 @@
       <c r="G234" s="22"/>
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
-      <c r="J234" s="22"/>
+      <c r="J234" s="22" t="s">
+        <v>6135</v>
+      </c>
       <c r="K234" s="22"/>
       <c r="L234" s="22"/>
       <c r="M234" s="22" t="s">
@@ -67106,7 +68058,9 @@
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
       <c r="I235" s="22"/>
-      <c r="J235" s="22"/>
+      <c r="J235" s="22" t="s">
+        <v>6136</v>
+      </c>
       <c r="K235" s="22"/>
       <c r="L235" s="22"/>
       <c r="M235" s="22" t="s">
@@ -67157,7 +68111,9 @@
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
       <c r="I236" s="22"/>
-      <c r="J236" s="22"/>
+      <c r="J236" s="22" t="s">
+        <v>6137</v>
+      </c>
       <c r="K236" s="22"/>
       <c r="L236" s="22"/>
       <c r="M236" s="22" t="s">
@@ -67206,7 +68162,9 @@
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
       <c r="I237" s="22"/>
-      <c r="J237" s="22"/>
+      <c r="J237" s="22" t="s">
+        <v>6138</v>
+      </c>
       <c r="K237" s="22"/>
       <c r="L237" s="22"/>
       <c r="M237" s="22" t="s">
@@ -67257,7 +68215,9 @@
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
       <c r="I238" s="22"/>
-      <c r="J238" s="22"/>
+      <c r="J238" s="22" t="s">
+        <v>6139</v>
+      </c>
       <c r="K238" s="22"/>
       <c r="L238" s="22"/>
       <c r="M238" s="22" t="s">
@@ -67308,7 +68268,9 @@
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
       <c r="I239" s="22"/>
-      <c r="J239" s="22"/>
+      <c r="J239" s="22" t="s">
+        <v>6140</v>
+      </c>
       <c r="K239" s="22"/>
       <c r="L239" s="22"/>
       <c r="M239" s="22" t="s">
@@ -67357,7 +68319,9 @@
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
       <c r="I240" s="22"/>
-      <c r="J240" s="22"/>
+      <c r="J240" s="22" t="s">
+        <v>6141</v>
+      </c>
       <c r="K240" s="22"/>
       <c r="L240" s="22"/>
       <c r="M240" s="22" t="s">
@@ -67406,7 +68370,9 @@
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
       <c r="I241" s="22"/>
-      <c r="J241" s="22"/>
+      <c r="J241" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K241" s="22"/>
       <c r="L241" s="22"/>
       <c r="M241" s="22" t="s">
@@ -67455,7 +68421,9 @@
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
       <c r="I242" s="22"/>
-      <c r="J242" s="22"/>
+      <c r="J242" s="22" t="s">
+        <v>6142</v>
+      </c>
       <c r="K242" s="22"/>
       <c r="L242" s="22"/>
       <c r="M242" s="22" t="s">
@@ -67504,7 +68472,9 @@
       <c r="G243" s="22"/>
       <c r="H243" s="22"/>
       <c r="I243" s="22"/>
-      <c r="J243" s="22"/>
+      <c r="J243" s="22" t="s">
+        <v>6143</v>
+      </c>
       <c r="K243" s="22"/>
       <c r="L243" s="22"/>
       <c r="M243" s="22" t="s">
@@ -67553,7 +68523,9 @@
       <c r="G244" s="22"/>
       <c r="H244" s="22"/>
       <c r="I244" s="22"/>
-      <c r="J244" s="22"/>
+      <c r="J244" s="22" t="s">
+        <v>6144</v>
+      </c>
       <c r="K244" s="22"/>
       <c r="L244" s="22"/>
       <c r="M244" s="22" t="s">
@@ -67647,7 +68619,9 @@
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
       <c r="I246" s="22"/>
-      <c r="J246" s="22"/>
+      <c r="J246" s="22" t="s">
+        <v>6149</v>
+      </c>
       <c r="K246" s="22"/>
       <c r="L246" s="22"/>
       <c r="M246" s="22" t="s">
@@ -67693,7 +68667,9 @@
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
       <c r="I247" s="22"/>
-      <c r="J247" s="22"/>
+      <c r="J247" s="22" t="s">
+        <v>6145</v>
+      </c>
       <c r="K247" s="22"/>
       <c r="L247" s="22"/>
       <c r="M247" s="22" t="s">
@@ -67742,7 +68718,9 @@
       <c r="G248" s="22"/>
       <c r="H248" s="22"/>
       <c r="I248" s="22"/>
-      <c r="J248" s="22"/>
+      <c r="J248" s="22" t="s">
+        <v>6146</v>
+      </c>
       <c r="K248" s="22"/>
       <c r="L248" s="22"/>
       <c r="M248" s="22" t="s">
@@ -67790,7 +68768,9 @@
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
       <c r="I249" s="22"/>
-      <c r="J249" s="22"/>
+      <c r="J249" s="22" t="s">
+        <v>6147</v>
+      </c>
       <c r="K249" s="22"/>
       <c r="L249" s="22"/>
       <c r="M249" s="22" t="s">
@@ -67838,7 +68818,9 @@
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
       <c r="I250" s="22"/>
-      <c r="J250" s="22"/>
+      <c r="J250" s="22" t="s">
+        <v>6148</v>
+      </c>
       <c r="K250" s="22"/>
       <c r="L250" s="22"/>
       <c r="M250" s="22" t="s">

--- a/tallui-data/Static Data.xlsx
+++ b/tallui-data/Static Data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14393" uniqueCount="6307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14652" uniqueCount="6543">
   <si>
     <t>ISO Language Name</t>
   </si>
@@ -18949,6 +18949,715 @@
   </si>
   <si>
     <t>+45</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Djibouti</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">République de Djibouti </t>
+  </si>
+  <si>
+    <t>+253</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ecuador</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Egypt</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eritrea</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Estonia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eswatini</t>
+  </si>
+  <si>
+    <t>Commonwealth of Dominica</t>
+  </si>
+  <si>
+    <t>+1-767</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dominican_Republic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/East_Timor</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/El_Salvador</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Equatorial_Guinea</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>+1-809</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Democratic_Republic_of_the_Congo</t>
+  </si>
+  <si>
+    <t>République démocratique du Congo</t>
+  </si>
+  <si>
+    <t>+243</t>
+  </si>
+  <si>
+    <t>República Democrática de
+Timor-Leste</t>
+  </si>
+  <si>
+    <t>+670</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ethiopia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fiji</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Finland</t>
+  </si>
+  <si>
+    <t>República del Ecuador</t>
+  </si>
+  <si>
+    <t>+593</t>
+  </si>
+  <si>
+    <t>جمهورية مصر العربية</t>
+  </si>
+  <si>
+    <t>+20</t>
+  </si>
+  <si>
+    <t>República de El Salvador</t>
+  </si>
+  <si>
+    <t>+503</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/French_Guiana</t>
+  </si>
+  <si>
+    <t>República de Guinea Ecuatorial</t>
+  </si>
+  <si>
+    <t>+240</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/France</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gabon</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Germany</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ghana</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Greece</t>
+  </si>
+  <si>
+    <t>+291</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Grenada</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guatemala</t>
+  </si>
+  <si>
+    <t>Eesti Vabariik</t>
+  </si>
+  <si>
+    <t>+372</t>
+  </si>
+  <si>
+    <t>https://www.gov.sz/</t>
+  </si>
+  <si>
+    <t>https://www.gov.ge/</t>
+  </si>
+  <si>
+    <t>Umbuso weSwatini</t>
+  </si>
+  <si>
+    <t>+268</t>
+  </si>
+  <si>
+    <t>የኢትዮጵያ ፌዴራላዊ ዴሞክራሲያዊ ሪፐብሊክ</t>
+  </si>
+  <si>
+    <t>+251</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Falkland_Islands</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>+500</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Faroe_Islands</t>
+  </si>
+  <si>
+    <t>Føroyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +298</t>
+  </si>
+  <si>
+    <t>https://www.fiji.gov.fj/Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matanitu Tugalala o Viti </t>
+  </si>
+  <si>
+    <t>+679</t>
+  </si>
+  <si>
+    <t>Suomen tasavalta</t>
+  </si>
+  <si>
+    <t>+358</t>
+  </si>
+  <si>
+    <t>https://www.ctguyane.fr/</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +594</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/French_Polynesia</t>
+  </si>
+  <si>
+    <t>Polynésie française</t>
+  </si>
+  <si>
+    <t>+689</t>
+  </si>
+  <si>
+    <t>République gabonaise</t>
+  </si>
+  <si>
+    <t>+241</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Gambia</t>
+  </si>
+  <si>
+    <t>+220</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Georgia_(country)</t>
+  </si>
+  <si>
+    <t>საქართველო</t>
+  </si>
+  <si>
+    <t>+995</t>
+  </si>
+  <si>
+    <t>Bundesrepublik Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49</t>
+  </si>
+  <si>
+    <t>Republic of Ghana</t>
+  </si>
+  <si>
+    <t>+233</t>
+  </si>
+  <si>
+    <t>+373</t>
+  </si>
+  <si>
+    <t>https://www.gibraltar.gov.gi/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gibraltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +350</t>
+  </si>
+  <si>
+    <t>Ελληνική Δημοκρατία</t>
+  </si>
+  <si>
+    <t>+30</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalaallit Nunaat </t>
+  </si>
+  <si>
+    <t>+299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwenad </t>
+  </si>
+  <si>
+    <t>+1-473</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guam</t>
+  </si>
+  <si>
+    <t>Guåhan</t>
+  </si>
+  <si>
+    <t>+1-671</t>
+  </si>
+  <si>
+    <t>República de Guatemala</t>
+  </si>
+  <si>
+    <t>+502</t>
+  </si>
+  <si>
+    <t>+224</t>
+  </si>
+  <si>
+    <t>+245</t>
+  </si>
+  <si>
+    <t>+592</t>
+  </si>
+  <si>
+    <t>+509</t>
+  </si>
+  <si>
+    <t>+504</t>
+  </si>
+  <si>
+    <t>+353</t>
+  </si>
+  <si>
+    <t>+964</t>
+  </si>
+  <si>
+    <t>+98</t>
+  </si>
+  <si>
+    <t>+62</t>
+  </si>
+  <si>
+    <t>+91</t>
+  </si>
+  <si>
+    <t>+354</t>
+  </si>
+  <si>
+    <t>+36</t>
+  </si>
+  <si>
+    <t>+852</t>
+  </si>
+  <si>
+    <t>+972</t>
+  </si>
+  <si>
+    <t>+39</t>
+  </si>
+  <si>
+    <t>+1-876</t>
+  </si>
+  <si>
+    <t>+81</t>
+  </si>
+  <si>
+    <t>+962</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>+254</t>
+  </si>
+  <si>
+    <t>+686</t>
+  </si>
+  <si>
+    <t>+965</t>
+  </si>
+  <si>
+    <t>+996</t>
+  </si>
+  <si>
+    <t>+856</t>
+  </si>
+  <si>
+    <t>+371</t>
+  </si>
+  <si>
+    <t>+961</t>
+  </si>
+  <si>
+    <t>+266</t>
+  </si>
+  <si>
+    <t>+231</t>
+  </si>
+  <si>
+    <t>+218</t>
+  </si>
+  <si>
+    <t>+423</t>
+  </si>
+  <si>
+    <t>+370</t>
+  </si>
+  <si>
+    <t>+352</t>
+  </si>
+  <si>
+    <t>+853</t>
+  </si>
+  <si>
+    <t>+389</t>
+  </si>
+  <si>
+    <t>+261</t>
+  </si>
+  <si>
+    <t>+265</t>
+  </si>
+  <si>
+    <t>+60</t>
+  </si>
+  <si>
+    <t>+960</t>
+  </si>
+  <si>
+    <t>+223</t>
+  </si>
+  <si>
+    <t>+356</t>
+  </si>
+  <si>
+    <t>+692</t>
+  </si>
+  <si>
+    <t>+222</t>
+  </si>
+  <si>
+    <t>+230</t>
+  </si>
+  <si>
+    <t>+52</t>
+  </si>
+  <si>
+    <t>+691</t>
+  </si>
+  <si>
+    <t>+377</t>
+  </si>
+  <si>
+    <t>+976</t>
+  </si>
+  <si>
+    <t>+1-664</t>
+  </si>
+  <si>
+    <t>+212</t>
+  </si>
+  <si>
+    <t>+258</t>
+  </si>
+  <si>
+    <t>+95</t>
+  </si>
+  <si>
+    <t>+264</t>
+  </si>
+  <si>
+    <t>+674</t>
+  </si>
+  <si>
+    <t>+977</t>
+  </si>
+  <si>
+    <t>+31</t>
+  </si>
+  <si>
+    <t>+687</t>
+  </si>
+  <si>
+    <t>+64</t>
+  </si>
+  <si>
+    <t>+505</t>
+  </si>
+  <si>
+    <t>+227</t>
+  </si>
+  <si>
+    <t>+234</t>
+  </si>
+  <si>
+    <t>+683</t>
+  </si>
+  <si>
+    <t>+672</t>
+  </si>
+  <si>
+    <t>+1-670</t>
+  </si>
+  <si>
+    <t>+47</t>
+  </si>
+  <si>
+    <t>+968</t>
+  </si>
+  <si>
+    <t>+92</t>
+  </si>
+  <si>
+    <t>+680</t>
+  </si>
+  <si>
+    <t>+507</t>
+  </si>
+  <si>
+    <t>+675</t>
+  </si>
+  <si>
+    <t>+595</t>
+  </si>
+  <si>
+    <t>+51</t>
+  </si>
+  <si>
+    <t>+63</t>
+  </si>
+  <si>
+    <t>+48</t>
+  </si>
+  <si>
+    <t>+35</t>
+  </si>
+  <si>
+    <t>+1-787 or +1</t>
+  </si>
+  <si>
+    <t>+974</t>
+  </si>
+  <si>
+    <t>+40</t>
+  </si>
+  <si>
+    <t>+250</t>
+  </si>
+  <si>
+    <t>+290</t>
+  </si>
+  <si>
+    <t>+1-869</t>
+  </si>
+  <si>
+    <t>+1-758</t>
+  </si>
+  <si>
+    <t>+508</t>
+  </si>
+  <si>
+    <t>+1-784</t>
+  </si>
+  <si>
+    <t>+378</t>
+  </si>
+  <si>
+    <t>+239</t>
+  </si>
+  <si>
+    <t>+966</t>
+  </si>
+  <si>
+    <t>+221</t>
+  </si>
+  <si>
+    <t>+381</t>
+  </si>
+  <si>
+    <t>+232</t>
+  </si>
+  <si>
+    <t>+65</t>
+  </si>
+  <si>
+    <t>+421</t>
+  </si>
+  <si>
+    <t>+386</t>
+  </si>
+  <si>
+    <t>+677</t>
+  </si>
+  <si>
+    <t>+252</t>
+  </si>
+  <si>
+    <t>+27</t>
+  </si>
+  <si>
+    <t>+34</t>
+  </si>
+  <si>
+    <t>+94</t>
+  </si>
+  <si>
+    <t>+249</t>
+  </si>
+  <si>
+    <t>+597</t>
+  </si>
+  <si>
+    <t>+46</t>
+  </si>
+  <si>
+    <t>+41</t>
+  </si>
+  <si>
+    <t>+963</t>
+  </si>
+  <si>
+    <t>+886</t>
+  </si>
+  <si>
+    <t>+992</t>
+  </si>
+  <si>
+    <t>+255</t>
+  </si>
+  <si>
+    <t>+66</t>
+  </si>
+  <si>
+    <t>+228</t>
+  </si>
+  <si>
+    <t>+690</t>
+  </si>
+  <si>
+    <t>+676</t>
+  </si>
+  <si>
+    <t>+1-868</t>
+  </si>
+  <si>
+    <t>+216</t>
+  </si>
+  <si>
+    <t>+90</t>
+  </si>
+  <si>
+    <t>+993</t>
+  </si>
+  <si>
+    <t>+1~649</t>
+  </si>
+  <si>
+    <t>+688</t>
+  </si>
+  <si>
+    <t>+256</t>
+  </si>
+  <si>
+    <t>+380</t>
+  </si>
+  <si>
+    <t>+971</t>
+  </si>
+  <si>
+    <t>+1-340</t>
+  </si>
+  <si>
+    <t>+598</t>
+  </si>
+  <si>
+    <t>+998</t>
+  </si>
+  <si>
+    <t>+678</t>
+  </si>
+  <si>
+    <t>+84</t>
+  </si>
+  <si>
+    <t>+58</t>
+  </si>
+  <si>
+    <t>+260</t>
+  </si>
+  <si>
+    <t>+263</t>
+  </si>
+  <si>
+    <t>+225</t>
+  </si>
+  <si>
+    <t>+850</t>
+  </si>
+  <si>
+    <t>+82</t>
+  </si>
+  <si>
+    <t>+383</t>
+  </si>
+  <si>
+    <t>+382</t>
+  </si>
+  <si>
+    <t>+90 392</t>
+  </si>
+  <si>
+    <t>+970</t>
+  </si>
+  <si>
+    <t>+374 47</t>
+  </si>
+  <si>
+    <t>+590</t>
+  </si>
+  <si>
+    <t>+685</t>
+  </si>
+  <si>
+    <t>+1-721</t>
+  </si>
+  <si>
+    <t>+995 34</t>
+  </si>
+  <si>
+    <t>+211</t>
+  </si>
+  <si>
+    <t>+379</t>
+  </si>
+  <si>
+    <t>+681</t>
   </si>
 </sst>
 </file>
@@ -19718,7 +20427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -56118,8 +56827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56204,7 +56913,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>4201</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -57746,7 +58455,7 @@
       <c r="E28" s="22" t="s">
         <v>5734</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="35">
         <v>1098581</v>
       </c>
       <c r="G28" s="22"/>
@@ -57858,7 +58567,7 @@
       <c r="E30" s="22" t="s">
         <v>5735</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="35">
         <v>51129</v>
       </c>
       <c r="G30" s="22"/>
@@ -57917,7 +58626,7 @@
       <c r="E31" s="22" t="s">
         <v>5736</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="35">
         <v>581730</v>
       </c>
       <c r="G31" s="36" t="s">
@@ -57978,7 +58687,7 @@
       <c r="E32" s="22" t="s">
         <v>5737</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="35">
         <v>8515767</v>
       </c>
       <c r="G32" s="22"/>
@@ -58037,7 +58746,7 @@
       <c r="E33" s="22" t="s">
         <v>5912</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="35">
         <v>153</v>
       </c>
       <c r="G33" s="22"/>
@@ -58098,7 +58807,7 @@
       <c r="E34" s="22" t="s">
         <v>5738</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="35">
         <v>5765</v>
       </c>
       <c r="G34" s="22"/>
@@ -58157,7 +58866,7 @@
       <c r="E35" s="22" t="s">
         <v>5739</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="35">
         <v>110993</v>
       </c>
       <c r="G35" s="22"/>
@@ -58216,7 +58925,7 @@
       <c r="E36" s="22" t="s">
         <v>5740</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="35">
         <v>274200</v>
       </c>
       <c r="G36" s="22"/>
@@ -58275,7 +58984,7 @@
       <c r="E37" s="22" t="s">
         <v>5741</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="35">
         <v>27834</v>
       </c>
       <c r="G37" s="22"/>
@@ -58334,7 +59043,7 @@
       <c r="E38" s="22" t="s">
         <v>5742</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="35">
         <v>181035</v>
       </c>
       <c r="G38" s="22"/>
@@ -58393,7 +59102,7 @@
       <c r="E39" s="22" t="s">
         <v>5743</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="35">
         <v>475442</v>
       </c>
       <c r="G39" s="22"/>
@@ -58452,7 +59161,7 @@
       <c r="E40" s="22" t="s">
         <v>5744</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="35">
         <v>9984670</v>
       </c>
       <c r="G40" s="22"/>
@@ -58511,7 +59220,7 @@
       <c r="E41" s="22" t="s">
         <v>5745</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="35">
         <v>4033</v>
       </c>
       <c r="G41" s="22"/>
@@ -58570,7 +59279,7 @@
       <c r="E42" s="22" t="s">
         <v>5913</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="35">
         <v>264</v>
       </c>
       <c r="G42" s="22"/>
@@ -58631,7 +59340,7 @@
       <c r="E43" s="22" t="s">
         <v>5746</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="35">
         <v>622984</v>
       </c>
       <c r="G43" s="22"/>
@@ -58690,7 +59399,7 @@
       <c r="E44" s="22" t="s">
         <v>5747</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="35">
         <v>1284000</v>
       </c>
       <c r="G44" s="22"/>
@@ -58749,7 +59458,7 @@
       <c r="E45" s="22" t="s">
         <v>5748</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="35">
         <v>756096</v>
       </c>
       <c r="G45" s="22"/>
@@ -58808,7 +59517,7 @@
       <c r="E46" s="22" t="s">
         <v>5749</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="35">
         <v>9596961</v>
       </c>
       <c r="G46" s="22"/>
@@ -58869,7 +59578,7 @@
       <c r="E47" s="22" t="s">
         <v>5914</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="35">
         <v>135</v>
       </c>
       <c r="G47" s="22"/>
@@ -58928,7 +59637,7 @@
       <c r="E48" s="22" t="s">
         <v>5915</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="35">
         <v>14</v>
       </c>
       <c r="G48" s="22"/>
@@ -58987,7 +59696,7 @@
       <c r="E49" s="22" t="s">
         <v>5750</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="35">
         <v>1141748</v>
       </c>
       <c r="G49" s="22"/>
@@ -59046,7 +59755,7 @@
       <c r="E50" s="22" t="s">
         <v>5751</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="35">
         <v>1861</v>
       </c>
       <c r="G50" s="22"/>
@@ -59105,7 +59814,7 @@
       <c r="E51" s="22" t="s">
         <v>5753</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="35">
         <v>342000</v>
       </c>
       <c r="G51" s="22"/>
@@ -59164,7 +59873,7 @@
       <c r="E52" s="22" t="s">
         <v>5916</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="35">
         <v>237</v>
       </c>
       <c r="G52" s="22"/>
@@ -59225,7 +59934,7 @@
       <c r="E53" s="22" t="s">
         <v>5754</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="35">
         <v>51100</v>
       </c>
       <c r="G53" s="22"/>
@@ -59284,7 +59993,7 @@
       <c r="E54" s="22" t="s">
         <v>5756</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="35">
         <v>56594</v>
       </c>
       <c r="G54" s="22"/>
@@ -59343,7 +60052,7 @@
       <c r="E55" s="22" t="s">
         <v>5757</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="35">
         <v>109884</v>
       </c>
       <c r="G55" s="22"/>
@@ -59402,7 +60111,7 @@
       <c r="E56" s="22" t="s">
         <v>5917</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="35">
         <v>444</v>
       </c>
       <c r="G56" s="22"/>
@@ -59461,7 +60170,7 @@
       <c r="E57" s="22" t="s">
         <v>5758</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="35">
         <v>9251</v>
       </c>
       <c r="G57" s="22"/>
@@ -59522,7 +60231,7 @@
       <c r="E58" s="22" t="s">
         <v>5759</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="35">
         <v>78871</v>
       </c>
       <c r="G58" s="22"/>
@@ -59581,7 +60290,7 @@
       <c r="E59" s="22" t="s">
         <v>5760</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="35">
         <v>42933</v>
       </c>
       <c r="G59" s="36" t="s">
@@ -59644,15 +60353,23 @@
       <c r="E60" s="22" t="s">
         <v>3457</v>
       </c>
-      <c r="F60" s="37"/>
+      <c r="F60" s="35">
+        <v>23200</v>
+      </c>
       <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="H60" s="36" t="s">
+        <v>6307</v>
+      </c>
       <c r="I60" s="22"/>
       <c r="J60" s="22" t="s">
         <v>5989</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
+      <c r="K60" s="22" t="s">
+        <v>6309</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>6310</v>
+      </c>
       <c r="M60" s="22" t="s">
         <v>5644</v>
       </c>
@@ -59695,15 +60412,23 @@
       <c r="E61" s="22" t="s">
         <v>5761</v>
       </c>
-      <c r="F61" s="37"/>
+      <c r="F61" s="35">
+        <v>750</v>
+      </c>
       <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="H61" s="36" t="s">
+        <v>6308</v>
+      </c>
       <c r="I61" s="22"/>
       <c r="J61" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
+      <c r="K61" s="22" t="s">
+        <v>6316</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>6317</v>
+      </c>
       <c r="M61" s="22" t="s">
         <v>5646</v>
       </c>
@@ -59746,15 +60471,23 @@
       <c r="E62" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="F62" s="37"/>
+      <c r="F62" s="35">
+        <v>48671</v>
+      </c>
       <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="H62" s="36" t="s">
+        <v>6318</v>
+      </c>
       <c r="I62" s="22"/>
       <c r="J62" s="22" t="s">
         <v>5990</v>
       </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
+      <c r="K62" s="22" t="s">
+        <v>6322</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>6323</v>
+      </c>
       <c r="M62" s="22" t="s">
         <v>5599</v>
       </c>
@@ -59797,15 +60530,23 @@
       <c r="E63" s="22" t="s">
         <v>5752</v>
       </c>
-      <c r="F63" s="37"/>
+      <c r="F63" s="35">
+        <v>2345409</v>
+      </c>
       <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="H63" s="36" t="s">
+        <v>6324</v>
+      </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22" t="s">
         <v>5981</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
+      <c r="K63" s="22" t="s">
+        <v>6325</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>6326</v>
+      </c>
       <c r="M63" s="22" t="s">
         <v>5576</v>
       </c>
@@ -59832,7 +60573,7 @@
       </c>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>4225</v>
       </c>
@@ -59848,15 +60589,23 @@
       <c r="E64" s="22" t="s">
         <v>5763</v>
       </c>
-      <c r="F64" s="37"/>
+      <c r="F64" s="35">
+        <v>15007</v>
+      </c>
       <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="H64" s="36" t="s">
+        <v>6319</v>
+      </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22" t="s">
         <v>5991</v>
       </c>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
+      <c r="K64" s="32" t="s">
+        <v>6327</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>6328</v>
+      </c>
       <c r="M64" s="22" t="s">
         <v>654</v>
       </c>
@@ -59899,15 +60648,23 @@
       <c r="E65" s="22" t="s">
         <v>5764</v>
       </c>
-      <c r="F65" s="37"/>
+      <c r="F65" s="35">
+        <v>256370</v>
+      </c>
       <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="H65" s="36" t="s">
+        <v>6311</v>
+      </c>
       <c r="I65" s="22"/>
       <c r="J65" s="22" t="s">
         <v>5992</v>
       </c>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
+      <c r="K65" s="22" t="s">
+        <v>6332</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>6333</v>
+      </c>
       <c r="M65" s="22" t="s">
         <v>5600</v>
       </c>
@@ -59950,15 +60707,23 @@
       <c r="E66" s="22" t="s">
         <v>5765</v>
       </c>
-      <c r="F66" s="37"/>
+      <c r="F66" s="35">
+        <v>1010408</v>
+      </c>
       <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+      <c r="H66" s="36" t="s">
+        <v>6312</v>
+      </c>
       <c r="I66" s="22"/>
       <c r="J66" s="22" t="s">
         <v>5993</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
+      <c r="K66" s="22" t="s">
+        <v>6334</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>6335</v>
+      </c>
       <c r="M66" s="22" t="s">
         <v>5647</v>
       </c>
@@ -60003,15 +60768,23 @@
       <c r="E67" s="22" t="s">
         <v>5766</v>
       </c>
-      <c r="F67" s="37"/>
+      <c r="F67" s="35">
+        <v>21041</v>
+      </c>
       <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="H67" s="36" t="s">
+        <v>6320</v>
+      </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22" t="s">
         <v>5994</v>
       </c>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
+      <c r="K67" s="22" t="s">
+        <v>6336</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>6337</v>
+      </c>
       <c r="M67" s="22" t="s">
         <v>648</v>
       </c>
@@ -60081,7 +60854,7 @@
       <c r="T68" s="20"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>3463</v>
       </c>
@@ -60097,15 +60870,23 @@
       <c r="E69" s="22" t="s">
         <v>5768</v>
       </c>
-      <c r="F69" s="37"/>
+      <c r="F69" s="35">
+        <v>28050</v>
+      </c>
       <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="H69" s="36" t="s">
+        <v>6321</v>
+      </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22" t="s">
         <v>5995</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
+      <c r="K69" s="32" t="s">
+        <v>6339</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>6340</v>
+      </c>
       <c r="M69" s="22" t="s">
         <v>5654</v>
       </c>
@@ -60148,15 +60929,23 @@
       <c r="E70" s="22" t="s">
         <v>5769</v>
       </c>
-      <c r="F70" s="37"/>
+      <c r="F70" s="35">
+        <v>117600</v>
+      </c>
       <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
+      <c r="H70" s="36" t="s">
+        <v>6313</v>
+      </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22" t="s">
         <v>5996</v>
       </c>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
+      <c r="K70" s="22" t="s">
+        <v>3464</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>6346</v>
+      </c>
       <c r="M70" s="22" t="s">
         <v>5612</v>
       </c>
@@ -60199,15 +60988,23 @@
       <c r="E71" s="22" t="s">
         <v>5770</v>
       </c>
-      <c r="F71" s="37"/>
+      <c r="F71" s="35">
+        <v>45339</v>
+      </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
+      <c r="H71" s="36" t="s">
+        <v>6314</v>
+      </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22" t="s">
         <v>5997</v>
       </c>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
+      <c r="K71" s="22" t="s">
+        <v>6349</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>6350</v>
+      </c>
       <c r="M71" s="22" t="s">
         <v>543</v>
       </c>
@@ -60250,15 +61047,25 @@
       <c r="E72" s="22" t="s">
         <v>5771</v>
       </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
+      <c r="F72" s="35">
+        <v>17364</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>6351</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>6315</v>
+      </c>
       <c r="I72" s="22"/>
       <c r="J72" s="22" t="s">
         <v>5998</v>
       </c>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
+      <c r="K72" s="22" t="s">
+        <v>6353</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>6354</v>
+      </c>
       <c r="M72" s="22" t="s">
         <v>5606</v>
       </c>
@@ -60301,15 +61108,23 @@
       <c r="E73" s="22" t="s">
         <v>5772</v>
       </c>
-      <c r="F73" s="37"/>
+      <c r="F73" s="35">
+        <v>1104300</v>
+      </c>
       <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="H73" s="36" t="s">
+        <v>6329</v>
+      </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22" t="s">
         <v>5999</v>
       </c>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
+      <c r="K73" s="22" t="s">
+        <v>6355</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>6356</v>
+      </c>
       <c r="M73" s="22" t="s">
         <v>542</v>
       </c>
@@ -60352,15 +61167,25 @@
       <c r="E74" s="22" t="s">
         <v>5918</v>
       </c>
-      <c r="F74" s="37"/>
+      <c r="F74" s="35">
+        <v>12200</v>
+      </c>
       <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
+      <c r="H74" s="36" t="s">
+        <v>6357</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>3046</v>
+      </c>
       <c r="J74" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
+      <c r="K74" s="22" t="s">
+        <v>6358</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>6359</v>
+      </c>
       <c r="M74" s="22" t="s">
         <v>5649</v>
       </c>
@@ -60401,15 +61226,25 @@
       <c r="E75" s="22" t="s">
         <v>5919</v>
       </c>
-      <c r="F75" s="37"/>
+      <c r="F75" s="35">
+        <v>1399</v>
+      </c>
       <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
+      <c r="H75" s="36" t="s">
+        <v>6360</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>3456</v>
+      </c>
       <c r="J75" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
+      <c r="K75" s="22" t="s">
+        <v>6361</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>6362</v>
+      </c>
       <c r="M75" s="22" t="s">
         <v>544</v>
       </c>
@@ -60452,15 +61287,25 @@
       <c r="E76" s="22" t="s">
         <v>5774</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="F76" s="35">
+        <v>18274</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>6363</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>6330</v>
+      </c>
       <c r="I76" s="22"/>
       <c r="J76" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
+      <c r="K76" s="22" t="s">
+        <v>6364</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>6365</v>
+      </c>
       <c r="M76" s="22" t="s">
         <v>546</v>
       </c>
@@ -60503,15 +61348,23 @@
       <c r="E77" s="22" t="s">
         <v>5775</v>
       </c>
-      <c r="F77" s="37"/>
+      <c r="F77" s="35">
+        <v>338455</v>
+      </c>
       <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="H77" s="36" t="s">
+        <v>6331</v>
+      </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22" t="s">
         <v>6000</v>
       </c>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
+      <c r="K77" s="22" t="s">
+        <v>6366</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>6367</v>
+      </c>
       <c r="M77" s="22" t="s">
         <v>547</v>
       </c>
@@ -60556,9 +61409,13 @@
       <c r="E78" s="22" t="s">
         <v>5776</v>
       </c>
-      <c r="F78" s="37"/>
+      <c r="F78" s="35">
+        <v>643801</v>
+      </c>
       <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+      <c r="H78" s="36" t="s">
+        <v>6341</v>
+      </c>
       <c r="I78" s="22"/>
       <c r="J78" s="22" t="s">
         <v>6112</v>
@@ -60606,15 +61463,27 @@
       <c r="E79" s="22" t="s">
         <v>5920</v>
       </c>
-      <c r="F79" s="37"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
+      <c r="F79" s="35">
+        <v>83846</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>6368</v>
+      </c>
+      <c r="H79" s="36" t="s">
+        <v>6338</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>3474</v>
+      </c>
       <c r="J79" s="22" t="s">
         <v>6110</v>
       </c>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
+      <c r="K79" s="22" t="s">
+        <v>6369</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>6370</v>
+      </c>
       <c r="M79" s="22" t="s">
         <v>5690</v>
       </c>
@@ -60655,15 +61524,25 @@
       <c r="E80" s="22" t="s">
         <v>5921</v>
       </c>
-      <c r="F80" s="37"/>
+      <c r="F80" s="35">
+        <v>4167</v>
+      </c>
       <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
+      <c r="H80" s="36" t="s">
+        <v>6371</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>3474</v>
+      </c>
       <c r="J80" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
+      <c r="K80" s="22" t="s">
+        <v>6372</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>6373</v>
+      </c>
       <c r="M80" s="22" t="s">
         <v>5610</v>
       </c>
@@ -60704,17 +61583,29 @@
       <c r="E81" s="22" t="s">
         <v>5777</v>
       </c>
-      <c r="F81" s="37"/>
+      <c r="F81" s="35">
+        <v>267667</v>
+      </c>
       <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
+      <c r="H81" s="36" t="s">
+        <v>6342</v>
+      </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22" t="s">
         <v>6001</v>
       </c>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="10"/>
+      <c r="K81" s="22" t="s">
+        <v>6374</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>6375</v>
+      </c>
+      <c r="M81" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>4651</v>
+      </c>
       <c r="O81" s="20" t="s">
         <v>4652</v>
       </c>
@@ -60751,15 +61642,23 @@
       <c r="E82" s="22" t="s">
         <v>5778</v>
       </c>
-      <c r="F82" s="37"/>
+      <c r="F82" s="35">
+        <v>11295</v>
+      </c>
       <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
+      <c r="H82" s="36" t="s">
+        <v>6376</v>
+      </c>
       <c r="I82" s="22"/>
       <c r="J82" s="22" t="s">
         <v>6002</v>
       </c>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
+      <c r="K82" s="22" t="s">
+        <v>3482</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>6377</v>
+      </c>
       <c r="M82" s="22" t="s">
         <v>5653</v>
       </c>
@@ -60802,15 +61701,25 @@
       <c r="E83" s="22" t="s">
         <v>5779</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="F83" s="35">
+        <v>69700</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>6352</v>
+      </c>
+      <c r="H83" s="36" t="s">
+        <v>6378</v>
+      </c>
       <c r="I83" s="22"/>
       <c r="J83" s="22" t="s">
         <v>6003</v>
       </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
+      <c r="K83" s="22" t="s">
+        <v>6379</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>6380</v>
+      </c>
       <c r="M83" s="22" t="s">
         <v>5571</v>
       </c>
@@ -60855,15 +61764,23 @@
       <c r="E84" s="22" t="s">
         <v>5780</v>
       </c>
-      <c r="F84" s="37"/>
+      <c r="F84" s="35">
+        <v>357114</v>
+      </c>
       <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
+      <c r="H84" s="36" t="s">
+        <v>6343</v>
+      </c>
       <c r="I84" s="22"/>
       <c r="J84" s="22" t="s">
         <v>6004</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
+      <c r="K84" s="22" t="s">
+        <v>6381</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>6382</v>
+      </c>
       <c r="M84" s="22" t="s">
         <v>5572</v>
       </c>
@@ -60906,15 +61823,23 @@
       <c r="E85" s="22" t="s">
         <v>5781</v>
       </c>
-      <c r="F85" s="37"/>
+      <c r="F85" s="35">
+        <v>238533</v>
+      </c>
       <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
+      <c r="H85" s="36" t="s">
+        <v>6344</v>
+      </c>
       <c r="I85" s="22"/>
       <c r="J85" s="22" t="s">
         <v>6005</v>
       </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
+      <c r="K85" s="22" t="s">
+        <v>6383</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>6384</v>
+      </c>
       <c r="M85" s="22" t="s">
         <v>5584</v>
       </c>
@@ -60957,15 +61882,27 @@
       <c r="E86" s="22" t="s">
         <v>5922</v>
       </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
+      <c r="F86" s="35">
+        <v>6</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>6386</v>
+      </c>
+      <c r="H86" s="36" t="s">
+        <v>6387</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>3046</v>
+      </c>
       <c r="J86" s="22" t="s">
         <v>4208</v>
       </c>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
+      <c r="K86" s="22" t="s">
+        <v>6391</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>6388</v>
+      </c>
       <c r="M86" s="22" t="s">
         <v>5652</v>
       </c>
@@ -61006,15 +61943,23 @@
       <c r="E87" s="22" t="s">
         <v>5782</v>
       </c>
-      <c r="F87" s="37"/>
+      <c r="F87" s="35">
+        <v>131957</v>
+      </c>
       <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
+      <c r="H87" s="36" t="s">
+        <v>6345</v>
+      </c>
       <c r="I87" s="22"/>
       <c r="J87" s="22" t="s">
         <v>6006</v>
       </c>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
+      <c r="K87" s="22" t="s">
+        <v>6389</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>6390</v>
+      </c>
       <c r="M87" s="22" t="s">
         <v>5655</v>
       </c>
@@ -61057,15 +62002,25 @@
       <c r="E88" s="22" t="s">
         <v>5923</v>
       </c>
-      <c r="F88" s="37"/>
+      <c r="F88" s="35">
+        <v>2166086</v>
+      </c>
       <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
+      <c r="H88" s="36" t="s">
+        <v>6392</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>3456</v>
+      </c>
       <c r="J88" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
+      <c r="K88" s="22" t="s">
+        <v>6393</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>6394</v>
+      </c>
       <c r="M88" s="22" t="s">
         <v>553</v>
       </c>
@@ -61106,15 +62061,23 @@
       <c r="E89" s="22" t="s">
         <v>5783</v>
       </c>
-      <c r="F89" s="37"/>
+      <c r="F89" s="35">
+        <v>344</v>
+      </c>
       <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
+      <c r="H89" s="36" t="s">
+        <v>6347</v>
+      </c>
       <c r="I89" s="22"/>
       <c r="J89" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
+      <c r="K89" s="22" t="s">
+        <v>6395</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>6396</v>
+      </c>
       <c r="M89" s="22" t="s">
         <v>551</v>
       </c>
@@ -61157,15 +62120,25 @@
       <c r="E90" s="22" t="s">
         <v>5924</v>
       </c>
-      <c r="F90" s="37"/>
+      <c r="F90" s="35">
+        <v>549</v>
+      </c>
       <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
+      <c r="H90" s="36" t="s">
+        <v>6397</v>
+      </c>
+      <c r="I90" s="22" t="s">
+        <v>2944</v>
+      </c>
       <c r="J90" s="22" t="s">
         <v>6106</v>
       </c>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
+      <c r="K90" s="22" t="s">
+        <v>6398</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>6399</v>
+      </c>
       <c r="M90" s="22" t="s">
         <v>556</v>
       </c>
@@ -61208,15 +62181,23 @@
       <c r="E91" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="F91" s="37"/>
+      <c r="F91" s="35">
+        <v>108889</v>
+      </c>
       <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
+      <c r="H91" s="36" t="s">
+        <v>6348</v>
+      </c>
       <c r="I91" s="22"/>
       <c r="J91" s="22" t="s">
         <v>6007</v>
       </c>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
+      <c r="K91" s="22" t="s">
+        <v>6400</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>6401</v>
+      </c>
       <c r="M91" s="22" t="s">
         <v>5601</v>
       </c>
@@ -61259,7 +62240,9 @@
       <c r="E92" s="22" t="s">
         <v>5925</v>
       </c>
-      <c r="F92" s="37"/>
+      <c r="F92" s="35">
+        <v>78</v>
+      </c>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -61267,7 +62250,9 @@
         <v>6106</v>
       </c>
       <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
+      <c r="L92" s="22" t="s">
+        <v>5699</v>
+      </c>
       <c r="M92" s="22" t="s">
         <v>5651</v>
       </c>
@@ -61308,7 +62293,9 @@
       <c r="E93" s="22" t="s">
         <v>5785</v>
       </c>
-      <c r="F93" s="37"/>
+      <c r="F93" s="35">
+        <v>245857</v>
+      </c>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -61316,7 +62303,9 @@
         <v>6008</v>
       </c>
       <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
+      <c r="L93" s="22" t="s">
+        <v>6402</v>
+      </c>
       <c r="M93" s="22" t="s">
         <v>555</v>
       </c>
@@ -61359,7 +62348,9 @@
       <c r="E94" s="22" t="s">
         <v>5786</v>
       </c>
-      <c r="F94" s="37"/>
+      <c r="F94" s="35">
+        <v>36125</v>
+      </c>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -61367,7 +62358,9 @@
         <v>6009</v>
       </c>
       <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
+      <c r="L94" s="22" t="s">
+        <v>6403</v>
+      </c>
       <c r="M94" s="22" t="s">
         <v>5589</v>
       </c>
@@ -61410,7 +62403,9 @@
       <c r="E95" s="22" t="s">
         <v>5787</v>
       </c>
-      <c r="F95" s="37"/>
+      <c r="F95" s="35">
+        <v>214969</v>
+      </c>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -61418,7 +62413,9 @@
         <v>6010</v>
       </c>
       <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
+      <c r="L95" s="22" t="s">
+        <v>6404</v>
+      </c>
       <c r="M95" s="22" t="s">
         <v>5656</v>
       </c>
@@ -61461,7 +62458,9 @@
       <c r="E96" s="22" t="s">
         <v>5788</v>
       </c>
-      <c r="F96" s="37"/>
+      <c r="F96" s="35">
+        <v>27750</v>
+      </c>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -61469,7 +62468,9 @@
         <v>6011</v>
       </c>
       <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
+      <c r="L96" s="22" t="s">
+        <v>6405</v>
+      </c>
       <c r="M96" s="22" t="s">
         <v>728</v>
       </c>
@@ -61512,7 +62513,9 @@
       <c r="E97" s="22" t="s">
         <v>5789</v>
       </c>
-      <c r="F97" s="37"/>
+      <c r="F97" s="35">
+        <v>112492</v>
+      </c>
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -61520,7 +62523,9 @@
         <v>6012</v>
       </c>
       <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
+      <c r="L97" s="22" t="s">
+        <v>6406</v>
+      </c>
       <c r="M97" s="22" t="s">
         <v>5602</v>
       </c>
@@ -61563,7 +62568,9 @@
       <c r="E98" s="22" t="s">
         <v>5865</v>
       </c>
-      <c r="F98" s="37"/>
+      <c r="F98" s="35">
+        <v>2755</v>
+      </c>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -61571,7 +62578,9 @@
         <v>6013</v>
       </c>
       <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
+      <c r="L98" s="22" t="s">
+        <v>6414</v>
+      </c>
       <c r="M98" s="22" t="s">
         <v>5657</v>
       </c>
@@ -61614,7 +62623,9 @@
       <c r="E99" s="22" t="s">
         <v>5790</v>
       </c>
-      <c r="F99" s="37"/>
+      <c r="F99" s="35">
+        <v>93028</v>
+      </c>
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -61622,7 +62633,9 @@
         <v>6014</v>
       </c>
       <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
+      <c r="L99" s="22" t="s">
+        <v>6413</v>
+      </c>
       <c r="M99" s="22" t="s">
         <v>564</v>
       </c>
@@ -61665,7 +62678,9 @@
       <c r="E100" s="22" t="s">
         <v>5791</v>
       </c>
-      <c r="F100" s="37"/>
+      <c r="F100" s="35">
+        <v>103000</v>
+      </c>
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -61673,7 +62688,9 @@
         <v>6106</v>
       </c>
       <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
+      <c r="L100" s="22" t="s">
+        <v>6412</v>
+      </c>
       <c r="M100" s="22" t="s">
         <v>566</v>
       </c>
@@ -61716,7 +62733,9 @@
       <c r="E101" s="22" t="s">
         <v>5792</v>
       </c>
-      <c r="F101" s="37"/>
+      <c r="F101" s="35">
+        <v>3287263</v>
+      </c>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -61724,7 +62743,9 @@
         <v>6015</v>
       </c>
       <c r="K101" s="22"/>
-      <c r="L101" s="22"/>
+      <c r="L101" s="22" t="s">
+        <v>6411</v>
+      </c>
       <c r="M101" s="22" t="s">
         <v>5564</v>
       </c>
@@ -61769,7 +62790,9 @@
       <c r="E102" s="22" t="s">
         <v>5793</v>
       </c>
-      <c r="F102" s="37"/>
+      <c r="F102" s="35">
+        <v>1904569</v>
+      </c>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
@@ -61777,7 +62800,9 @@
         <v>6016</v>
       </c>
       <c r="K102" s="22"/>
-      <c r="L102" s="22"/>
+      <c r="L102" s="22" t="s">
+        <v>6410</v>
+      </c>
       <c r="M102" s="22" t="s">
         <v>572</v>
       </c>
@@ -61822,7 +62847,9 @@
       <c r="E103" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="F103" s="37"/>
+      <c r="F103" s="35">
+        <v>1648195</v>
+      </c>
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
@@ -61830,7 +62857,9 @@
         <v>6017</v>
       </c>
       <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
+      <c r="L103" s="22" t="s">
+        <v>6409</v>
+      </c>
       <c r="M103" s="22" t="s">
         <v>5587</v>
       </c>
@@ -61873,7 +62902,9 @@
       <c r="E104" s="22" t="s">
         <v>5795</v>
       </c>
-      <c r="F104" s="37"/>
+      <c r="F104" s="35">
+        <v>438317</v>
+      </c>
       <c r="G104" s="22"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
@@ -61881,7 +62912,9 @@
         <v>6018</v>
       </c>
       <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
+      <c r="L104" s="22" t="s">
+        <v>6408</v>
+      </c>
       <c r="M104" s="22" t="s">
         <v>5658</v>
       </c>
@@ -61924,7 +62957,9 @@
       <c r="E105" s="22" t="s">
         <v>5796</v>
       </c>
-      <c r="F105" s="37"/>
+      <c r="F105" s="35">
+        <v>70273</v>
+      </c>
       <c r="G105" s="22"/>
       <c r="H105" s="22"/>
       <c r="I105" s="22"/>
@@ -61932,7 +62967,9 @@
         <v>6019</v>
       </c>
       <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
+      <c r="L105" s="22" t="s">
+        <v>6407</v>
+      </c>
       <c r="M105" s="22" t="s">
         <v>570</v>
       </c>
@@ -61975,7 +63012,9 @@
       <c r="E106" s="22" t="s">
         <v>5926</v>
       </c>
-      <c r="F106" s="37"/>
+      <c r="F106" s="35">
+        <v>572</v>
+      </c>
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
@@ -61983,7 +63022,9 @@
         <v>6106</v>
       </c>
       <c r="K106" s="22"/>
-      <c r="L106" s="22"/>
+      <c r="L106" s="22" t="s">
+        <v>5699</v>
+      </c>
       <c r="M106" s="22" t="s">
         <v>5574</v>
       </c>
@@ -62024,7 +63065,9 @@
       <c r="E107" s="22" t="s">
         <v>5797</v>
       </c>
-      <c r="F107" s="37"/>
+      <c r="F107" s="35">
+        <v>20770</v>
+      </c>
       <c r="G107" s="22"/>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
@@ -62032,7 +63075,9 @@
         <v>6020</v>
       </c>
       <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
+      <c r="L107" s="22" t="s">
+        <v>6415</v>
+      </c>
       <c r="M107" s="22" t="s">
         <v>5586</v>
       </c>
@@ -62075,7 +63120,9 @@
       <c r="E108" s="22" t="s">
         <v>5798</v>
       </c>
-      <c r="F108" s="37"/>
+      <c r="F108" s="35">
+        <v>301339</v>
+      </c>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
       <c r="I108" s="22"/>
@@ -62083,7 +63130,9 @@
         <v>6021</v>
       </c>
       <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
+      <c r="L108" s="22" t="s">
+        <v>6416</v>
+      </c>
       <c r="M108" s="22" t="s">
         <v>574</v>
       </c>
@@ -62126,7 +63175,9 @@
       <c r="E109" s="22" t="s">
         <v>5755</v>
       </c>
-      <c r="F109" s="37"/>
+      <c r="F109" s="35">
+        <v>322463</v>
+      </c>
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
@@ -62134,7 +63185,9 @@
         <v>5982</v>
       </c>
       <c r="K109" s="22"/>
-      <c r="L109" s="22"/>
+      <c r="L109" s="22" t="s">
+        <v>6528</v>
+      </c>
       <c r="M109" s="22" t="s">
         <v>5638</v>
       </c>
@@ -62177,7 +63230,9 @@
       <c r="E110" s="22" t="s">
         <v>5799</v>
       </c>
-      <c r="F110" s="37"/>
+      <c r="F110" s="35">
+        <v>10991</v>
+      </c>
       <c r="G110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
@@ -62185,7 +63240,9 @@
         <v>6106</v>
       </c>
       <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
+      <c r="L110" s="22" t="s">
+        <v>6417</v>
+      </c>
       <c r="M110" s="22" t="s">
         <v>5660</v>
       </c>
@@ -62228,7 +63285,9 @@
       <c r="E111" s="22" t="s">
         <v>5800</v>
       </c>
-      <c r="F111" s="37"/>
+      <c r="F111" s="35">
+        <v>377976</v>
+      </c>
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="22"/>
@@ -62236,7 +63295,9 @@
         <v>6106</v>
       </c>
       <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
+      <c r="L111" s="22" t="s">
+        <v>6418</v>
+      </c>
       <c r="M111" s="22" t="s">
         <v>5563</v>
       </c>
@@ -62279,7 +63340,9 @@
       <c r="E112" s="22" t="s">
         <v>5927</v>
       </c>
-      <c r="F112" s="37"/>
+      <c r="F112" s="35">
+        <v>116</v>
+      </c>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -62287,7 +63350,9 @@
         <v>6106</v>
       </c>
       <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
+      <c r="L112" s="22" t="s">
+        <v>5699</v>
+      </c>
       <c r="M112" s="22" t="s">
         <v>5659</v>
       </c>
@@ -62328,7 +63393,9 @@
       <c r="E113" s="22" t="s">
         <v>5801</v>
       </c>
-      <c r="F113" s="37"/>
+      <c r="F113" s="35">
+        <v>89342</v>
+      </c>
       <c r="G113" s="22"/>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -62336,7 +63403,9 @@
         <v>6022</v>
       </c>
       <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
+      <c r="L113" s="22" t="s">
+        <v>6419</v>
+      </c>
       <c r="M113" s="22" t="s">
         <v>5661</v>
       </c>
@@ -62379,7 +63448,9 @@
       <c r="E114" s="22" t="s">
         <v>5802</v>
       </c>
-      <c r="F114" s="37"/>
+      <c r="F114" s="35">
+        <v>2724900</v>
+      </c>
       <c r="G114" s="22"/>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -62387,7 +63458,9 @@
         <v>6023</v>
       </c>
       <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
+      <c r="L114" s="22" t="s">
+        <v>6420</v>
+      </c>
       <c r="M114" s="22" t="s">
         <v>5566</v>
       </c>
@@ -62432,7 +63505,9 @@
       <c r="E115" s="22" t="s">
         <v>5803</v>
       </c>
-      <c r="F115" s="37"/>
+      <c r="F115" s="35">
+        <v>580367</v>
+      </c>
       <c r="G115" s="22"/>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -62440,7 +63515,9 @@
         <v>6024</v>
       </c>
       <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
+      <c r="L115" s="22" t="s">
+        <v>6421</v>
+      </c>
       <c r="M115" s="22" t="s">
         <v>5575</v>
       </c>
@@ -62483,7 +63560,9 @@
       <c r="E116" s="22" t="s">
         <v>5804</v>
       </c>
-      <c r="F116" s="37"/>
+      <c r="F116" s="35">
+        <v>811</v>
+      </c>
       <c r="G116" s="22"/>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -62491,7 +63570,9 @@
         <v>6106</v>
       </c>
       <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
+      <c r="L116" s="22" t="s">
+        <v>6422</v>
+      </c>
       <c r="M116" s="22" t="s">
         <v>583</v>
       </c>
@@ -62534,7 +63615,9 @@
       <c r="E117" s="22" t="s">
         <v>5805</v>
       </c>
-      <c r="F117" s="37"/>
+      <c r="F117" s="35">
+        <v>10887</v>
+      </c>
       <c r="G117" s="22"/>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -62542,7 +63625,9 @@
         <v>6107</v>
       </c>
       <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
+      <c r="L117" s="22" t="s">
+        <v>6531</v>
+      </c>
       <c r="M117" s="22" t="s">
         <v>5686</v>
       </c>
@@ -62583,7 +63668,9 @@
       <c r="E118" s="22" t="s">
         <v>5806</v>
       </c>
-      <c r="F118" s="37"/>
+      <c r="F118" s="35">
+        <v>17818</v>
+      </c>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -62591,7 +63678,9 @@
         <v>6025</v>
       </c>
       <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
+      <c r="L118" s="22" t="s">
+        <v>6423</v>
+      </c>
       <c r="M118" s="22" t="s">
         <v>531</v>
       </c>
@@ -62634,7 +63723,9 @@
       <c r="E119" s="22" t="s">
         <v>5807</v>
       </c>
-      <c r="F119" s="37"/>
+      <c r="F119" s="35">
+        <v>199951</v>
+      </c>
       <c r="G119" s="22"/>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -62642,7 +63733,9 @@
         <v>6026</v>
       </c>
       <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
+      <c r="L119" s="22" t="s">
+        <v>6424</v>
+      </c>
       <c r="M119" s="22" t="s">
         <v>587</v>
       </c>
@@ -62685,7 +63778,9 @@
       <c r="E120" s="22" t="s">
         <v>5808</v>
       </c>
-      <c r="F120" s="37"/>
+      <c r="F120" s="35">
+        <v>236800</v>
+      </c>
       <c r="G120" s="22"/>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -62693,7 +63788,9 @@
         <v>6027</v>
       </c>
       <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
+      <c r="L120" s="22" t="s">
+        <v>6425</v>
+      </c>
       <c r="M120" s="22" t="s">
         <v>592</v>
       </c>
@@ -62736,7 +63833,9 @@
       <c r="E121" s="22" t="s">
         <v>5809</v>
       </c>
-      <c r="F121" s="37"/>
+      <c r="F121" s="35">
+        <v>64559</v>
+      </c>
       <c r="G121" s="22"/>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -62744,7 +63843,9 @@
         <v>6028</v>
       </c>
       <c r="K121" s="22"/>
-      <c r="L121" s="22"/>
+      <c r="L121" s="22" t="s">
+        <v>6426</v>
+      </c>
       <c r="M121" s="22" t="s">
         <v>593</v>
       </c>
@@ -62787,7 +63888,9 @@
       <c r="E122" s="22" t="s">
         <v>5810</v>
       </c>
-      <c r="F122" s="37"/>
+      <c r="F122" s="35">
+        <v>10452</v>
+      </c>
       <c r="G122" s="22"/>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -62795,7 +63898,9 @@
         <v>6029</v>
       </c>
       <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
+      <c r="L122" s="22" t="s">
+        <v>6427</v>
+      </c>
       <c r="M122" s="22" t="s">
         <v>597</v>
       </c>
@@ -62838,7 +63943,9 @@
       <c r="E123" s="22" t="s">
         <v>5811</v>
       </c>
-      <c r="F123" s="37"/>
+      <c r="F123" s="35">
+        <v>30355</v>
+      </c>
       <c r="G123" s="22"/>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -62846,7 +63953,9 @@
         <v>6030</v>
       </c>
       <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
+      <c r="L123" s="22" t="s">
+        <v>6428</v>
+      </c>
       <c r="M123" s="22" t="s">
         <v>5663</v>
       </c>
@@ -62889,7 +63998,9 @@
       <c r="E124" s="22" t="s">
         <v>5812</v>
       </c>
-      <c r="F124" s="37"/>
+      <c r="F124" s="35">
+        <v>111369</v>
+      </c>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -62897,7 +64008,9 @@
         <v>6031</v>
       </c>
       <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
+      <c r="L124" s="22" t="s">
+        <v>6429</v>
+      </c>
       <c r="M124" s="22" t="s">
         <v>5622</v>
       </c>
@@ -62940,7 +64053,9 @@
       <c r="E125" s="22" t="s">
         <v>5813</v>
       </c>
-      <c r="F125" s="37"/>
+      <c r="F125" s="35">
+        <v>1759540</v>
+      </c>
       <c r="G125" s="22"/>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -62948,7 +64063,9 @@
         <v>6032</v>
       </c>
       <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
+      <c r="L125" s="22" t="s">
+        <v>6430</v>
+      </c>
       <c r="M125" s="22" t="s">
         <v>5664</v>
       </c>
@@ -62991,7 +64108,9 @@
       <c r="E126" s="22" t="s">
         <v>5814</v>
       </c>
-      <c r="F126" s="37"/>
+      <c r="F126" s="35">
+        <v>160</v>
+      </c>
       <c r="G126" s="22"/>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -62999,7 +64118,9 @@
         <v>6033</v>
       </c>
       <c r="K126" s="22"/>
-      <c r="L126" s="22"/>
+      <c r="L126" s="22" t="s">
+        <v>6431</v>
+      </c>
       <c r="M126" s="22" t="s">
         <v>594</v>
       </c>
@@ -63042,7 +64163,9 @@
       <c r="E127" s="22" t="s">
         <v>5815</v>
       </c>
-      <c r="F127" s="37"/>
+      <c r="F127" s="35">
+        <v>65300</v>
+      </c>
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -63050,7 +64173,9 @@
         <v>6034</v>
       </c>
       <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
+      <c r="L127" s="22" t="s">
+        <v>6432</v>
+      </c>
       <c r="M127" s="22" t="s">
         <v>596</v>
       </c>
@@ -63093,7 +64218,9 @@
       <c r="E128" s="22" t="s">
         <v>3545</v>
       </c>
-      <c r="F128" s="37"/>
+      <c r="F128" s="35">
+        <v>2586</v>
+      </c>
       <c r="G128" s="22"/>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -63101,7 +64228,9 @@
         <v>6035</v>
       </c>
       <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
+      <c r="L128" s="22" t="s">
+        <v>6433</v>
+      </c>
       <c r="M128" s="22" t="s">
         <v>598</v>
       </c>
@@ -63141,7 +64270,9 @@
       <c r="D129" s="22" t="s">
         <v>3277</v>
       </c>
-      <c r="F129" s="37"/>
+      <c r="F129" s="35">
+        <v>31</v>
+      </c>
       <c r="G129" s="22"/>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -63149,7 +64280,9 @@
         <v>6036</v>
       </c>
       <c r="K129" s="22"/>
-      <c r="L129" s="22"/>
+      <c r="L129" s="22" t="s">
+        <v>6434</v>
+      </c>
       <c r="M129" s="22" t="s">
         <v>5669</v>
       </c>
@@ -63190,7 +64323,9 @@
       <c r="E130" s="22" t="s">
         <v>5816</v>
       </c>
-      <c r="F130" s="37"/>
+      <c r="F130" s="35">
+        <v>587041</v>
+      </c>
       <c r="G130" s="22"/>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -63198,7 +64333,9 @@
         <v>6106</v>
       </c>
       <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
+      <c r="L130" s="22" t="s">
+        <v>6436</v>
+      </c>
       <c r="M130" s="22" t="s">
         <v>606</v>
       </c>
@@ -63241,7 +64378,9 @@
       <c r="E131" s="22" t="s">
         <v>5817</v>
       </c>
-      <c r="F131" s="37"/>
+      <c r="F131" s="35">
+        <v>118484</v>
+      </c>
       <c r="G131" s="22"/>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -63249,7 +64388,9 @@
         <v>6037</v>
       </c>
       <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
+      <c r="L131" s="22" t="s">
+        <v>6437</v>
+      </c>
       <c r="M131" s="22" t="s">
         <v>5615</v>
       </c>
@@ -63292,7 +64433,9 @@
       <c r="E132" s="22" t="s">
         <v>5818</v>
       </c>
-      <c r="F132" s="37"/>
+      <c r="F132" s="35">
+        <v>330803</v>
+      </c>
       <c r="G132" s="22"/>
       <c r="H132" s="22"/>
       <c r="I132" s="22"/>
@@ -63300,7 +64443,9 @@
         <v>6038</v>
       </c>
       <c r="K132" s="22"/>
-      <c r="L132" s="22"/>
+      <c r="L132" s="22" t="s">
+        <v>6438</v>
+      </c>
       <c r="M132" s="22" t="s">
         <v>523</v>
       </c>
@@ -63343,7 +64488,9 @@
       <c r="E133" s="22" t="s">
         <v>5819</v>
       </c>
-      <c r="F133" s="37"/>
+      <c r="F133" s="35">
+        <v>300</v>
+      </c>
       <c r="G133" s="22"/>
       <c r="H133" s="22"/>
       <c r="I133" s="22"/>
@@ -63351,7 +64498,9 @@
         <v>6106</v>
       </c>
       <c r="K133" s="22"/>
-      <c r="L133" s="22"/>
+      <c r="L133" s="22" t="s">
+        <v>6439</v>
+      </c>
       <c r="M133" s="22" t="s">
         <v>5672</v>
       </c>
@@ -63394,7 +64543,9 @@
       <c r="E134" s="22" t="s">
         <v>5820</v>
       </c>
-      <c r="F134" s="37"/>
+      <c r="F134" s="35">
+        <v>1240192</v>
+      </c>
       <c r="G134" s="22"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
@@ -63402,7 +64553,9 @@
         <v>6039</v>
       </c>
       <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
+      <c r="L134" s="22" t="s">
+        <v>6440</v>
+      </c>
       <c r="M134" s="22" t="s">
         <v>602</v>
       </c>
@@ -63445,7 +64598,9 @@
       <c r="E135" s="22" t="s">
         <v>5821</v>
       </c>
-      <c r="F135" s="37"/>
+      <c r="F135" s="35">
+        <v>316</v>
+      </c>
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
       <c r="I135" s="22"/>
@@ -63453,7 +64608,9 @@
         <v>6106</v>
       </c>
       <c r="K135" s="22"/>
-      <c r="L135" s="22"/>
+      <c r="L135" s="22" t="s">
+        <v>6441</v>
+      </c>
       <c r="M135" s="22" t="s">
         <v>607</v>
       </c>
@@ -63496,7 +64653,9 @@
       <c r="E136" s="22" t="s">
         <v>5822</v>
       </c>
-      <c r="F136" s="37"/>
+      <c r="F136" s="35">
+        <v>181</v>
+      </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
       <c r="I136" s="22"/>
@@ -63504,7 +64663,9 @@
         <v>6106</v>
       </c>
       <c r="K136" s="22"/>
-      <c r="L136" s="22"/>
+      <c r="L136" s="22" t="s">
+        <v>6442</v>
+      </c>
       <c r="M136" s="22" t="s">
         <v>601</v>
       </c>
@@ -63547,7 +64708,9 @@
       <c r="E137" s="22" t="s">
         <v>5823</v>
       </c>
-      <c r="F137" s="37"/>
+      <c r="F137" s="35">
+        <v>1030700</v>
+      </c>
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
       <c r="I137" s="22"/>
@@ -63555,7 +64718,9 @@
         <v>6040</v>
       </c>
       <c r="K137" s="22"/>
-      <c r="L137" s="22"/>
+      <c r="L137" s="22" t="s">
+        <v>6443</v>
+      </c>
       <c r="M137" s="22" t="s">
         <v>604</v>
       </c>
@@ -63598,7 +64763,9 @@
       <c r="E138" s="22" t="s">
         <v>5824</v>
       </c>
-      <c r="F138" s="37"/>
+      <c r="F138" s="35">
+        <v>2040</v>
+      </c>
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
       <c r="I138" s="22"/>
@@ -63606,7 +64773,9 @@
         <v>6106</v>
       </c>
       <c r="K138" s="22"/>
-      <c r="L138" s="22"/>
+      <c r="L138" s="22" t="s">
+        <v>6444</v>
+      </c>
       <c r="M138" s="22" t="s">
         <v>5671</v>
       </c>
@@ -63649,7 +64818,9 @@
       <c r="E139" s="22" t="s">
         <v>5825</v>
       </c>
-      <c r="F139" s="37"/>
+      <c r="F139" s="35">
+        <v>1964375</v>
+      </c>
       <c r="G139" s="22"/>
       <c r="H139" s="22"/>
       <c r="I139" s="22"/>
@@ -63657,7 +64828,9 @@
         <v>6041</v>
       </c>
       <c r="K139" s="22"/>
-      <c r="L139" s="22"/>
+      <c r="L139" s="22" t="s">
+        <v>6445</v>
+      </c>
       <c r="M139" s="22" t="s">
         <v>5603</v>
       </c>
@@ -63700,7 +64873,9 @@
       <c r="E140" s="22" t="s">
         <v>5773</v>
       </c>
-      <c r="F140" s="37"/>
+      <c r="F140" s="35">
+        <v>702</v>
+      </c>
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="22"/>
@@ -63708,7 +64883,9 @@
         <v>6106</v>
       </c>
       <c r="K140" s="22"/>
-      <c r="L140" s="22"/>
+      <c r="L140" s="22" t="s">
+        <v>6446</v>
+      </c>
       <c r="M140" s="22" t="s">
         <v>5650</v>
       </c>
@@ -63751,7 +64928,9 @@
       <c r="E141" s="22" t="s">
         <v>5826</v>
       </c>
-      <c r="F141" s="37"/>
+      <c r="F141" s="35">
+        <v>33846</v>
+      </c>
       <c r="G141" s="22"/>
       <c r="H141" s="22"/>
       <c r="I141" s="22"/>
@@ -63759,7 +64938,9 @@
         <v>6042</v>
       </c>
       <c r="K141" s="22"/>
-      <c r="L141" s="22"/>
+      <c r="L141" s="22" t="s">
+        <v>6385</v>
+      </c>
       <c r="M141" s="22" t="s">
         <v>5666</v>
       </c>
@@ -63804,7 +64985,9 @@
       <c r="E142" s="22" t="s">
         <v>3568</v>
       </c>
-      <c r="F142" s="37"/>
+      <c r="F142" s="35">
+        <v>2</v>
+      </c>
       <c r="G142" s="22"/>
       <c r="H142" s="22"/>
       <c r="I142" s="22"/>
@@ -63812,7 +64995,9 @@
         <v>6043</v>
       </c>
       <c r="K142" s="22"/>
-      <c r="L142" s="22"/>
+      <c r="L142" s="22" t="s">
+        <v>6447</v>
+      </c>
       <c r="M142" s="22" t="s">
         <v>5665</v>
       </c>
@@ -63855,7 +65040,9 @@
       <c r="E143" s="22" t="s">
         <v>5827</v>
       </c>
-      <c r="F143" s="37"/>
+      <c r="F143" s="35">
+        <v>1564110</v>
+      </c>
       <c r="G143" s="22"/>
       <c r="H143" s="22"/>
       <c r="I143" s="22"/>
@@ -63863,7 +65050,9 @@
         <v>6044</v>
       </c>
       <c r="K143" s="22"/>
-      <c r="L143" s="22"/>
+      <c r="L143" s="22" t="s">
+        <v>6448</v>
+      </c>
       <c r="M143" s="22" t="s">
         <v>608</v>
       </c>
@@ -63906,7 +65095,9 @@
       <c r="E144" s="22" t="s">
         <v>5828</v>
       </c>
-      <c r="F144" s="37"/>
+      <c r="F144" s="35">
+        <v>13812</v>
+      </c>
       <c r="G144" s="22"/>
       <c r="H144" s="22"/>
       <c r="I144" s="22"/>
@@ -63914,7 +65105,9 @@
         <v>6045</v>
       </c>
       <c r="K144" s="22"/>
-      <c r="L144" s="22"/>
+      <c r="L144" s="22" t="s">
+        <v>6532</v>
+      </c>
       <c r="M144" s="22" t="s">
         <v>5567</v>
       </c>
@@ -63957,7 +65150,9 @@
       <c r="E145" s="22" t="s">
         <v>5928</v>
       </c>
-      <c r="F145" s="37"/>
+      <c r="F145" s="35">
+        <v>102</v>
+      </c>
       <c r="G145" s="22"/>
       <c r="H145" s="22"/>
       <c r="I145" s="22"/>
@@ -63965,7 +65160,9 @@
         <v>6046</v>
       </c>
       <c r="K145" s="22"/>
-      <c r="L145" s="22"/>
+      <c r="L145" s="22" t="s">
+        <v>6449</v>
+      </c>
       <c r="M145" s="22" t="s">
         <v>605</v>
       </c>
@@ -64006,7 +65203,9 @@
       <c r="E146" s="22" t="s">
         <v>5829</v>
       </c>
-      <c r="F146" s="37"/>
+      <c r="F146" s="35">
+        <v>446550</v>
+      </c>
       <c r="G146" s="22"/>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
@@ -64014,7 +65213,9 @@
         <v>6046</v>
       </c>
       <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
+      <c r="L146" s="22" t="s">
+        <v>6450</v>
+      </c>
       <c r="M146" s="22" t="s">
         <v>5561</v>
       </c>
@@ -64059,7 +65260,9 @@
       <c r="E147" s="22" t="s">
         <v>5830</v>
       </c>
-      <c r="F147" s="37"/>
+      <c r="F147" s="35">
+        <v>801590</v>
+      </c>
       <c r="G147" s="22"/>
       <c r="H147" s="22"/>
       <c r="I147" s="22"/>
@@ -64067,7 +65270,9 @@
         <v>6047</v>
       </c>
       <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
+      <c r="L147" s="22" t="s">
+        <v>6451</v>
+      </c>
       <c r="M147" s="22" t="s">
         <v>5588</v>
       </c>
@@ -64110,7 +65315,9 @@
       <c r="E148" s="22" t="s">
         <v>5831</v>
       </c>
-      <c r="F148" s="37"/>
+      <c r="F148" s="35">
+        <v>676578</v>
+      </c>
       <c r="G148" s="22"/>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
@@ -64118,7 +65325,9 @@
         <v>6048</v>
       </c>
       <c r="K148" s="22"/>
-      <c r="L148" s="22"/>
+      <c r="L148" s="22" t="s">
+        <v>6452</v>
+      </c>
       <c r="M148" s="22" t="s">
         <v>5668</v>
       </c>
@@ -64161,7 +65370,9 @@
       <c r="E149" s="22" t="s">
         <v>5832</v>
       </c>
-      <c r="F149" s="37"/>
+      <c r="F149" s="35">
+        <v>825615</v>
+      </c>
       <c r="G149" s="22"/>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
@@ -64169,7 +65380,9 @@
         <v>6049</v>
       </c>
       <c r="K149" s="22"/>
-      <c r="L149" s="22"/>
+      <c r="L149" s="22" t="s">
+        <v>6453</v>
+      </c>
       <c r="M149" s="22" t="s">
         <v>609</v>
       </c>
@@ -64212,7 +65425,9 @@
       <c r="E150" s="22" t="s">
         <v>5929</v>
       </c>
-      <c r="F150" s="37"/>
+      <c r="F150" s="35">
+        <v>21</v>
+      </c>
       <c r="G150" s="22"/>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
@@ -64220,7 +65435,9 @@
         <v>6106</v>
       </c>
       <c r="K150" s="22"/>
-      <c r="L150" s="22"/>
+      <c r="L150" s="22" t="s">
+        <v>6454</v>
+      </c>
       <c r="M150" s="22" t="s">
         <v>5577</v>
       </c>
@@ -64263,7 +65480,9 @@
       <c r="E151" s="22" t="s">
         <v>5833</v>
       </c>
-      <c r="F151" s="37"/>
+      <c r="F151" s="35">
+        <v>147181</v>
+      </c>
       <c r="G151" s="22"/>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
@@ -64271,7 +65490,9 @@
         <v>6050</v>
       </c>
       <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
+      <c r="L151" s="22" t="s">
+        <v>6455</v>
+      </c>
       <c r="M151" s="22" t="s">
         <v>5578</v>
       </c>
@@ -64314,7 +65535,9 @@
       <c r="E152" s="22" t="s">
         <v>5834</v>
       </c>
-      <c r="F152" s="37"/>
+      <c r="F152" s="35">
+        <v>41850</v>
+      </c>
       <c r="G152" s="22"/>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
@@ -64322,7 +65545,9 @@
         <v>6051</v>
       </c>
       <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
+      <c r="L152" s="22" t="s">
+        <v>6456</v>
+      </c>
       <c r="M152" s="22" t="s">
         <v>537</v>
       </c>
@@ -64367,7 +65592,9 @@
       <c r="E153" s="22" t="s">
         <v>5930</v>
       </c>
-      <c r="F153" s="37"/>
+      <c r="F153" s="35">
+        <v>18575</v>
+      </c>
       <c r="G153" s="22"/>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
@@ -64375,7 +65602,9 @@
         <v>6106</v>
       </c>
       <c r="K153" s="22"/>
-      <c r="L153" s="22"/>
+      <c r="L153" s="22" t="s">
+        <v>6457</v>
+      </c>
       <c r="M153" s="22" t="s">
         <v>5560</v>
       </c>
@@ -64416,7 +65645,9 @@
       <c r="E154" s="22" t="s">
         <v>5835</v>
       </c>
-      <c r="F154" s="37"/>
+      <c r="F154" s="35">
+        <v>270467</v>
+      </c>
       <c r="G154" s="22"/>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
@@ -64424,7 +65655,9 @@
         <v>6106</v>
       </c>
       <c r="K154" s="22"/>
-      <c r="L154" s="22"/>
+      <c r="L154" s="22" t="s">
+        <v>6458</v>
+      </c>
       <c r="M154" s="22" t="s">
         <v>5674</v>
       </c>
@@ -64469,7 +65702,9 @@
       <c r="E155" s="22" t="s">
         <v>5836</v>
       </c>
-      <c r="F155" s="37"/>
+      <c r="F155" s="35">
+        <v>130373</v>
+      </c>
       <c r="G155" s="22"/>
       <c r="H155" s="22"/>
       <c r="I155" s="22"/>
@@ -64477,7 +65712,9 @@
         <v>6052</v>
       </c>
       <c r="K155" s="22"/>
-      <c r="L155" s="22"/>
+      <c r="L155" s="22" t="s">
+        <v>6459</v>
+      </c>
       <c r="M155" s="22" t="s">
         <v>5579</v>
       </c>
@@ -64520,7 +65757,9 @@
       <c r="E156" s="22" t="s">
         <v>5837</v>
       </c>
-      <c r="F156" s="37"/>
+      <c r="F156" s="35">
+        <v>1267000</v>
+      </c>
       <c r="G156" s="22"/>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
@@ -64528,7 +65767,9 @@
         <v>6053</v>
       </c>
       <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
+      <c r="L156" s="22" t="s">
+        <v>6460</v>
+      </c>
       <c r="M156" s="22" t="s">
         <v>612</v>
       </c>
@@ -64571,7 +65812,9 @@
       <c r="E157" s="22" t="s">
         <v>5838</v>
       </c>
-      <c r="F157" s="37"/>
+      <c r="F157" s="35">
+        <v>923768</v>
+      </c>
       <c r="G157" s="22"/>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
@@ -64579,7 +65822,9 @@
         <v>6054</v>
       </c>
       <c r="K157" s="22"/>
-      <c r="L157" s="22"/>
+      <c r="L157" s="22" t="s">
+        <v>6461</v>
+      </c>
       <c r="M157" s="22" t="s">
         <v>611</v>
       </c>
@@ -64622,7 +65867,9 @@
       <c r="E158" s="22" t="s">
         <v>5931</v>
       </c>
-      <c r="F158" s="37"/>
+      <c r="F158" s="35">
+        <v>260</v>
+      </c>
       <c r="G158" s="22"/>
       <c r="H158" s="22"/>
       <c r="I158" s="22"/>
@@ -64630,7 +65877,9 @@
         <v>6106</v>
       </c>
       <c r="K158" s="22"/>
-      <c r="L158" s="22"/>
+      <c r="L158" s="22" t="s">
+        <v>6462</v>
+      </c>
       <c r="M158" s="22" t="s">
         <v>5580</v>
       </c>
@@ -64671,7 +65920,9 @@
       <c r="E159" s="22" t="s">
         <v>5799</v>
       </c>
-      <c r="F159" s="37"/>
+      <c r="F159" s="35">
+        <v>36</v>
+      </c>
       <c r="G159" s="22"/>
       <c r="H159" s="22"/>
       <c r="I159" s="22"/>
@@ -64679,7 +65930,9 @@
         <v>6106</v>
       </c>
       <c r="K159" s="22"/>
-      <c r="L159" s="22"/>
+      <c r="L159" s="22" t="s">
+        <v>6463</v>
+      </c>
       <c r="M159" s="22" t="s">
         <v>5673</v>
       </c>
@@ -64720,7 +65973,9 @@
       <c r="E160" s="22" t="s">
         <v>5839</v>
       </c>
-      <c r="F160" s="37"/>
+      <c r="F160" s="35">
+        <v>120540</v>
+      </c>
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
       <c r="I160" s="22"/>
@@ -64728,7 +65983,9 @@
         <v>6108</v>
       </c>
       <c r="K160" s="22"/>
-      <c r="L160" s="22"/>
+      <c r="L160" s="22" t="s">
+        <v>6529</v>
+      </c>
       <c r="M160" s="22" t="s">
         <v>5569</v>
       </c>
@@ -64773,7 +66030,9 @@
       <c r="E161" s="22" t="s">
         <v>5840</v>
       </c>
-      <c r="F161" s="37"/>
+      <c r="F161" s="35">
+        <v>25713</v>
+      </c>
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
       <c r="I161" s="22"/>
@@ -64781,7 +66040,9 @@
         <v>6055</v>
       </c>
       <c r="K161" s="22"/>
-      <c r="L161" s="22"/>
+      <c r="L161" s="22" t="s">
+        <v>6435</v>
+      </c>
       <c r="M161" s="22" t="s">
         <v>600</v>
       </c>
@@ -64824,7 +66085,9 @@
       <c r="E162" s="22" t="s">
         <v>5932</v>
       </c>
-      <c r="F162" s="37"/>
+      <c r="F162" s="35">
+        <v>3355</v>
+      </c>
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
       <c r="I162" s="22"/>
@@ -64832,7 +66095,9 @@
         <v>3454</v>
       </c>
       <c r="K162" s="22"/>
-      <c r="L162" s="22"/>
+      <c r="L162" s="22" t="s">
+        <v>6533</v>
+      </c>
       <c r="M162" s="22" t="s">
         <v>6118</v>
       </c>
@@ -64862,7 +66127,9 @@
       <c r="E163" s="22" t="s">
         <v>5933</v>
       </c>
-      <c r="F163" s="37"/>
+      <c r="F163" s="35">
+        <v>464</v>
+      </c>
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
       <c r="I163" s="22"/>
@@ -64870,7 +66137,9 @@
         <v>6106</v>
       </c>
       <c r="K163" s="22"/>
-      <c r="L163" s="22"/>
+      <c r="L163" s="22" t="s">
+        <v>6464</v>
+      </c>
       <c r="M163" s="22" t="s">
         <v>5670</v>
       </c>
@@ -64911,7 +66180,9 @@
       <c r="E164" s="22" t="s">
         <v>5841</v>
       </c>
-      <c r="F164" s="37"/>
+      <c r="F164" s="35">
+        <v>385207</v>
+      </c>
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -64919,7 +66190,9 @@
         <v>6056</v>
       </c>
       <c r="K164" s="22"/>
-      <c r="L164" s="22"/>
+      <c r="L164" s="22" t="s">
+        <v>6465</v>
+      </c>
       <c r="M164" s="22" t="s">
         <v>615</v>
       </c>
@@ -64964,7 +66237,9 @@
       <c r="E165" s="22" t="s">
         <v>5842</v>
       </c>
-      <c r="F165" s="37"/>
+      <c r="F165" s="35">
+        <v>323802</v>
+      </c>
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
@@ -64972,7 +66247,9 @@
         <v>6057</v>
       </c>
       <c r="K165" s="22"/>
-      <c r="L165" s="22"/>
+      <c r="L165" s="22" t="s">
+        <v>6466</v>
+      </c>
       <c r="M165" s="22" t="s">
         <v>620</v>
       </c>
@@ -65013,7 +66290,7 @@
         <v>5934</v>
       </c>
       <c r="F166" s="35">
-        <v>990</v>
+        <v>309500</v>
       </c>
       <c r="G166" s="36" t="s">
         <v>5707</v>
@@ -65062,7 +66339,9 @@
       <c r="E167" s="22" t="s">
         <v>5843</v>
       </c>
-      <c r="F167" s="37"/>
+      <c r="F167" s="35">
+        <v>881913</v>
+      </c>
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
       <c r="I167" s="22"/>
@@ -65070,7 +66349,9 @@
         <v>6058</v>
       </c>
       <c r="K167" s="22"/>
-      <c r="L167" s="22"/>
+      <c r="L167" s="22" t="s">
+        <v>6467</v>
+      </c>
       <c r="M167" s="22" t="s">
         <v>5621</v>
       </c>
@@ -65115,7 +66396,9 @@
       <c r="E168" s="22" t="s">
         <v>5844</v>
       </c>
-      <c r="F168" s="37"/>
+      <c r="F168" s="35">
+        <v>459</v>
+      </c>
       <c r="G168" s="22"/>
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
@@ -65123,7 +66406,9 @@
         <v>6106</v>
       </c>
       <c r="K168" s="22"/>
-      <c r="L168" s="22"/>
+      <c r="L168" s="22" t="s">
+        <v>6468</v>
+      </c>
       <c r="M168" s="22" t="s">
         <v>5585</v>
       </c>
@@ -65166,7 +66451,9 @@
       <c r="E169" s="22" t="s">
         <v>5935</v>
       </c>
-      <c r="F169" s="37"/>
+      <c r="F169" s="35">
+        <v>6020</v>
+      </c>
       <c r="G169" s="22"/>
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
@@ -65174,7 +66461,9 @@
         <v>6059</v>
       </c>
       <c r="K169" s="22"/>
-      <c r="L169" s="22"/>
+      <c r="L169" s="22" t="s">
+        <v>6534</v>
+      </c>
       <c r="M169" s="22" t="s">
         <v>626</v>
       </c>
@@ -65219,7 +66508,9 @@
       <c r="E170" s="22" t="s">
         <v>5845</v>
       </c>
-      <c r="F170" s="37"/>
+      <c r="F170" s="35">
+        <v>75417</v>
+      </c>
       <c r="G170" s="22"/>
       <c r="H170" s="22"/>
       <c r="I170" s="22"/>
@@ -65227,7 +66518,9 @@
         <v>6060</v>
       </c>
       <c r="K170" s="22"/>
-      <c r="L170" s="22"/>
+      <c r="L170" s="22" t="s">
+        <v>6469</v>
+      </c>
       <c r="M170" s="22" t="s">
         <v>622</v>
       </c>
@@ -65270,7 +66563,9 @@
       <c r="E171" s="22" t="s">
         <v>5846</v>
       </c>
-      <c r="F171" s="37"/>
+      <c r="F171" s="35">
+        <v>462840</v>
+      </c>
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
       <c r="I171" s="22"/>
@@ -65278,7 +66573,9 @@
         <v>6061</v>
       </c>
       <c r="K171" s="22"/>
-      <c r="L171" s="22"/>
+      <c r="L171" s="22" t="s">
+        <v>6470</v>
+      </c>
       <c r="M171" s="22" t="s">
         <v>5613</v>
       </c>
@@ -65321,7 +66618,9 @@
       <c r="E172" s="22" t="s">
         <v>5847</v>
       </c>
-      <c r="F172" s="37"/>
+      <c r="F172" s="35">
+        <v>406752</v>
+      </c>
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
       <c r="I172" s="22"/>
@@ -65329,7 +66628,9 @@
         <v>6062</v>
       </c>
       <c r="K172" s="22"/>
-      <c r="L172" s="22"/>
+      <c r="L172" s="22" t="s">
+        <v>6471</v>
+      </c>
       <c r="M172" s="22" t="s">
         <v>5604</v>
       </c>
@@ -65372,7 +66673,9 @@
       <c r="E173" s="22" t="s">
         <v>5848</v>
       </c>
-      <c r="F173" s="37"/>
+      <c r="F173" s="35">
+        <v>1285216</v>
+      </c>
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
       <c r="I173" s="22"/>
@@ -65380,7 +66683,9 @@
         <v>6063</v>
       </c>
       <c r="K173" s="22"/>
-      <c r="L173" s="22"/>
+      <c r="L173" s="22" t="s">
+        <v>6472</v>
+      </c>
       <c r="M173" s="22" t="s">
         <v>5582</v>
       </c>
@@ -65423,7 +66728,9 @@
       <c r="E174" s="22" t="s">
         <v>5849</v>
       </c>
-      <c r="F174" s="37"/>
+      <c r="F174" s="35">
+        <v>300000</v>
+      </c>
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
       <c r="I174" s="22"/>
@@ -65431,7 +66738,9 @@
         <v>6106</v>
       </c>
       <c r="K174" s="22"/>
-      <c r="L174" s="22"/>
+      <c r="L174" s="22" t="s">
+        <v>6473</v>
+      </c>
       <c r="M174" s="22" t="s">
         <v>5609</v>
       </c>
@@ -65474,7 +66783,9 @@
       <c r="E175" s="22" t="s">
         <v>5936</v>
       </c>
-      <c r="F175" s="37"/>
+      <c r="F175" s="35">
+        <v>47</v>
+      </c>
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
@@ -65482,7 +66793,9 @@
         <v>6106</v>
       </c>
       <c r="K175" s="22"/>
-      <c r="L175" s="22"/>
+      <c r="L175" s="22" t="s">
+        <v>6458</v>
+      </c>
       <c r="M175" s="22" t="s">
         <v>5676</v>
       </c>
@@ -65523,7 +66836,9 @@
       <c r="E176" s="22" t="s">
         <v>5850</v>
       </c>
-      <c r="F176" s="37"/>
+      <c r="F176" s="35">
+        <v>312696</v>
+      </c>
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
       <c r="I176" s="22"/>
@@ -65531,7 +66846,9 @@
         <v>6064</v>
       </c>
       <c r="K176" s="22"/>
-      <c r="L176" s="22"/>
+      <c r="L176" s="22" t="s">
+        <v>6474</v>
+      </c>
       <c r="M176" s="22" t="s">
         <v>624</v>
       </c>
@@ -65574,7 +66891,9 @@
       <c r="E177" s="22" t="s">
         <v>5851</v>
       </c>
-      <c r="F177" s="37"/>
+      <c r="F177" s="35">
+        <v>92226</v>
+      </c>
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
       <c r="I177" s="22"/>
@@ -65582,7 +66901,9 @@
         <v>6065</v>
       </c>
       <c r="K177" s="22"/>
-      <c r="L177" s="22"/>
+      <c r="L177" s="22" t="s">
+        <v>6475</v>
+      </c>
       <c r="M177" s="22" t="s">
         <v>625</v>
       </c>
@@ -65625,7 +66946,9 @@
       <c r="E178" s="22" t="s">
         <v>5937</v>
       </c>
-      <c r="F178" s="37"/>
+      <c r="F178" s="35">
+        <v>9104</v>
+      </c>
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
       <c r="I178" s="22"/>
@@ -65633,7 +66956,9 @@
         <v>6106</v>
       </c>
       <c r="K178" s="22"/>
-      <c r="L178" s="22"/>
+      <c r="L178" s="22" t="s">
+        <v>6476</v>
+      </c>
       <c r="M178" s="22" t="s">
         <v>5570</v>
       </c>
@@ -65676,7 +67001,9 @@
       <c r="E179" s="22" t="s">
         <v>5852</v>
       </c>
-      <c r="F179" s="37"/>
+      <c r="F179" s="35">
+        <v>11586</v>
+      </c>
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
       <c r="I179" s="22"/>
@@ -65684,7 +67011,9 @@
         <v>6066</v>
       </c>
       <c r="K179" s="22"/>
-      <c r="L179" s="22"/>
+      <c r="L179" s="22" t="s">
+        <v>6477</v>
+      </c>
       <c r="M179" s="22" t="s">
         <v>5677</v>
       </c>
@@ -65727,13 +67056,17 @@
       <c r="E180" s="22" t="s">
         <v>5938</v>
       </c>
-      <c r="F180" s="37"/>
+      <c r="F180" s="35">
+        <v>3170</v>
+      </c>
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
       <c r="I180" s="22"/>
       <c r="J180" s="22"/>
       <c r="K180" s="22"/>
-      <c r="L180" s="22"/>
+      <c r="L180" s="22" t="s">
+        <v>6535</v>
+      </c>
       <c r="M180" s="22"/>
       <c r="N180" s="10"/>
       <c r="P180" s="35"/>
@@ -65761,7 +67094,9 @@
       <c r="E181" s="22" t="s">
         <v>5853</v>
       </c>
-      <c r="F181" s="37"/>
+      <c r="F181" s="35">
+        <v>238397</v>
+      </c>
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
@@ -65769,7 +67104,9 @@
         <v>6067</v>
       </c>
       <c r="K181" s="22"/>
-      <c r="L181" s="22"/>
+      <c r="L181" s="22" t="s">
+        <v>6478</v>
+      </c>
       <c r="M181" s="22" t="s">
         <v>629</v>
       </c>
@@ -65812,7 +67149,9 @@
       <c r="E182" s="22" t="s">
         <v>5854</v>
       </c>
-      <c r="F182" s="37"/>
+      <c r="F182" s="35">
+        <v>17098246</v>
+      </c>
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="22"/>
@@ -65820,7 +67159,9 @@
         <v>6068</v>
       </c>
       <c r="K182" s="22"/>
-      <c r="L182" s="22"/>
+      <c r="L182" s="22" t="s">
+        <v>6420</v>
+      </c>
       <c r="M182" s="22" t="s">
         <v>631</v>
       </c>
@@ -65865,7 +67206,9 @@
       <c r="E183" s="22" t="s">
         <v>5855</v>
       </c>
-      <c r="F183" s="37"/>
+      <c r="F183" s="35">
+        <v>26338</v>
+      </c>
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
       <c r="I183" s="22"/>
@@ -65873,7 +67216,9 @@
         <v>6069</v>
       </c>
       <c r="K183" s="22"/>
-      <c r="L183" s="22"/>
+      <c r="L183" s="22" t="s">
+        <v>6479</v>
+      </c>
       <c r="M183" s="22" t="s">
         <v>584</v>
       </c>
@@ -65913,7 +67258,7 @@
       <c r="E184" s="22" t="s">
         <v>5939</v>
       </c>
-      <c r="F184" s="37">
+      <c r="F184" s="35">
         <v>13</v>
       </c>
       <c r="G184" s="36" t="s">
@@ -65970,7 +67315,9 @@
       <c r="E185" s="22" t="s">
         <v>5940</v>
       </c>
-      <c r="F185" s="37"/>
+      <c r="F185" s="35">
+        <v>21</v>
+      </c>
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
       <c r="I185" s="22"/>
@@ -65978,7 +67325,9 @@
         <v>6106</v>
       </c>
       <c r="K185" s="22"/>
-      <c r="L185" s="22"/>
+      <c r="L185" s="22" t="s">
+        <v>6536</v>
+      </c>
       <c r="M185" s="22" t="s">
         <v>5633</v>
       </c>
@@ -66019,7 +67368,9 @@
       <c r="E186" s="22" t="s">
         <v>5941</v>
       </c>
-      <c r="F186" s="37"/>
+      <c r="F186" s="35">
+        <v>308</v>
+      </c>
       <c r="G186" s="22"/>
       <c r="H186" s="22"/>
       <c r="I186" s="22"/>
@@ -66027,7 +67378,9 @@
         <v>6106</v>
       </c>
       <c r="K186" s="22"/>
-      <c r="L186" s="22"/>
+      <c r="L186" s="22" t="s">
+        <v>6480</v>
+      </c>
       <c r="M186" s="22" t="s">
         <v>5594</v>
       </c>
@@ -66068,7 +67421,9 @@
       <c r="E187" s="22" t="s">
         <v>5856</v>
       </c>
-      <c r="F187" s="37"/>
+      <c r="F187" s="35">
+        <v>261</v>
+      </c>
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
       <c r="I187" s="22"/>
@@ -66076,7 +67431,9 @@
         <v>6106</v>
       </c>
       <c r="K187" s="22"/>
-      <c r="L187" s="22"/>
+      <c r="L187" s="22" t="s">
+        <v>6481</v>
+      </c>
       <c r="M187" s="22" t="s">
         <v>578</v>
       </c>
@@ -66119,7 +67476,9 @@
       <c r="E188" s="22" t="s">
         <v>5857</v>
       </c>
-      <c r="F188" s="37"/>
+      <c r="F188" s="35">
+        <v>616</v>
+      </c>
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
       <c r="I188" s="22"/>
@@ -66127,7 +67486,9 @@
         <v>6106</v>
       </c>
       <c r="K188" s="22"/>
-      <c r="L188" s="22"/>
+      <c r="L188" s="22" t="s">
+        <v>6482</v>
+      </c>
       <c r="M188" s="22" t="s">
         <v>5662</v>
       </c>
@@ -66167,7 +67528,9 @@
       <c r="D189" s="22" t="s">
         <v>3335</v>
       </c>
-      <c r="F189" s="37"/>
+      <c r="F189" s="35">
+        <v>54</v>
+      </c>
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
@@ -66175,7 +67538,9 @@
         <v>3628</v>
       </c>
       <c r="K189" s="22"/>
-      <c r="L189" s="22"/>
+      <c r="L189" s="22" t="s">
+        <v>6536</v>
+      </c>
       <c r="M189" s="22" t="s">
         <v>5667</v>
       </c>
@@ -66216,7 +67581,9 @@
       <c r="E190" s="22" t="s">
         <v>5942</v>
       </c>
-      <c r="F190" s="37"/>
+      <c r="F190" s="35">
+        <v>242</v>
+      </c>
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="22"/>
@@ -66224,7 +67591,9 @@
         <v>6106</v>
       </c>
       <c r="K190" s="22"/>
-      <c r="L190" s="22"/>
+      <c r="L190" s="22" t="s">
+        <v>6483</v>
+      </c>
       <c r="M190" s="22" t="s">
         <v>5675</v>
       </c>
@@ -66265,7 +67634,9 @@
       <c r="E191" s="22" t="s">
         <v>5858</v>
       </c>
-      <c r="F191" s="37"/>
+      <c r="F191" s="35">
+        <v>389</v>
+      </c>
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="22"/>
@@ -66273,7 +67644,9 @@
         <v>6106</v>
       </c>
       <c r="K191" s="22"/>
-      <c r="L191" s="22"/>
+      <c r="L191" s="22" t="s">
+        <v>6484</v>
+      </c>
       <c r="M191" s="22" t="s">
         <v>5682</v>
       </c>
@@ -66316,7 +67689,9 @@
       <c r="E192" s="22" t="s">
         <v>5859</v>
       </c>
-      <c r="F192" s="37"/>
+      <c r="F192" s="35">
+        <v>2842</v>
+      </c>
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="22"/>
@@ -66324,7 +67699,9 @@
         <v>6106</v>
       </c>
       <c r="K192" s="22"/>
-      <c r="L192" s="22"/>
+      <c r="L192" s="22" t="s">
+        <v>6537</v>
+      </c>
       <c r="M192" s="22" t="s">
         <v>5590</v>
       </c>
@@ -66367,7 +67744,9 @@
       <c r="E193" s="22" t="s">
         <v>3619</v>
       </c>
-      <c r="F193" s="37"/>
+      <c r="F193" s="35">
+        <v>61</v>
+      </c>
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="22"/>
@@ -66375,7 +67754,9 @@
         <v>6070</v>
       </c>
       <c r="K193" s="22"/>
-      <c r="L193" s="22"/>
+      <c r="L193" s="22" t="s">
+        <v>6485</v>
+      </c>
       <c r="M193" s="22" t="s">
         <v>5559</v>
       </c>
@@ -66418,7 +67799,9 @@
       <c r="E194" s="22" t="s">
         <v>5860</v>
       </c>
-      <c r="F194" s="37"/>
+      <c r="F194" s="35">
+        <v>964</v>
+      </c>
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="22"/>
@@ -66426,7 +67809,9 @@
         <v>6106</v>
       </c>
       <c r="K194" s="22"/>
-      <c r="L194" s="22"/>
+      <c r="L194" s="22" t="s">
+        <v>6486</v>
+      </c>
       <c r="M194" s="22" t="s">
         <v>641</v>
       </c>
@@ -66469,7 +67854,9 @@
       <c r="E195" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="F195" s="37"/>
+      <c r="F195" s="35">
+        <v>2149690</v>
+      </c>
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
       <c r="I195" s="22"/>
@@ -66477,7 +67864,9 @@
         <v>6071</v>
       </c>
       <c r="K195" s="22"/>
-      <c r="L195" s="22"/>
+      <c r="L195" s="22" t="s">
+        <v>6487</v>
+      </c>
       <c r="M195" s="22" t="s">
         <v>633</v>
       </c>
@@ -66565,7 +67954,9 @@
       <c r="E197" s="22" t="s">
         <v>5863</v>
       </c>
-      <c r="F197" s="37"/>
+      <c r="F197" s="35">
+        <v>196722</v>
+      </c>
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
       <c r="I197" s="22"/>
@@ -66573,7 +67964,9 @@
         <v>6072</v>
       </c>
       <c r="K197" s="22"/>
-      <c r="L197" s="22"/>
+      <c r="L197" s="22" t="s">
+        <v>6488</v>
+      </c>
       <c r="M197" s="22" t="s">
         <v>638</v>
       </c>
@@ -66616,7 +68009,9 @@
       <c r="E198" s="22" t="s">
         <v>5864</v>
       </c>
-      <c r="F198" s="37"/>
+      <c r="F198" s="35">
+        <v>88361</v>
+      </c>
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
       <c r="I198" s="22"/>
@@ -66624,7 +68019,9 @@
         <v>6073</v>
       </c>
       <c r="K198" s="22"/>
-      <c r="L198" s="22"/>
+      <c r="L198" s="22" t="s">
+        <v>6489</v>
+      </c>
       <c r="M198" s="22" t="s">
         <v>5593</v>
       </c>
@@ -66669,7 +68066,9 @@
       <c r="E199" s="22" t="s">
         <v>5865</v>
       </c>
-      <c r="F199" s="37"/>
+      <c r="F199" s="35">
+        <v>452</v>
+      </c>
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
       <c r="I199" s="22"/>
@@ -66677,7 +68076,9 @@
         <v>6106</v>
       </c>
       <c r="K199" s="22"/>
-      <c r="L199" s="22"/>
+      <c r="L199" s="22" t="s">
+        <v>6489</v>
+      </c>
       <c r="M199" s="22" t="s">
         <v>643</v>
       </c>
@@ -66720,7 +68121,9 @@
       <c r="E200" s="22" t="s">
         <v>5866</v>
       </c>
-      <c r="F200" s="37"/>
+      <c r="F200" s="35">
+        <v>71740</v>
+      </c>
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
       <c r="I200" s="22"/>
@@ -66728,7 +68131,9 @@
         <v>6074</v>
       </c>
       <c r="K200" s="22"/>
-      <c r="L200" s="22"/>
+      <c r="L200" s="22" t="s">
+        <v>6490</v>
+      </c>
       <c r="M200" s="22" t="s">
         <v>636</v>
       </c>
@@ -66771,7 +68176,9 @@
       <c r="E201" s="22" t="s">
         <v>3626</v>
       </c>
-      <c r="F201" s="37"/>
+      <c r="F201" s="35">
+        <v>728</v>
+      </c>
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
       <c r="I201" s="22"/>
@@ -66779,7 +68186,9 @@
         <v>6106</v>
       </c>
       <c r="K201" s="22"/>
-      <c r="L201" s="22"/>
+      <c r="L201" s="22" t="s">
+        <v>6491</v>
+      </c>
       <c r="M201" s="22" t="s">
         <v>632</v>
       </c>
@@ -66876,7 +68285,9 @@
       <c r="E203" s="22" t="s">
         <v>5943</v>
       </c>
-      <c r="F203" s="37"/>
+      <c r="F203" s="35">
+        <v>34</v>
+      </c>
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
       <c r="I203" s="22"/>
@@ -66884,7 +68295,9 @@
         <v>3614</v>
       </c>
       <c r="K203" s="22"/>
-      <c r="L203" s="22"/>
+      <c r="L203" s="22" t="s">
+        <v>6538</v>
+      </c>
       <c r="M203" s="22" t="s">
         <v>5679</v>
       </c>
@@ -66923,7 +68336,9 @@
       <c r="E204" s="22" t="s">
         <v>5867</v>
       </c>
-      <c r="F204" s="37"/>
+      <c r="F204" s="35">
+        <v>49037</v>
+      </c>
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
       <c r="I204" s="22"/>
@@ -66931,7 +68346,9 @@
         <v>6075</v>
       </c>
       <c r="K204" s="22"/>
-      <c r="L204" s="22"/>
+      <c r="L204" s="22" t="s">
+        <v>6492</v>
+      </c>
       <c r="M204" s="22" t="s">
         <v>635</v>
       </c>
@@ -66974,7 +68391,9 @@
       <c r="E205" s="22" t="s">
         <v>5868</v>
       </c>
-      <c r="F205" s="37"/>
+      <c r="F205" s="35">
+        <v>20273</v>
+      </c>
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
       <c r="I205" s="22"/>
@@ -66982,7 +68401,9 @@
         <v>6076</v>
       </c>
       <c r="K205" s="22"/>
-      <c r="L205" s="22"/>
+      <c r="L205" s="22" t="s">
+        <v>6493</v>
+      </c>
       <c r="M205" s="22" t="s">
         <v>634</v>
       </c>
@@ -67025,7 +68446,9 @@
       <c r="E206" s="22" t="s">
         <v>5869</v>
       </c>
-      <c r="F206" s="37"/>
+      <c r="F206" s="35">
+        <v>28896</v>
+      </c>
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
@@ -67033,7 +68456,9 @@
         <v>6106</v>
       </c>
       <c r="K206" s="22"/>
-      <c r="L206" s="22"/>
+      <c r="L206" s="22" t="s">
+        <v>6494</v>
+      </c>
       <c r="M206" s="22" t="s">
         <v>5678</v>
       </c>
@@ -67076,7 +68501,9 @@
       <c r="E207" s="22" t="s">
         <v>5870</v>
       </c>
-      <c r="F207" s="37"/>
+      <c r="F207" s="35">
+        <v>637657</v>
+      </c>
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
@@ -67084,7 +68511,9 @@
         <v>6077</v>
       </c>
       <c r="K207" s="22"/>
-      <c r="L207" s="22"/>
+      <c r="L207" s="22" t="s">
+        <v>6495</v>
+      </c>
       <c r="M207" s="22" t="s">
         <v>640</v>
       </c>
@@ -67129,7 +68558,9 @@
       <c r="E208" s="22" t="s">
         <v>5871</v>
       </c>
-      <c r="F208" s="37"/>
+      <c r="F208" s="35">
+        <v>1221037</v>
+      </c>
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
       <c r="I208" s="22"/>
@@ -67137,7 +68568,9 @@
         <v>6078</v>
       </c>
       <c r="K208" s="22"/>
-      <c r="L208" s="22"/>
+      <c r="L208" s="22" t="s">
+        <v>6496</v>
+      </c>
       <c r="M208" s="22" t="s">
         <v>674</v>
       </c>
@@ -67180,7 +68613,9 @@
       <c r="E209" s="22" t="s">
         <v>5872</v>
       </c>
-      <c r="F209" s="37"/>
+      <c r="F209" s="35">
+        <v>100210</v>
+      </c>
       <c r="G209" s="22"/>
       <c r="H209" s="22"/>
       <c r="I209" s="22"/>
@@ -67188,7 +68623,9 @@
         <v>6109</v>
       </c>
       <c r="K209" s="22"/>
-      <c r="L209" s="22"/>
+      <c r="L209" s="22" t="s">
+        <v>6530</v>
+      </c>
       <c r="M209" s="22" t="s">
         <v>580</v>
       </c>
@@ -67233,7 +68670,9 @@
       <c r="E210" s="22" t="s">
         <v>5944</v>
       </c>
-      <c r="F210" s="37"/>
+      <c r="F210" s="35">
+        <v>3900</v>
+      </c>
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
       <c r="I210" s="22"/>
@@ -67241,7 +68680,9 @@
         <v>6079</v>
       </c>
       <c r="K210" s="22"/>
-      <c r="L210" s="22"/>
+      <c r="L210" s="22" t="s">
+        <v>6539</v>
+      </c>
       <c r="M210" s="22" t="s">
         <v>6117</v>
       </c>
@@ -67271,7 +68712,9 @@
       <c r="E211" s="22" t="s">
         <v>5873</v>
       </c>
-      <c r="F211" s="37"/>
+      <c r="F211" s="35">
+        <v>644329</v>
+      </c>
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
       <c r="I211" s="22"/>
@@ -67279,7 +68722,9 @@
         <v>6080</v>
       </c>
       <c r="K211" s="22"/>
-      <c r="L211" s="22"/>
+      <c r="L211" s="22" t="s">
+        <v>6540</v>
+      </c>
       <c r="M211" s="22" t="s">
         <v>645</v>
       </c>
@@ -67322,7 +68767,9 @@
       <c r="E212" s="22" t="s">
         <v>5874</v>
       </c>
-      <c r="F212" s="37"/>
+      <c r="F212" s="35">
+        <v>505992</v>
+      </c>
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
       <c r="I212" s="22"/>
@@ -67330,7 +68777,9 @@
         <v>6081</v>
       </c>
       <c r="K212" s="22"/>
-      <c r="L212" s="22"/>
+      <c r="L212" s="22" t="s">
+        <v>6497</v>
+      </c>
       <c r="M212" s="22" t="s">
         <v>642</v>
       </c>
@@ -67373,7 +68822,9 @@
       <c r="E213" s="22" t="s">
         <v>5875</v>
       </c>
-      <c r="F213" s="37"/>
+      <c r="F213" s="35">
+        <v>65610</v>
+      </c>
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
       <c r="I213" s="22"/>
@@ -67381,7 +68832,9 @@
         <v>6106</v>
       </c>
       <c r="K213" s="22"/>
-      <c r="L213" s="22"/>
+      <c r="L213" s="22" t="s">
+        <v>6498</v>
+      </c>
       <c r="M213" s="22" t="s">
         <v>5596</v>
       </c>
@@ -67424,7 +68877,9 @@
       <c r="E214" s="22" t="s">
         <v>5876</v>
       </c>
-      <c r="F214" s="37"/>
+      <c r="F214" s="35">
+        <v>1861484</v>
+      </c>
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
@@ -67432,7 +68887,9 @@
         <v>6082</v>
       </c>
       <c r="K214" s="22"/>
-      <c r="L214" s="22"/>
+      <c r="L214" s="22" t="s">
+        <v>6499</v>
+      </c>
       <c r="M214" s="22" t="s">
         <v>639</v>
       </c>
@@ -67475,7 +68932,9 @@
       <c r="E215" s="22" t="s">
         <v>5877</v>
       </c>
-      <c r="F215" s="37"/>
+      <c r="F215" s="35">
+        <v>163820</v>
+      </c>
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
       <c r="I215" s="22"/>
@@ -67483,7 +68942,9 @@
         <v>6083</v>
       </c>
       <c r="K215" s="22"/>
-      <c r="L215" s="22"/>
+      <c r="L215" s="22" t="s">
+        <v>6500</v>
+      </c>
       <c r="M215" s="22" t="s">
         <v>644</v>
       </c>
@@ -67526,7 +68987,9 @@
       <c r="E216" s="22" t="s">
         <v>5878</v>
       </c>
-      <c r="F216" s="37"/>
+      <c r="F216" s="35">
+        <v>450295</v>
+      </c>
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
       <c r="I216" s="22"/>
@@ -67534,7 +68997,9 @@
         <v>6084</v>
       </c>
       <c r="K216" s="22"/>
-      <c r="L216" s="22"/>
+      <c r="L216" s="22" t="s">
+        <v>6501</v>
+      </c>
       <c r="M216" s="22" t="s">
         <v>637</v>
       </c>
@@ -67577,7 +69042,9 @@
       <c r="E217" s="22" t="s">
         <v>5879</v>
       </c>
-      <c r="F217" s="37"/>
+      <c r="F217" s="28">
+        <v>41284</v>
+      </c>
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
       <c r="I217" s="22"/>
@@ -67585,7 +69052,9 @@
         <v>6085</v>
       </c>
       <c r="K217" s="22"/>
-      <c r="L217" s="22"/>
+      <c r="L217" s="22" t="s">
+        <v>6502</v>
+      </c>
       <c r="M217" s="22" t="s">
         <v>526</v>
       </c>
@@ -67628,7 +69097,9 @@
       <c r="E218" s="22" t="s">
         <v>5880</v>
       </c>
-      <c r="F218" s="37"/>
+      <c r="F218" s="28">
+        <v>185180</v>
+      </c>
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
       <c r="I218" s="22"/>
@@ -67636,7 +69107,9 @@
         <v>6086</v>
       </c>
       <c r="K218" s="22"/>
-      <c r="L218" s="22"/>
+      <c r="L218" s="22" t="s">
+        <v>6503</v>
+      </c>
       <c r="M218" s="22" t="s">
         <v>5608</v>
       </c>
@@ -67679,7 +69152,9 @@
       <c r="E219" s="22" t="s">
         <v>5881</v>
       </c>
-      <c r="F219" s="37"/>
+      <c r="F219" s="28">
+        <v>36193</v>
+      </c>
       <c r="G219" s="22"/>
       <c r="H219" s="22"/>
       <c r="I219" s="22"/>
@@ -67687,7 +69162,9 @@
         <v>6106</v>
       </c>
       <c r="K219" s="22"/>
-      <c r="L219" s="22"/>
+      <c r="L219" s="22" t="s">
+        <v>6504</v>
+      </c>
       <c r="M219" s="22" t="s">
         <v>662</v>
       </c>
@@ -67732,7 +69209,9 @@
       <c r="E220" s="22" t="s">
         <v>5882</v>
       </c>
-      <c r="F220" s="37"/>
+      <c r="F220" s="28">
+        <v>143100</v>
+      </c>
       <c r="G220" s="22"/>
       <c r="H220" s="22"/>
       <c r="I220" s="22"/>
@@ -67740,7 +69219,9 @@
         <v>6087</v>
       </c>
       <c r="K220" s="22"/>
-      <c r="L220" s="22"/>
+      <c r="L220" s="22" t="s">
+        <v>6505</v>
+      </c>
       <c r="M220" s="22" t="s">
         <v>5611</v>
       </c>
@@ -67783,7 +69264,9 @@
       <c r="E221" s="22" t="s">
         <v>5883</v>
       </c>
-      <c r="F221" s="37"/>
+      <c r="F221" s="28">
+        <v>945087</v>
+      </c>
       <c r="G221" s="22"/>
       <c r="H221" s="22"/>
       <c r="I221" s="22"/>
@@ -67791,7 +69274,9 @@
         <v>6088</v>
       </c>
       <c r="K221" s="22"/>
-      <c r="L221" s="22"/>
+      <c r="L221" s="22" t="s">
+        <v>6506</v>
+      </c>
       <c r="M221" s="22" t="s">
         <v>5583</v>
       </c>
@@ -67836,7 +69321,9 @@
       <c r="E222" s="22" t="s">
         <v>5884</v>
       </c>
-      <c r="F222" s="37"/>
+      <c r="F222" s="28">
+        <v>513120</v>
+      </c>
       <c r="G222" s="22"/>
       <c r="H222" s="22"/>
       <c r="I222" s="22"/>
@@ -67844,7 +69331,9 @@
         <v>6089</v>
       </c>
       <c r="K222" s="22"/>
-      <c r="L222" s="22"/>
+      <c r="L222" s="22" t="s">
+        <v>6507</v>
+      </c>
       <c r="M222" s="22" t="s">
         <v>655</v>
       </c>
@@ -67887,7 +69376,9 @@
       <c r="E223" s="22" t="s">
         <v>5885</v>
       </c>
-      <c r="F223" s="37"/>
+      <c r="F223" s="28">
+        <v>56785</v>
+      </c>
       <c r="G223" s="22"/>
       <c r="H223" s="22"/>
       <c r="I223" s="22"/>
@@ -67895,7 +69386,9 @@
         <v>6090</v>
       </c>
       <c r="K223" s="22"/>
-      <c r="L223" s="22"/>
+      <c r="L223" s="22" t="s">
+        <v>6508</v>
+      </c>
       <c r="M223" s="22" t="s">
         <v>653</v>
       </c>
@@ -67935,7 +69428,9 @@
       <c r="D224" s="22">
         <v>0</v>
       </c>
-      <c r="F224" s="37"/>
+      <c r="F224" s="28">
+        <v>12</v>
+      </c>
       <c r="G224" s="22"/>
       <c r="H224" s="22"/>
       <c r="I224" s="22"/>
@@ -67943,7 +69438,9 @@
         <v>6106</v>
       </c>
       <c r="K224" s="22"/>
-      <c r="L224" s="22"/>
+      <c r="L224" s="22" t="s">
+        <v>6509</v>
+      </c>
       <c r="M224" s="22" t="s">
         <v>660</v>
       </c>
@@ -67984,7 +69481,9 @@
       <c r="E225" s="22" t="s">
         <v>5886</v>
       </c>
-      <c r="F225" s="37"/>
+      <c r="F225" s="28">
+        <v>747</v>
+      </c>
       <c r="G225" s="22"/>
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
@@ -67992,7 +69491,9 @@
         <v>6106</v>
       </c>
       <c r="K225" s="22"/>
-      <c r="L225" s="22"/>
+      <c r="L225" s="22" t="s">
+        <v>6510</v>
+      </c>
       <c r="M225" s="22" t="s">
         <v>657</v>
       </c>
@@ -68035,7 +69536,9 @@
       <c r="E226" s="22" t="s">
         <v>5945</v>
       </c>
-      <c r="F226" s="37"/>
+      <c r="F226" s="28">
+        <v>4163</v>
+      </c>
       <c r="G226" s="22"/>
       <c r="H226" s="22"/>
       <c r="I226" s="22"/>
@@ -68043,7 +69546,9 @@
         <v>3567</v>
       </c>
       <c r="K226" s="22"/>
-      <c r="L226" s="22"/>
+      <c r="L226" s="22" t="s">
+        <v>6385</v>
+      </c>
       <c r="M226" s="22" t="s">
         <v>6127</v>
       </c>
@@ -68073,7 +69578,9 @@
       <c r="E227" s="22" t="s">
         <v>5887</v>
       </c>
-      <c r="F227" s="37"/>
+      <c r="F227" s="28">
+        <v>5130</v>
+      </c>
       <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="22"/>
@@ -68081,7 +69588,9 @@
         <v>6106</v>
       </c>
       <c r="K227" s="22"/>
-      <c r="L227" s="22"/>
+      <c r="L227" s="22" t="s">
+        <v>6511</v>
+      </c>
       <c r="M227" s="22" t="s">
         <v>651</v>
       </c>
@@ -68124,7 +69633,9 @@
       <c r="E228" s="22" t="s">
         <v>5888</v>
       </c>
-      <c r="F228" s="37"/>
+      <c r="F228" s="28">
+        <v>163610</v>
+      </c>
       <c r="G228" s="22"/>
       <c r="H228" s="22"/>
       <c r="I228" s="22"/>
@@ -68132,7 +69643,9 @@
         <v>6091</v>
       </c>
       <c r="K228" s="22"/>
-      <c r="L228" s="22"/>
+      <c r="L228" s="22" t="s">
+        <v>6512</v>
+      </c>
       <c r="M228" s="22" t="s">
         <v>658</v>
       </c>
@@ -68175,7 +69688,9 @@
       <c r="E229" s="22" t="s">
         <v>5889</v>
       </c>
-      <c r="F229" s="37"/>
+      <c r="F229" s="28">
+        <v>783562</v>
+      </c>
       <c r="G229" s="22"/>
       <c r="H229" s="22"/>
       <c r="I229" s="22"/>
@@ -68183,7 +69698,9 @@
         <v>6092</v>
       </c>
       <c r="K229" s="22"/>
-      <c r="L229" s="22"/>
+      <c r="L229" s="22" t="s">
+        <v>6513</v>
+      </c>
       <c r="M229" s="22" t="s">
         <v>661</v>
       </c>
@@ -68228,7 +69745,9 @@
       <c r="E230" s="22" t="s">
         <v>5890</v>
       </c>
-      <c r="F230" s="37"/>
+      <c r="F230" s="28">
+        <v>488100</v>
+      </c>
       <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
@@ -68236,7 +69755,9 @@
         <v>6093</v>
       </c>
       <c r="K230" s="22"/>
-      <c r="L230" s="22"/>
+      <c r="L230" s="22" t="s">
+        <v>6514</v>
+      </c>
       <c r="M230" s="22" t="s">
         <v>5616</v>
       </c>
@@ -68279,7 +69800,9 @@
       <c r="E231" s="22" t="s">
         <v>5946</v>
       </c>
-      <c r="F231" s="37"/>
+      <c r="F231" s="28">
+        <v>948</v>
+      </c>
       <c r="G231" s="22"/>
       <c r="H231" s="22"/>
       <c r="I231" s="22"/>
@@ -68287,7 +69810,9 @@
         <v>6106</v>
       </c>
       <c r="K231" s="22"/>
-      <c r="L231" s="22"/>
+      <c r="L231" s="22" t="s">
+        <v>6515</v>
+      </c>
       <c r="M231" s="22" t="s">
         <v>5680</v>
       </c>
@@ -68328,7 +69853,9 @@
       <c r="E232" s="22" t="s">
         <v>5891</v>
       </c>
-      <c r="F232" s="37"/>
+      <c r="F232" s="28">
+        <v>26</v>
+      </c>
       <c r="G232" s="22"/>
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
@@ -68336,7 +69863,9 @@
         <v>6106</v>
       </c>
       <c r="K232" s="22"/>
-      <c r="L232" s="22"/>
+      <c r="L232" s="22" t="s">
+        <v>6516</v>
+      </c>
       <c r="M232" s="22" t="s">
         <v>5617</v>
       </c>
@@ -68379,7 +69908,9 @@
       <c r="E233" s="22" t="s">
         <v>5947</v>
       </c>
-      <c r="F233" s="37"/>
+      <c r="F233" s="28">
+        <v>151</v>
+      </c>
       <c r="G233" s="22"/>
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
@@ -68387,7 +69918,9 @@
         <v>6106</v>
       </c>
       <c r="K233" s="22"/>
-      <c r="L233" s="22"/>
+      <c r="L233" s="22" t="s">
+        <v>6520</v>
+      </c>
       <c r="M233" s="22" t="s">
         <v>667</v>
       </c>
@@ -68430,7 +69963,9 @@
       <c r="E234" s="22" t="s">
         <v>5892</v>
       </c>
-      <c r="F234" s="37"/>
+      <c r="F234" s="28">
+        <v>241550</v>
+      </c>
       <c r="G234" s="22"/>
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
@@ -68438,7 +69973,9 @@
         <v>6094</v>
       </c>
       <c r="K234" s="22"/>
-      <c r="L234" s="22"/>
+      <c r="L234" s="22" t="s">
+        <v>6517</v>
+      </c>
       <c r="M234" s="22" t="s">
         <v>663</v>
       </c>
@@ -68481,7 +70018,9 @@
       <c r="E235" s="22" t="s">
         <v>5893</v>
       </c>
-      <c r="F235" s="37"/>
+      <c r="F235" s="28">
+        <v>603500</v>
+      </c>
       <c r="G235" s="22"/>
       <c r="H235" s="22"/>
       <c r="I235" s="22"/>
@@ -68489,7 +70028,9 @@
         <v>6114</v>
       </c>
       <c r="K235" s="22"/>
-      <c r="L235" s="22"/>
+      <c r="L235" s="22" t="s">
+        <v>6518</v>
+      </c>
       <c r="M235" s="22" t="s">
         <v>5619</v>
       </c>
@@ -68534,7 +70075,9 @@
       <c r="E236" s="22" t="s">
         <v>5894</v>
       </c>
-      <c r="F236" s="37"/>
+      <c r="F236" s="28">
+        <v>83600</v>
+      </c>
       <c r="G236" s="22"/>
       <c r="H236" s="22"/>
       <c r="I236" s="22"/>
@@ -68542,7 +70085,9 @@
         <v>6095</v>
       </c>
       <c r="K236" s="22"/>
-      <c r="L236" s="22"/>
+      <c r="L236" s="22" t="s">
+        <v>6519</v>
+      </c>
       <c r="M236" s="22" t="s">
         <v>509</v>
       </c>
@@ -68585,7 +70130,9 @@
       <c r="E237" s="22" t="s">
         <v>5767</v>
       </c>
-      <c r="F237" s="37"/>
+      <c r="F237" s="28">
+        <v>242495</v>
+      </c>
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
       <c r="I237" s="22"/>
@@ -68593,7 +70140,9 @@
         <v>6096</v>
       </c>
       <c r="K237" s="22"/>
-      <c r="L237" s="22"/>
+      <c r="L237" s="22" t="s">
+        <v>5699</v>
+      </c>
       <c r="M237" s="22" t="s">
         <v>5592</v>
       </c>
@@ -68638,7 +70187,9 @@
       <c r="E238" s="22" t="s">
         <v>5895</v>
       </c>
-      <c r="F238" s="37"/>
+      <c r="F238" s="28">
+        <v>9525067</v>
+      </c>
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
       <c r="I238" s="22"/>
@@ -68646,7 +70197,9 @@
         <v>6116</v>
       </c>
       <c r="K238" s="22"/>
-      <c r="L238" s="22"/>
+      <c r="L238" s="22" t="s">
+        <v>6257</v>
+      </c>
       <c r="M238" s="22" t="s">
         <v>5573</v>
       </c>
@@ -68691,7 +70244,9 @@
       <c r="E239" s="22" t="s">
         <v>5896</v>
       </c>
-      <c r="F239" s="37"/>
+      <c r="F239" s="28">
+        <v>176215</v>
+      </c>
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
       <c r="I239" s="22"/>
@@ -68699,7 +70254,9 @@
         <v>6097</v>
       </c>
       <c r="K239" s="22"/>
-      <c r="L239" s="22"/>
+      <c r="L239" s="22" t="s">
+        <v>6521</v>
+      </c>
       <c r="M239" s="22" t="s">
         <v>5605</v>
       </c>
@@ -68742,7 +70299,9 @@
       <c r="E240" s="22" t="s">
         <v>5897</v>
       </c>
-      <c r="F240" s="37"/>
+      <c r="F240" s="28">
+        <v>447400</v>
+      </c>
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
       <c r="I240" s="22"/>
@@ -68750,7 +70309,9 @@
         <v>6098</v>
       </c>
       <c r="K240" s="22"/>
-      <c r="L240" s="22"/>
+      <c r="L240" s="22" t="s">
+        <v>6522</v>
+      </c>
       <c r="M240" s="22" t="s">
         <v>675</v>
       </c>
@@ -68793,7 +70354,9 @@
       <c r="E241" s="22" t="s">
         <v>5898</v>
       </c>
-      <c r="F241" s="37"/>
+      <c r="F241" s="28">
+        <v>12189</v>
+      </c>
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
       <c r="I241" s="22"/>
@@ -68801,7 +70364,9 @@
         <v>6106</v>
       </c>
       <c r="K241" s="22"/>
-      <c r="L241" s="22"/>
+      <c r="L241" s="22" t="s">
+        <v>6523</v>
+      </c>
       <c r="M241" s="22" t="s">
         <v>5684</v>
       </c>
@@ -68844,7 +70409,9 @@
       <c r="E242" s="22" t="s">
         <v>4200</v>
       </c>
-      <c r="F242" s="37"/>
+      <c r="F242" s="28">
+        <v>0.49</v>
+      </c>
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
       <c r="I242" s="22"/>
@@ -68852,7 +70419,9 @@
         <v>6099</v>
       </c>
       <c r="K242" s="22"/>
-      <c r="L242" s="22"/>
+      <c r="L242" s="22" t="s">
+        <v>6541</v>
+      </c>
       <c r="M242" s="22" t="s">
         <v>5562</v>
       </c>
@@ -68895,7 +70464,9 @@
       <c r="E243" s="22" t="s">
         <v>5899</v>
       </c>
-      <c r="F243" s="37"/>
+      <c r="F243" s="28">
+        <v>916445</v>
+      </c>
       <c r="G243" s="22"/>
       <c r="H243" s="22"/>
       <c r="I243" s="22"/>
@@ -68903,7 +70474,9 @@
         <v>6100</v>
       </c>
       <c r="K243" s="22"/>
-      <c r="L243" s="22"/>
+      <c r="L243" s="22" t="s">
+        <v>6525</v>
+      </c>
       <c r="M243" s="22" t="s">
         <v>666</v>
       </c>
@@ -68946,7 +70519,9 @@
       <c r="E244" s="22" t="s">
         <v>5900</v>
       </c>
-      <c r="F244" s="37"/>
+      <c r="F244" s="28">
+        <v>331212</v>
+      </c>
       <c r="G244" s="22"/>
       <c r="H244" s="22"/>
       <c r="I244" s="22"/>
@@ -68954,7 +70529,9 @@
         <v>6101</v>
       </c>
       <c r="K244" s="22"/>
-      <c r="L244" s="22"/>
+      <c r="L244" s="22" t="s">
+        <v>6524</v>
+      </c>
       <c r="M244" s="22" t="s">
         <v>5623</v>
       </c>
@@ -68994,7 +70571,7 @@
       <c r="E245" s="22" t="s">
         <v>5901</v>
       </c>
-      <c r="F245" s="35">
+      <c r="F245" s="28">
         <v>20779</v>
       </c>
       <c r="G245" s="36" t="s">
@@ -69042,7 +70619,9 @@
       <c r="E246" s="22" t="s">
         <v>5948</v>
       </c>
-      <c r="F246" s="37"/>
+      <c r="F246" s="28">
+        <v>142</v>
+      </c>
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
       <c r="I246" s="22"/>
@@ -69050,7 +70629,9 @@
         <v>6106</v>
       </c>
       <c r="K246" s="22"/>
-      <c r="L246" s="22"/>
+      <c r="L246" s="22" t="s">
+        <v>6542</v>
+      </c>
       <c r="M246" s="22" t="s">
         <v>5685</v>
       </c>
@@ -69090,7 +70671,9 @@
       <c r="E247" s="22" t="s">
         <v>5949</v>
       </c>
-      <c r="F247" s="37"/>
+      <c r="F247" s="28">
+        <v>266000</v>
+      </c>
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
       <c r="I247" s="22"/>
@@ -69098,7 +70681,9 @@
         <v>6102</v>
       </c>
       <c r="K247" s="22"/>
-      <c r="L247" s="22"/>
+      <c r="L247" s="22" t="s">
+        <v>6450</v>
+      </c>
       <c r="M247" s="22" t="s">
         <v>5648</v>
       </c>
@@ -69141,7 +70726,9 @@
       <c r="E248" s="22" t="s">
         <v>5902</v>
       </c>
-      <c r="F248" s="37"/>
+      <c r="F248" s="28">
+        <v>555000</v>
+      </c>
       <c r="G248" s="22"/>
       <c r="H248" s="22"/>
       <c r="I248" s="22"/>
@@ -69149,7 +70736,9 @@
         <v>6103</v>
       </c>
       <c r="K248" s="22"/>
-      <c r="L248" s="22"/>
+      <c r="L248" s="22" t="s">
+        <v>6522</v>
+      </c>
       <c r="M248" s="22" t="s">
         <v>5687</v>
       </c>
@@ -69191,7 +70780,9 @@
       <c r="E249" s="22" t="s">
         <v>5903</v>
       </c>
-      <c r="F249" s="37"/>
+      <c r="F249" s="28">
+        <v>752612</v>
+      </c>
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
       <c r="I249" s="22"/>
@@ -69199,7 +70790,9 @@
         <v>6104</v>
       </c>
       <c r="K249" s="22"/>
-      <c r="L249" s="22"/>
+      <c r="L249" s="22" t="s">
+        <v>6526</v>
+      </c>
       <c r="M249" s="22" t="s">
         <v>5688</v>
       </c>
@@ -69241,7 +70834,9 @@
       <c r="E250" s="22" t="s">
         <v>5904</v>
       </c>
-      <c r="F250" s="37"/>
+      <c r="F250" s="28">
+        <v>390757</v>
+      </c>
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
       <c r="I250" s="22"/>
@@ -69249,7 +70844,9 @@
         <v>6105</v>
       </c>
       <c r="K250" s="22"/>
-      <c r="L250" s="22"/>
+      <c r="L250" s="22" t="s">
+        <v>6527</v>
+      </c>
       <c r="M250" s="22" t="s">
         <v>5595</v>
       </c>
@@ -69288,7 +70885,7 @@
       <c r="E251" s="22" t="s">
         <v>6123</v>
       </c>
-      <c r="F251" s="35">
+      <c r="F251" s="28">
         <v>1128</v>
       </c>
       <c r="G251" s="36" t="s">
@@ -69462,11 +71059,47 @@
     <hyperlink ref="H58" r:id="rId75"/>
     <hyperlink ref="G59" r:id="rId76"/>
     <hyperlink ref="H59" r:id="rId77"/>
+    <hyperlink ref="H60" r:id="rId78"/>
+    <hyperlink ref="H61" r:id="rId79"/>
+    <hyperlink ref="H62" r:id="rId80"/>
+    <hyperlink ref="H63" r:id="rId81"/>
+    <hyperlink ref="H64" r:id="rId82"/>
+    <hyperlink ref="H65" r:id="rId83"/>
+    <hyperlink ref="H66" r:id="rId84"/>
+    <hyperlink ref="H67" r:id="rId85"/>
+    <hyperlink ref="H69" r:id="rId86"/>
+    <hyperlink ref="H70" r:id="rId87"/>
+    <hyperlink ref="H71" r:id="rId88"/>
+    <hyperlink ref="G72" r:id="rId89"/>
+    <hyperlink ref="H72" r:id="rId90"/>
+    <hyperlink ref="H73" r:id="rId91"/>
+    <hyperlink ref="H74" r:id="rId92"/>
+    <hyperlink ref="H75" r:id="rId93"/>
+    <hyperlink ref="G76" r:id="rId94"/>
+    <hyperlink ref="H76" r:id="rId95"/>
+    <hyperlink ref="H77" r:id="rId96"/>
+    <hyperlink ref="H78" r:id="rId97"/>
+    <hyperlink ref="G79" r:id="rId98"/>
+    <hyperlink ref="H79" r:id="rId99"/>
+    <hyperlink ref="H80" r:id="rId100"/>
+    <hyperlink ref="H81" r:id="rId101"/>
+    <hyperlink ref="H82" r:id="rId102"/>
+    <hyperlink ref="G83" r:id="rId103"/>
+    <hyperlink ref="H83" r:id="rId104"/>
+    <hyperlink ref="H84" r:id="rId105"/>
+    <hyperlink ref="H85" r:id="rId106"/>
+    <hyperlink ref="G86" r:id="rId107"/>
+    <hyperlink ref="H86" r:id="rId108"/>
+    <hyperlink ref="H87" r:id="rId109"/>
+    <hyperlink ref="H88" r:id="rId110"/>
+    <hyperlink ref="H89" r:id="rId111"/>
+    <hyperlink ref="H90" r:id="rId112"/>
+    <hyperlink ref="H91" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId114"/>
   <tableParts count="1">
-    <tablePart r:id="rId79"/>
+    <tablePart r:id="rId115"/>
   </tableParts>
 </worksheet>
 </file>

--- a/tallui-data/Static Data.xlsx
+++ b/tallui-data/Static Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Friedrich.morlock\Documents\GitHub\TallUI\tallui-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FE6CF-7CF4-4B7E-BFA1-966BE430B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67F130-EFED-4976-BC10-BB0EED93A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17401" uniqueCount="8254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17418" uniqueCount="8262">
   <si>
     <t>ISO Language Name</t>
   </si>
@@ -24806,6 +24806,30 @@
   </si>
   <si>
     <t>Mariany Północne</t>
+  </si>
+  <si>
+    <t>Scand</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Mesoam.</t>
+  </si>
+  <si>
+    <t>PTG</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>LATAM</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>NEUR</t>
   </si>
 </sst>
 </file>
@@ -24815,7 +24839,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24877,6 +24901,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -24912,7 +24943,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -24961,6 +24992,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -24968,42 +25000,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -25062,6 +25058,42 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -25206,17 +25238,17 @@
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Branch"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="First language (L1) speakers"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Second Language (L2) speakers"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Total speakers (L1+L2)" dataDxfId="19">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Total speakers (L1+L2)" dataDxfId="17">
       <calculatedColumnFormula>Tabelle1[[#This Row],[First language (L1) speakers]]+Tabelle1[[#This Row],[Second Language (L2) speakers]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Language family" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Language family" dataDxfId="16"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Native Name"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Endonyms (;)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="English" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Czech" dataDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Polski" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="English" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Czech" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Polski" dataDxfId="13"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="German"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="French" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="French" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Spanish"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Italian"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Yandex Translate"/>
@@ -25246,20 +25278,20 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Country CS"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="Country PL"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Population" dataDxfId="13" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Percentage of the world" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Capital" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Area in km^2" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Website" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Wikipedia EN" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Depends" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Borders" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Native Name" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Calling Code" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Flag" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Population" dataDxfId="11" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Percentage of the world" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Capital" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Area in km^2" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Website" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Wikipedia EN" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Depends" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Borders" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Native Name" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Calling Code" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Flag" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ISO 3166 ALPHA-2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ISO 3166 ALPHA-3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ISO 3166 numerisch" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ISO 3166 numerisch" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="TLD (Top-Level-Domain) "/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="IOC (International Olympic Committee)"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Untergliederungen nach ISO 3166-2"/>
@@ -25607,8 +25639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25618,7 +25650,8 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
-    <col min="6" max="9" width="15.85546875" style="20" customWidth="1"/>
+    <col min="6" max="8" width="15.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="20" customWidth="1"/>
     <col min="10" max="10" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -26208,7 +26241,9 @@
       <c r="I14" s="20" t="s">
         <v>7068</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="40" t="s">
+        <v>8254</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20" t="s">
         <v>5433</v>
@@ -26378,7 +26413,9 @@
       <c r="I18" s="20" t="s">
         <v>7071</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="40" t="s">
+        <v>4702</v>
+      </c>
       <c r="K18" s="20" t="s">
         <v>5470</v>
       </c>
@@ -26620,7 +26657,9 @@
       <c r="I24" s="20" t="s">
         <v>5481</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="40" t="s">
+        <v>8255</v>
+      </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
         <v>5433</v>
@@ -26661,7 +26700,9 @@
       <c r="I25" s="20" t="s">
         <v>7076</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="40" t="s">
+        <v>8256</v>
+      </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20" t="s">
         <v>5433</v>
@@ -26702,7 +26743,9 @@
       <c r="I26" s="20" t="s">
         <v>7077</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="40" t="s">
+        <v>8257</v>
+      </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20" t="s">
         <v>5433</v>
@@ -26743,7 +26786,9 @@
       <c r="I27" s="20" t="s">
         <v>7078</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="40" t="s">
+        <v>4992</v>
+      </c>
       <c r="K27" s="20" t="s">
         <v>5493</v>
       </c>
@@ -26786,7 +26831,9 @@
       <c r="I28" s="20" t="s">
         <v>7079</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="40" t="s">
+        <v>8259</v>
+      </c>
       <c r="K28" s="20" t="s">
         <v>5497</v>
       </c>
@@ -26952,7 +26999,9 @@
       <c r="I32" s="20" t="s">
         <v>7083</v>
       </c>
-      <c r="J32" s="20"/>
+      <c r="J32" s="40" t="s">
+        <v>4975</v>
+      </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
         <v>5424</v>
@@ -27036,7 +27085,9 @@
       <c r="I34" s="20" t="s">
         <v>7085</v>
       </c>
-      <c r="J34" s="20"/>
+      <c r="J34" s="40" t="s">
+        <v>5142</v>
+      </c>
       <c r="K34" s="20" t="s">
         <v>5515</v>
       </c>
@@ -27122,7 +27173,9 @@
       <c r="I36" s="20" t="s">
         <v>7087</v>
       </c>
-      <c r="J36" s="20"/>
+      <c r="J36" s="40" t="s">
+        <v>6974</v>
+      </c>
       <c r="K36" s="20" t="s">
         <v>5522</v>
       </c>
@@ -27251,7 +27304,9 @@
       <c r="I39" s="20" t="s">
         <v>7090</v>
       </c>
-      <c r="J39" s="20"/>
+      <c r="J39" s="40" t="s">
+        <v>4975</v>
+      </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
         <v>5424</v>
@@ -27290,7 +27345,9 @@
       <c r="I40" s="20" t="s">
         <v>7091</v>
       </c>
-      <c r="J40" s="20"/>
+      <c r="J40" s="40" t="s">
+        <v>8258</v>
+      </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
         <v>5424</v>
@@ -27329,7 +27386,9 @@
       <c r="I41" s="20" t="s">
         <v>7092</v>
       </c>
-      <c r="J41" s="20"/>
+      <c r="J41" s="40" t="s">
+        <v>5142</v>
+      </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20" t="s">
@@ -27364,7 +27423,9 @@
       <c r="I42" s="20" t="s">
         <v>7093</v>
       </c>
-      <c r="J42" s="20"/>
+      <c r="J42" s="40" t="s">
+        <v>8260</v>
+      </c>
       <c r="K42" s="20" t="s">
         <v>6906</v>
       </c>
@@ -27407,7 +27468,9 @@
       <c r="I43" s="20" t="s">
         <v>7094</v>
       </c>
-      <c r="J43" s="20"/>
+      <c r="J43" s="40" t="s">
+        <v>4856</v>
+      </c>
       <c r="K43" s="20" t="s">
         <v>5531</v>
       </c>
@@ -27491,7 +27554,9 @@
       <c r="I45" s="20" t="s">
         <v>7096</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="40" t="s">
+        <v>4843</v>
+      </c>
       <c r="K45" s="20" t="s">
         <v>5535</v>
       </c>
@@ -27534,7 +27599,9 @@
       <c r="I46" s="20" t="s">
         <v>7097</v>
       </c>
-      <c r="J46" s="20"/>
+      <c r="J46" s="40" t="s">
+        <v>8261</v>
+      </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
         <v>5424</v>
@@ -27729,8 +27796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF627"/>
   <sheetViews>
-    <sheetView topLeftCell="H584" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="Q569" workbookViewId="0">
+      <selection activeCell="Q578" sqref="Q578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66287,10 +66354,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A398">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A607">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -66304,8 +66371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84785,7 +84852,7 @@
   <dimension ref="A1:J266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -90221,7 +90288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D287"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>

--- a/tallui-data/Static Data.xlsx
+++ b/tallui-data/Static Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="5" r:id="rId1"/>
@@ -26492,42 +26492,6 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -26585,6 +26549,42 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -26729,17 +26729,17 @@
     <tableColumn id="20" name="Branch"/>
     <tableColumn id="21" name="First language (L1) speakers"/>
     <tableColumn id="19" name="Second Language (L2) speakers"/>
-    <tableColumn id="27" name="Total speakers (L1+L2)" dataDxfId="19">
+    <tableColumn id="27" name="Total speakers (L1+L2)" dataDxfId="17">
       <calculatedColumnFormula>Tabelle1[[#This Row],[First language (L1) speakers]]+Tabelle1[[#This Row],[Second Language (L2) speakers]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Language family" dataDxfId="18"/>
+    <tableColumn id="6" name="Language family" dataDxfId="16"/>
     <tableColumn id="23" name="Native Name"/>
     <tableColumn id="7" name="Endonyms (;)"/>
-    <tableColumn id="8" name="English" dataDxfId="17"/>
-    <tableColumn id="30" name="Czech" dataDxfId="16"/>
-    <tableColumn id="31" name="Polski" dataDxfId="15"/>
+    <tableColumn id="8" name="English" dataDxfId="15"/>
+    <tableColumn id="30" name="Czech" dataDxfId="14"/>
+    <tableColumn id="31" name="Polski" dataDxfId="13"/>
     <tableColumn id="9" name="German"/>
-    <tableColumn id="10" name="French" dataDxfId="14"/>
+    <tableColumn id="10" name="French" dataDxfId="12"/>
     <tableColumn id="11" name="Spanish"/>
     <tableColumn id="12" name="Italian"/>
     <tableColumn id="16" name="Yandex Translate"/>
@@ -26769,20 +26769,20 @@
     <tableColumn id="21" name="Country CS"/>
     <tableColumn id="22" name="Country PL"/>
     <tableColumn id="2" name="Region"/>
-    <tableColumn id="3" name="Population" dataDxfId="13" dataCellStyle="Komma"/>
-    <tableColumn id="4" name="Percentage of the world" dataDxfId="12"/>
-    <tableColumn id="24" name="Capital" dataDxfId="11"/>
-    <tableColumn id="13" name="Area in km^2" dataDxfId="10"/>
-    <tableColumn id="14" name="Website" dataDxfId="9"/>
-    <tableColumn id="15" name="Wikipedia EN" dataDxfId="8"/>
-    <tableColumn id="16" name="Depends" dataDxfId="7"/>
-    <tableColumn id="17" name="Borders" dataDxfId="6"/>
-    <tableColumn id="19" name="Native Name" dataDxfId="5"/>
-    <tableColumn id="20" name="Calling Code" dataDxfId="4"/>
-    <tableColumn id="23" name="Flag" dataDxfId="3"/>
+    <tableColumn id="3" name="Population" dataDxfId="11" dataCellStyle="Komma"/>
+    <tableColumn id="4" name="Percentage of the world" dataDxfId="10"/>
+    <tableColumn id="24" name="Capital" dataDxfId="9"/>
+    <tableColumn id="13" name="Area in km^2" dataDxfId="8"/>
+    <tableColumn id="14" name="Website" dataDxfId="7"/>
+    <tableColumn id="15" name="Wikipedia EN" dataDxfId="6"/>
+    <tableColumn id="16" name="Depends" dataDxfId="5"/>
+    <tableColumn id="17" name="Borders" dataDxfId="4"/>
+    <tableColumn id="19" name="Native Name" dataDxfId="3"/>
+    <tableColumn id="20" name="Calling Code" dataDxfId="2"/>
+    <tableColumn id="23" name="Flag" dataDxfId="1"/>
     <tableColumn id="5" name="ISO 3166 ALPHA-2"/>
     <tableColumn id="6" name="ISO 3166 ALPHA-3"/>
-    <tableColumn id="8" name="ISO 3166 numerisch" dataDxfId="2"/>
+    <tableColumn id="8" name="ISO 3166 numerisch" dataDxfId="0"/>
     <tableColumn id="9" name="TLD (Top-Level-Domain) "/>
     <tableColumn id="10" name="IOC (International Olympic Committee)"/>
     <tableColumn id="11" name="Untergliederungen nach ISO 3166-2"/>
@@ -26795,11 +26795,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle15" displayName="Tabelle15" ref="A1:J266" totalsRowShown="0">
-  <autoFilter ref="A1:J266">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J266"/>
   <sortState ref="A2:F267">
     <sortCondition ref="A1:A267"/>
   </sortState>
@@ -27134,8 +27130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29291,8 +29287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF627"/>
   <sheetViews>
-    <sheetView topLeftCell="B589" workbookViewId="0">
-      <selection activeCell="N626" sqref="N626"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67849,10 +67845,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A398">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A607">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -67867,7 +67863,7 @@
   <dimension ref="A1:X271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86346,8 +86342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86395,7 +86391,7 @@
         <v>7685</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4174</v>
       </c>
@@ -86427,7 +86423,7 @@
         <v>7688</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4174</v>
       </c>
@@ -86456,7 +86452,7 @@
         <v>7691</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3345</v>
       </c>
@@ -86485,7 +86481,7 @@
         <v>7694</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4175</v>
       </c>
@@ -86514,7 +86510,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3352</v>
       </c>
@@ -86543,7 +86539,7 @@
         <v>8242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>4176</v>
       </c>
@@ -86575,7 +86571,7 @@
         <v>8245</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>4176</v>
       </c>
@@ -86607,7 +86603,7 @@
         <v>8248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>4176</v>
       </c>
@@ -86639,7 +86635,7 @@
         <v>8251</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2977</v>
       </c>
@@ -86668,7 +86664,7 @@
         <v>8254</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>3356</v>
       </c>
@@ -86697,7 +86693,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>3060</v>
       </c>
@@ -86726,7 +86722,7 @@
         <v>8257</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>4226</v>
       </c>
@@ -86755,7 +86751,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>3359</v>
       </c>
@@ -86784,7 +86780,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3360</v>
       </c>
@@ -86813,7 +86809,7 @@
         <v>8264</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>3362</v>
       </c>
@@ -86842,7 +86838,7 @@
         <v>8267</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4250</v>
       </c>
@@ -86874,7 +86870,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>4250</v>
       </c>
@@ -86903,7 +86899,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>4393</v>
       </c>
@@ -86932,7 +86928,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>4177</v>
       </c>
@@ -86961,7 +86957,7 @@
         <v>8272</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>3381</v>
       </c>
@@ -86990,7 +86986,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>3382</v>
       </c>
@@ -87019,7 +87015,7 @@
         <v>8275</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>3383</v>
       </c>
@@ -87048,7 +87044,7 @@
         <v>8279</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>3386</v>
       </c>
@@ -87077,7 +87073,7 @@
         <v>8283</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>3387</v>
       </c>
@@ -87106,7 +87102,7 @@
         <v>8733</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>3389</v>
       </c>
@@ -87135,7 +87131,7 @@
         <v>8284</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>3390</v>
       </c>
@@ -87164,7 +87160,7 @@
         <v>8287</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>3391</v>
       </c>
@@ -87193,7 +87189,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>3392</v>
       </c>
@@ -87222,7 +87218,7 @@
         <v>8288</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>3394</v>
       </c>
@@ -87251,7 +87247,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>4227</v>
       </c>
@@ -87280,7 +87276,7 @@
         <v>8294</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>2952</v>
       </c>
@@ -87309,7 +87305,7 @@
         <v>8297</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>2952</v>
       </c>
@@ -87338,7 +87334,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>3396</v>
       </c>
@@ -87367,7 +87363,7 @@
         <v>8303</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>4204</v>
       </c>
@@ -87399,7 +87395,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>3398</v>
       </c>
@@ -87431,7 +87427,7 @@
         <v>8309</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>3399</v>
       </c>
@@ -87460,7 +87456,7 @@
         <v>8312</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>4203</v>
       </c>
@@ -87489,8 +87485,8 @@
         <v>8315</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>4202</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -87518,7 +87514,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>4235</v>
       </c>
@@ -87547,7 +87543,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>3409</v>
       </c>
@@ -87576,7 +87572,7 @@
         <v>8318</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>3409</v>
       </c>
@@ -87605,7 +87601,7 @@
         <v>8321</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>3410</v>
       </c>
@@ -87634,7 +87630,7 @@
         <v>8324</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>3412</v>
       </c>
@@ -87663,7 +87659,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>3413</v>
       </c>
@@ -87692,7 +87688,7 @@
         <v>8327</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>3416</v>
       </c>
@@ -87721,7 +87717,7 @@
         <v>8330</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>2950</v>
       </c>
@@ -87750,7 +87746,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>2939</v>
       </c>
@@ -87779,7 +87775,7 @@
         <v>8336</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>4201</v>
       </c>
@@ -87808,7 +87804,7 @@
         <v>8339</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>4236</v>
       </c>
@@ -87837,7 +87833,7 @@
         <v>8343</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>3421</v>
       </c>
@@ -87866,7 +87862,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>3422</v>
       </c>
@@ -87895,7 +87891,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>4200</v>
       </c>
@@ -87924,7 +87920,7 @@
         <v>8346</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>3432</v>
       </c>
@@ -87956,7 +87952,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>3436</v>
       </c>
@@ -87985,7 +87981,7 @@
         <v>8349</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>3437</v>
       </c>
@@ -88014,7 +88010,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>6835</v>
       </c>
@@ -88043,7 +88039,7 @@
         <v>8355</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>7151</v>
       </c>
@@ -88072,7 +88068,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>4252</v>
       </c>
@@ -88104,7 +88100,7 @@
         <v>8357</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>4252</v>
       </c>
@@ -88133,7 +88129,7 @@
         <v>8360</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>3443</v>
       </c>
@@ -88162,7 +88158,7 @@
         <v>8363</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>4199</v>
       </c>
@@ -88191,7 +88187,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>3445</v>
       </c>
@@ -88220,7 +88216,7 @@
         <v>8366</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>3446</v>
       </c>
@@ -88249,7 +88245,7 @@
         <v>8369</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>3446</v>
       </c>
@@ -88278,7 +88274,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>4378</v>
       </c>
@@ -88307,7 +88303,7 @@
         <v>8375</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>3449</v>
       </c>
@@ -88336,7 +88332,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>4198</v>
       </c>
@@ -88365,7 +88361,7 @@
         <v>8378</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>3451</v>
       </c>
@@ -88394,7 +88390,7 @@
         <v>8381</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>3452</v>
       </c>
@@ -88423,7 +88419,7 @@
         <v>8384</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>3453</v>
       </c>
@@ -88452,7 +88448,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>3454</v>
       </c>
@@ -88481,7 +88477,7 @@
         <v>8387</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>4197</v>
       </c>
@@ -88510,7 +88506,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>4197</v>
       </c>
@@ -88542,7 +88538,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>4196</v>
       </c>
@@ -88571,7 +88567,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>4196</v>
       </c>
@@ -88603,7 +88599,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>2945</v>
       </c>
@@ -88635,7 +88631,7 @@
         <v>8393</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>3457</v>
       </c>
@@ -88664,7 +88660,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>3457</v>
       </c>
@@ -88696,7 +88692,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>3458</v>
       </c>
@@ -88725,7 +88721,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>3459</v>
       </c>
@@ -88754,7 +88750,7 @@
         <v>8396</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>3460</v>
       </c>
@@ -88783,7 +88779,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>3461</v>
       </c>
@@ -88812,7 +88808,7 @@
         <v>8399</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>3461</v>
       </c>
@@ -88841,7 +88837,7 @@
         <v>8402</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>3462</v>
       </c>
@@ -88870,7 +88866,7 @@
         <v>8405</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>4379</v>
       </c>
@@ -88899,7 +88895,7 @@
         <v>8408</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>4380</v>
       </c>
@@ -88928,7 +88924,7 @@
         <v>8381</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>4380</v>
       </c>
@@ -88960,7 +88956,7 @@
         <v>8411</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>2960</v>
       </c>
@@ -88989,7 +88985,7 @@
         <v>8414</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>3048</v>
       </c>
@@ -89018,7 +89014,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>3469</v>
       </c>
@@ -89047,7 +89043,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>4381</v>
       </c>
@@ -89076,7 +89072,7 @@
         <v>8417</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>3476</v>
       </c>
@@ -89105,7 +89101,7 @@
         <v>8332</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>3477</v>
       </c>
@@ -89134,7 +89130,7 @@
         <v>8738</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>3478</v>
       </c>
@@ -89163,7 +89159,7 @@
         <v>8420</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>2996</v>
       </c>
@@ -89192,7 +89188,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>2959</v>
       </c>
@@ -89221,7 +89217,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>4246</v>
       </c>
@@ -89250,7 +89246,7 @@
         <v>8426</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>3480</v>
       </c>
@@ -89279,7 +89275,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>4382</v>
       </c>
@@ -89308,7 +89304,7 @@
         <v>8381</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>3488</v>
       </c>
@@ -89337,7 +89333,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>3491</v>
       </c>
@@ -89366,7 +89362,7 @@
         <v>8429</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>4383</v>
       </c>
@@ -89398,7 +89394,7 @@
         <v>8251</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>4383</v>
       </c>
@@ -89430,7 +89426,7 @@
         <v>8248</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>3493</v>
       </c>
@@ -89459,7 +89455,7 @@
         <v>8433</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>3494</v>
       </c>
@@ -89488,7 +89484,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>3495</v>
       </c>
@@ -89517,7 +89513,7 @@
         <v>8435</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>3496</v>
       </c>
@@ -89546,7 +89542,7 @@
         <v>8743</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>3497</v>
       </c>
@@ -89575,7 +89571,7 @@
         <v>8438</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>3498</v>
       </c>
@@ -89604,7 +89600,7 @@
         <v>8441</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>3499</v>
       </c>
@@ -89633,7 +89629,7 @@
         <v>8444</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>3500</v>
       </c>
@@ -89662,7 +89658,7 @@
         <v>8446</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>2990</v>
       </c>
@@ -89691,7 +89687,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>2985</v>
       </c>
@@ -89720,7 +89716,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>3506</v>
       </c>
@@ -89749,7 +89745,7 @@
         <v>8453</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>3509</v>
       </c>
@@ -89778,7 +89774,7 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>3510</v>
       </c>
@@ -89807,7 +89803,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>4242</v>
       </c>
@@ -89839,7 +89835,7 @@
         <v>8458</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>4242</v>
       </c>
@@ -89871,7 +89867,7 @@
         <v>8248</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>3512</v>
       </c>
@@ -89900,7 +89896,7 @@
         <v>8462</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>3020</v>
       </c>
@@ -89929,7 +89925,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>3514</v>
       </c>
@@ -89958,7 +89954,7 @@
         <v>8465</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>3515</v>
       </c>
@@ -89990,7 +89986,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>4384</v>
       </c>
@@ -90022,7 +90018,7 @@
         <v>8471</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>4384</v>
       </c>
@@ -90054,7 +90050,7 @@
         <v>8248</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>3517</v>
       </c>
@@ -90086,7 +90082,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>4193</v>
       </c>
@@ -90115,7 +90111,7 @@
         <v>8478</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>3522</v>
       </c>
@@ -90144,7 +90140,7 @@
         <v>8481</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>2968</v>
       </c>
@@ -90176,7 +90172,7 @@
         <v>8485</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>2968</v>
       </c>
@@ -90263,7 +90259,7 @@
         <v>8758</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>3528</v>
       </c>
@@ -90292,7 +90288,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>3529</v>
       </c>
@@ -90321,7 +90317,7 @@
         <v>8489</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>3530</v>
       </c>
@@ -90350,7 +90346,7 @@
         <v>8492</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>3531</v>
       </c>
@@ -90379,7 +90375,7 @@
         <v>8495</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>3532</v>
       </c>
@@ -90408,7 +90404,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>3533</v>
       </c>
@@ -90460,7 +90456,7 @@
         <v>8483</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>3535</v>
       </c>
@@ -90489,7 +90485,7 @@
         <v>8402</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>3536</v>
       </c>
@@ -90518,7 +90514,7 @@
         <v>8501</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>3537</v>
       </c>
@@ -90547,7 +90543,7 @@
         <v>8504</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>3538</v>
       </c>
@@ -90576,7 +90572,7 @@
         <v>8507</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>3539</v>
       </c>
@@ -90605,7 +90601,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>3540</v>
       </c>
@@ -90634,7 +90630,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>4394</v>
       </c>
@@ -90663,7 +90659,7 @@
         <v>8510</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>4192</v>
       </c>
@@ -90692,7 +90688,7 @@
         <v>8441</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>3542</v>
       </c>
@@ -90721,7 +90717,7 @@
         <v>8513</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>3543</v>
       </c>
@@ -90750,7 +90746,7 @@
         <v>8516</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>3544</v>
       </c>
@@ -90779,7 +90775,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>3545</v>
       </c>
@@ -90808,7 +90804,7 @@
         <v>8522</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>3546</v>
       </c>
@@ -90837,7 +90833,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>3547</v>
       </c>
@@ -90866,7 +90862,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>3010</v>
       </c>
@@ -90895,7 +90891,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>3549</v>
       </c>
@@ -90921,7 +90917,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>3550</v>
       </c>
@@ -90950,7 +90946,7 @@
         <v>8527</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>4191</v>
       </c>
@@ -90979,7 +90975,7 @@
         <v>8530</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>4190</v>
       </c>
@@ -91008,7 +91004,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>3562</v>
       </c>
@@ -91037,7 +91033,7 @@
         <v>8533</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>3563</v>
       </c>
@@ -91066,7 +91062,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>4189</v>
       </c>
@@ -91095,7 +91091,7 @@
         <v>8536</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>3017</v>
       </c>
@@ -91124,7 +91120,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>4386</v>
       </c>
@@ -91153,7 +91149,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>3052</v>
       </c>
@@ -91182,7 +91178,7 @@
         <v>8539</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>3567</v>
       </c>
@@ -91211,7 +91207,7 @@
         <v>8542</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>3568</v>
       </c>
@@ -91240,7 +91236,7 @@
         <v>8545</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>3569</v>
       </c>
@@ -91269,7 +91265,7 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>3569</v>
       </c>
@@ -91298,7 +91294,7 @@
         <v>8402</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>288</v>
       </c>
@@ -91327,7 +91323,7 @@
         <v>8272</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>3570</v>
       </c>
@@ -91356,7 +91352,7 @@
         <v>8551</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>3572</v>
       </c>
@@ -91385,7 +91381,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>4387</v>
       </c>
@@ -91414,7 +91410,7 @@
         <v>8417</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>3574</v>
       </c>
@@ -91443,7 +91439,7 @@
         <v>8360</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>3576</v>
       </c>
@@ -91472,7 +91468,7 @@
         <v>8554</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>3577</v>
       </c>
@@ -91501,7 +91497,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>2955</v>
       </c>
@@ -91530,7 +91526,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>4188</v>
       </c>
@@ -91559,7 +91555,7 @@
         <v>8360</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>4188</v>
       </c>
@@ -91591,7 +91587,7 @@
         <v>8748</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>3582</v>
       </c>
@@ -91620,7 +91616,7 @@
         <v>8557</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>4187</v>
       </c>
@@ -91649,7 +91645,7 @@
         <v>8560</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>3583</v>
       </c>
@@ -91678,7 +91674,7 @@
         <v>8563</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>3584</v>
       </c>
@@ -91707,7 +91703,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>3585</v>
       </c>
@@ -91736,7 +91732,7 @@
         <v>8569</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>3033</v>
       </c>
@@ -91765,7 +91761,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>3586</v>
       </c>
@@ -91794,7 +91790,7 @@
         <v>8462</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>3586</v>
       </c>
@@ -91826,7 +91822,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>3588</v>
       </c>
@@ -91855,7 +91851,7 @@
         <v>8572</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>3588</v>
       </c>
@@ -91884,7 +91880,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>2972</v>
       </c>
@@ -91913,7 +91909,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>3591</v>
       </c>
@@ -91942,7 +91938,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>3593</v>
       </c>
@@ -91971,7 +91967,7 @@
         <v>8578</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>2961</v>
       </c>
@@ -92000,7 +91996,7 @@
         <v>8581</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>4388</v>
       </c>
@@ -92029,7 +92025,7 @@
         <v>8360</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>4388</v>
       </c>
@@ -92061,7 +92057,7 @@
         <v>8584</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>3595</v>
       </c>
@@ -92090,7 +92086,7 @@
         <v>8587</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>4186</v>
       </c>
@@ -92119,7 +92115,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>3599</v>
       </c>
@@ -92148,7 +92144,7 @@
         <v>8590</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>3601</v>
       </c>
@@ -92177,7 +92173,7 @@
         <v>8593</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>2957</v>
       </c>
@@ -92206,7 +92202,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>3603</v>
       </c>
@@ -92235,7 +92231,7 @@
         <v>8598</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>4185</v>
       </c>
@@ -92264,7 +92260,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>4389</v>
       </c>
@@ -92293,7 +92289,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>4389</v>
       </c>
@@ -92322,7 +92318,7 @@
         <v>8753</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>4389</v>
       </c>
@@ -92351,7 +92347,7 @@
         <v>8539</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>4389</v>
       </c>
@@ -92380,7 +92376,7 @@
         <v>8601</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>4390</v>
       </c>
@@ -92409,7 +92405,7 @@
         <v>8604</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>3607</v>
       </c>
@@ -92438,7 +92434,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>3608</v>
       </c>
@@ -92467,7 +92463,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>3611</v>
       </c>
@@ -92496,7 +92492,7 @@
         <v>8260</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>3612</v>
       </c>
@@ -92525,7 +92521,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>3614</v>
       </c>
@@ -92574,7 +92570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>3616</v>
       </c>
@@ -92603,7 +92599,7 @@
         <v>8610</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>3617</v>
       </c>
@@ -92632,7 +92628,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>3618</v>
       </c>
@@ -92661,7 +92657,7 @@
         <v>8613</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>3619</v>
       </c>
@@ -92713,7 +92709,7 @@
         <v>8754</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>3621</v>
       </c>
@@ -92742,7 +92738,7 @@
         <v>8617</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>4183</v>
       </c>
@@ -92774,7 +92770,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>4391</v>
       </c>
@@ -92803,7 +92799,7 @@
         <v>8375</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>3624</v>
       </c>
@@ -92832,7 +92828,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>3625</v>
       </c>
@@ -92861,7 +92857,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>3626</v>
       </c>
@@ -92890,7 +92886,7 @@
         <v>8619</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>3627</v>
       </c>
@@ -92919,7 +92915,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>4182</v>
       </c>
@@ -92951,7 +92947,7 @@
         <v>8626</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>3628</v>
       </c>
@@ -92980,7 +92976,7 @@
         <v>8402</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>4181</v>
       </c>
@@ -93009,7 +93005,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>3631</v>
       </c>
@@ -93038,7 +93034,7 @@
         <v>8629</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>4180</v>
       </c>
@@ -93067,7 +93063,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>3634</v>
       </c>
@@ -93096,7 +93092,7 @@
         <v>8632</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>3635</v>
       </c>
@@ -93125,7 +93121,7 @@
         <v>8635</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>3051</v>
       </c>
@@ -93154,7 +93150,7 @@
         <v>8641</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>3637</v>
       </c>
@@ -93183,7 +93179,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>3638</v>
       </c>
@@ -93215,7 +93211,7 @@
         <v>8507</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>3639</v>
       </c>
@@ -93244,7 +93240,7 @@
         <v>8644</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>3641</v>
       </c>
@@ -93273,7 +93269,7 @@
         <v>8647</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>3642</v>
       </c>
@@ -93302,7 +93298,7 @@
         <v>8650</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>3027</v>
       </c>
@@ -93331,7 +93327,7 @@
         <v>8653</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>3643</v>
       </c>
@@ -93360,7 +93356,7 @@
         <v>8656</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>3645</v>
       </c>
@@ -93389,7 +93385,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>3057</v>
       </c>
@@ -93421,7 +93417,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>4179</v>
       </c>
@@ -93453,7 +93449,7 @@
         <v>8662</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>3647</v>
       </c>
@@ -93482,7 +93478,7 @@
         <v>8665</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>3649</v>
       </c>
@@ -93511,7 +93507,7 @@
         <v>8668</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>3650</v>
       </c>
@@ -93540,7 +93536,7 @@
         <v>8560</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>3651</v>
       </c>
@@ -93569,7 +93565,7 @@
         <v>8670</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>4392</v>
       </c>
@@ -93598,7 +93594,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>407</v>
       </c>
@@ -93630,7 +93626,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>407</v>
       </c>
@@ -93659,7 +93655,7 @@
         <v>8272</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>3653</v>
       </c>
@@ -93688,7 +93684,7 @@
         <v>8677</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>3654</v>
       </c>
@@ -93717,7 +93713,7 @@
         <v>8680</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>3655</v>
       </c>
@@ -93746,7 +93742,7 @@
         <v>8683</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>3042</v>
       </c>
@@ -93778,7 +93774,7 @@
         <v>8248</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>3716</v>
       </c>
@@ -93807,7 +93803,7 @@
         <v>8604</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>2940</v>
       </c>
@@ -93839,7 +93835,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>3657</v>
       </c>
@@ -93868,7 +93864,7 @@
         <v>8686</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>3659</v>
       </c>
@@ -93917,7 +93913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>4173</v>
       </c>
@@ -93946,7 +93942,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>3661</v>
       </c>
@@ -93975,7 +93971,7 @@
         <v>8692</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>3661</v>
       </c>
@@ -94004,7 +94000,7 @@
         <v>8695</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>3662</v>
       </c>
@@ -94036,7 +94032,7 @@
         <v>8698</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>4178</v>
       </c>
@@ -94065,7 +94061,7 @@
         <v>8417</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>3665</v>
       </c>
@@ -94094,7 +94090,7 @@
         <v>8701</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>3666</v>
       </c>
@@ -94160,7 +94156,7 @@
   <dimension ref="A1:D287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
